--- a/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>LFUS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>346100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>338500</v>
+      </c>
+      <c r="F8" s="3">
         <v>362000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>397900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>405500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>402300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>439200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>459200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>417800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>304800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>317900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>313400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>285400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>284500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>222400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>225100</v>
+      </c>
+      <c r="F9" s="3">
         <v>231000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>256100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>250300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>247900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>259600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>290200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>268200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>178200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>184200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>180700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>171800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>170200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>166600</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>123700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>113400</v>
+      </c>
+      <c r="F10" s="3">
         <v>131000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>141800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>155200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>154400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>179600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>169000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>149600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>126600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>133700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>132700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>113600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>114300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>17900</v>
+      </c>
+      <c r="F12" s="3">
         <v>19700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>21500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>21400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>21600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>20500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>22700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>22500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>13600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>12000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>12700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>12200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>11300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -983,82 +1022,94 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F15" s="3">
         <v>9800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>10100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>10200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>13700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>13100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>13400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>12000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>6300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>6300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>6200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>5900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>6000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>301300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>306200</v>
+      </c>
+      <c r="F17" s="3">
         <v>314800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>345200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>344800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>350700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>363000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>399600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>380200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>254100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>259300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>253100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>236600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>243500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>252800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>32300</v>
+      </c>
+      <c r="F18" s="3">
         <v>47200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>52700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>60700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>51600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>76200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>59600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>37600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>50700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>58600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>60300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>48800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>41000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>6500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-8500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-6300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>12500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-3500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-6900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>53400</v>
+      </c>
+      <c r="F21" s="3">
         <v>70100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>81800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>75400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>72500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>100200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>84300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>73700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>63600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>74900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>76300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>65600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>49000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F22" s="3">
         <v>5600</v>
-      </c>
-      <c r="E22" s="3">
-        <v>5600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>5700</v>
       </c>
       <c r="G22" s="3">
         <v>5600</v>
       </c>
       <c r="H22" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J22" s="3">
         <v>5800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>5800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>5400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>3500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>3500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>3300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>3100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>2300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>24500</v>
+      </c>
+      <c r="F23" s="3">
         <v>41400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>53600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>46400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>39800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>68200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>52300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>44600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>43700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>55500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>57400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>47400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>31800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F24" s="3">
         <v>5800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>9800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>9500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>3900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>14700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>10000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>8600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>7500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>12700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>8700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>8500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>4500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>22700</v>
+      </c>
+      <c r="F26" s="3">
         <v>35600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>43800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>37000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>35900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>53500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>42300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>36000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>36200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>42800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>48600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>38900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>27200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>22700</v>
+      </c>
+      <c r="F27" s="3">
         <v>35600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>43800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>37000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>35900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>53500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>42300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>36000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>36200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>42800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>48600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>38900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>27200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,26 +1709,26 @@
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
-        <v>-3200</v>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
+      <c r="I29" s="3">
+        <v>-3200</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
-        <v>-47000</v>
+      <c r="K29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
+      <c r="M29" s="3">
+        <v>-47000</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-6500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>8500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>6300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-12500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>3500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>6900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>22700</v>
+      </c>
+      <c r="F33" s="3">
         <v>35600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>43800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>37000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>32700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>53500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>42300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>36000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-10800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>42800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>48600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>38900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>27200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>22700</v>
+      </c>
+      <c r="F35" s="3">
         <v>35600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>43800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>37000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>32700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>53500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>42300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>36000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-10800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>42800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>48600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>38900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>27200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>620600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>531100</v>
+      </c>
+      <c r="F41" s="3">
         <v>476100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>474800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>476600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>489700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>498200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>408100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>412500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>429700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>372800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>321900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>278000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>275100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2050,321 +2229,369 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>3700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>212200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>207100</v>
+      </c>
+      <c r="F43" s="3">
         <v>229100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>247100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>238600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>235200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>258400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>265100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>248800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>184400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>204200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>205700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>224900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>385800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>219600</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>227300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>237500</v>
+      </c>
+      <c r="F44" s="3">
         <v>240100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>254300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>261700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>258200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>247300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>239200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>264000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>140800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>136500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>125200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>118300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>114100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>28600</v>
+      </c>
+      <c r="F45" s="3">
         <v>62400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>63300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>53200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>49300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>48700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>45700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>47800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>37500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>45800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>51900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>13000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>31500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1092500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1004400</v>
+      </c>
+      <c r="F46" s="3">
         <v>1007600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1039500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1030100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1032500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1052600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>958200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>973100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>792300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>759400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>704900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>634200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>612100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>555200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F47" s="3">
         <v>26700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>25500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>24600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>25400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>29100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>31300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>31100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>11000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>10600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>11900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>11700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>13900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>355400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>366500</v>
+      </c>
+      <c r="F48" s="3">
         <v>351400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>361800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>367100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>339900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>343900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>338800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>337200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>250600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>244900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>232500</v>
-      </c>
-      <c r="N48" s="3">
-        <v>223900</v>
-      </c>
-      <c r="O48" s="3">
-        <v>217200</v>
       </c>
       <c r="P48" s="3">
         <v>223900</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>217200</v>
+      </c>
+      <c r="R48" s="3">
+        <v>223900</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1121200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1141800</v>
+      </c>
+      <c r="F49" s="3">
         <v>1140100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1167600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1175900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1188200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1207500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1222300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1246000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>657300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>660700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>643000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>644400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>616600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>634100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F52" s="3">
         <v>25600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>27200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>27300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>28300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>30400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>37400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>40100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>28900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>26700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>29900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>29800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>31400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2612600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2559900</v>
+      </c>
+      <c r="F54" s="3">
         <v>2551400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2621600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2625000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2614300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2663500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2588000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2627500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1740100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1702200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1622200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1544000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1491200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1458100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2878,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>106800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>117300</v>
+      </c>
+      <c r="F57" s="3">
         <v>107200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>123100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>129100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>126300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>129900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>127300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>120800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>101800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>103800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>100800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>88400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>90700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>81400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2681,210 +2948,240 @@
         <v>10000</v>
       </c>
       <c r="H58" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="I58" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="J58" s="3">
         <v>10100</v>
       </c>
       <c r="K58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="L58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="M58" s="3">
         <v>6300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>9400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>7800</v>
-      </c>
-      <c r="N58" s="3">
-        <v>6300</v>
-      </c>
-      <c r="O58" s="3">
-        <v>6300</v>
       </c>
       <c r="P58" s="3">
         <v>6300</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="R58" s="3">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>91400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>98200</v>
+      </c>
+      <c r="F59" s="3">
         <v>131500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>133400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>130500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>159000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>163900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>129800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>133500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>116700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>112900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>93600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>82600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>90600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>100300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>208200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>225600</v>
+      </c>
+      <c r="F60" s="3">
         <v>248700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>266400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>269600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>295300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>303900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>267200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>264400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>224800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>226200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>202200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>177200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>187500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>187900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>764200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>669200</v>
+      </c>
+      <c r="F61" s="3">
         <v>668200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>676900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>676500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>684700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>690600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>687500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>743400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>489400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>492300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>473900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>464300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>447900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>434200</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>163300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>169200</v>
+      </c>
+      <c r="F62" s="3">
         <v>162200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>168300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>173600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>156000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>149600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>163300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>177700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>98400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>50500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>50700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>46800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>40800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1135800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1079300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1111800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1119800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1136100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1144200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1118100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1185700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>812700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>769100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>726900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>688400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>676400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>654700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>963800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>950900</v>
+      </c>
+      <c r="F72" s="3">
         <v>939900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>916000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>882900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>856500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>834600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>791800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>758800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>722100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>741400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>707000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>665800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>634400</v>
       </c>
-      <c r="P72" s="3" t="s">
+      <c r="R72" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1476800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1495900</v>
+      </c>
+      <c r="F76" s="3">
         <v>1472100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1509800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1505300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1478200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1519300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1469900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1441800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>927400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>933100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>895300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>855600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>814800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>803400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>22700</v>
+      </c>
+      <c r="F81" s="3">
         <v>35600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>43800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>37000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>32700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>53500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>42300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>36000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-10800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>42800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>48600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>38900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>27200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>23400</v>
+      </c>
+      <c r="F83" s="3">
         <v>23100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>22700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>23300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>27100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>26300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>26200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>23600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>16400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>15900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>15600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>15100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>14900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>84500</v>
+      </c>
+      <c r="F89" s="3">
         <v>80800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>49200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>30900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>79700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>111200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>71600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>69300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>87900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>87700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>70600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>22900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>80100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-13100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-11200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-14100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-18800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-15600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-22400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-17900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-17500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-20200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-15900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-12400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-11700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-13100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-5600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-14200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-13700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-17800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-26400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-324400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-16900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-43100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-14000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-22100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-12800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-124300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4157,43 +4624,49 @@
         <v>-11700</v>
       </c>
       <c r="E96" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="G96" s="3">
         <v>-10600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-10600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-10700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-10800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-9300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-9200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-8400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-8400</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-7500</v>
       </c>
       <c r="O96" s="3">
         <v>-7500</v>
       </c>
       <c r="P96" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="R96" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-59800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-44300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-31300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-73400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-44100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>240300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-18200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>3600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-13000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>21800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>73600</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F101" s="3">
         <v>-6500</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>1500</v>
       </c>
       <c r="G101" s="3">
         <v>-1100</v>
       </c>
       <c r="H101" s="3">
-        <v>-2400</v>
+        <v>1500</v>
       </c>
       <c r="I101" s="3">
-        <v>-5500</v>
+        <v>-1100</v>
       </c>
       <c r="J101" s="3">
         <v>-2400</v>
       </c>
       <c r="K101" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="M101" s="3">
         <v>4100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>2700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-8500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>89400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>55100</v>
+      </c>
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-13100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-8500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>90100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-4300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-17200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>56800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>50900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>43900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>2900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>80600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>15000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>LFUS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>307300</v>
+      </c>
+      <c r="E8" s="3">
         <v>346100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>338500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>362000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>397900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>405500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>402300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>439200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>459200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>417800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>304800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>317900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>313400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>285400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>284500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>208200</v>
+      </c>
+      <c r="E9" s="3">
         <v>222400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>225100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>231000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>256100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>250300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>247900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>259600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>290200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>268200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>178200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>184200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>180700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>171800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>170200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>166600</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>99100</v>
+      </c>
+      <c r="E10" s="3">
         <v>123700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>113400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>131000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>141800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>155200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>154400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>179600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>169000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>149600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>126600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>133700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>132700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>113600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>114300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E12" s="3">
         <v>14600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>17900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>19700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>21500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>21400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>22700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>22500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>13600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>12200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,13 +1025,16 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>33800</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -1028,11 +1048,11 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1040,76 +1060,82 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>10000</v>
+        <v>9800</v>
       </c>
       <c r="E15" s="3">
         <v>10000</v>
       </c>
       <c r="F15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G15" s="3">
         <v>9800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>10100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>10200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>13700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>13100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>13400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>12000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>6300</v>
       </c>
       <c r="N15" s="3">
         <v>6300</v>
       </c>
       <c r="O15" s="3">
+        <v>6300</v>
+      </c>
+      <c r="P15" s="3">
         <v>6200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>5900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>6000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>319300</v>
+      </c>
+      <c r="E17" s="3">
         <v>301300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>306200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>314800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>345200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>344800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>350700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>363000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>399600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>380200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>254100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>259300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>253100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>236600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>243500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>252800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E18" s="3">
         <v>44800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>32300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>47200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>52700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>60700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>51600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>76200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>59600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>37600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>50700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>58600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>60300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>48800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>41000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-8500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>12500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E21" s="3">
         <v>64700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>53400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>70100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>81800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>75400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>72500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>100200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>84300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>73700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>63600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>74900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>76300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>65600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>49000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5400</v>
+        <v>5900</v>
       </c>
       <c r="E22" s="3">
         <v>5400</v>
       </c>
       <c r="F22" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="G22" s="3">
         <v>5600</v>
       </c>
       <c r="H22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I22" s="3">
         <v>5700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>5800</v>
       </c>
       <c r="K22" s="3">
         <v>5800</v>
       </c>
       <c r="L22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="M22" s="3">
         <v>5400</v>
-      </c>
-      <c r="M22" s="3">
-        <v>3500</v>
       </c>
       <c r="N22" s="3">
         <v>3500</v>
       </c>
       <c r="O22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P22" s="3">
         <v>3300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E23" s="3">
         <v>35500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>24500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>41400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>53600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>46400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>39800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>68200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>52300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>44600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>43700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>55500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>57400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>47400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>31800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E24" s="3">
         <v>10900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E26" s="3">
         <v>24600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>22700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>35600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>43800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>37000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>35900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>53500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>42300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>36000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>36200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>42800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>48600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>38900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>27200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E27" s="3">
         <v>24600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>22700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>35600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>43800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>37000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>35900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>53500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>42300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>36000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>36200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>42800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>48600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>38900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>27200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1715,11 +1776,11 @@
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3">
         <v>-3200</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -1727,11 +1788,11 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3">
         <v>-47000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E32" s="3">
         <v>3800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>8500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-12500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E33" s="3">
         <v>24600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>22700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>35600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>43800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>37000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>32700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>53500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>42300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>36000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>42800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>48600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>38900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>27200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E35" s="3">
         <v>24600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>22700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>35600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>43800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>37000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>32700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>53500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>42300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>36000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>42800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>48600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>38900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>27200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>651900</v>
+      </c>
+      <c r="E41" s="3">
         <v>620600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>531100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>476100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>474800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>476600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>489700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>498200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>408100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>412500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>429700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>372800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>321900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>278000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>275100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2235,363 +2325,387 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>3700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>187300</v>
+      </c>
+      <c r="E43" s="3">
         <v>212200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>207100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>229100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>247100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>238600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>235200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>258400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>265100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>248800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>184400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>204200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>205700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>224900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>385800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>219600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>248000</v>
+      </c>
+      <c r="E44" s="3">
         <v>227300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>237500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>240100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>254300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>261700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>258200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>247300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>239200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>264000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>140800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>136500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>125200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>118300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>114100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E45" s="3">
         <v>32400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>28600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>62400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>63300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>53200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>49300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>48700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>45700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>47800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>37500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>45800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>51900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>13000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>31500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1119200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1092500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1004400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1007600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1039500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1030100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1032500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1052600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>958200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>973100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>792300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>759400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>704900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>634200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>612100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>555200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E47" s="3">
         <v>21200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>24100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>26700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>25500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>24600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>25400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>29100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>31300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>31100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>11900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>11700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>13900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>354300</v>
+      </c>
+      <c r="E48" s="3">
         <v>355400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>366500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>351400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>361800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>367100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>339900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>343900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>338800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>337200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>250600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>244900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>232500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>223900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>217200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>223900</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1089300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1121200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1141800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1140100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1167600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1175900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1188200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1207500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1222300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1246000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>657300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>660700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>643000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>644400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>616600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>634100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E52" s="3">
         <v>22300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>23000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>25600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>27200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>27300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>28300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>30400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>37400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>40100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>28900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>26700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>29900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>29800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>31400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2611100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2612600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2559900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2551400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2621600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2625000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2614300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2663500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2588000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2627500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1740100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1702200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1622200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1544000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1491200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1458100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,63 +3010,67 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>113800</v>
+      </c>
+      <c r="E57" s="3">
         <v>106800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>117300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>107200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>123100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>129100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>126300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>129900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>127300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>120800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>101800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>103800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>100800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>88400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>90700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>81400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>10000</v>
@@ -2954,7 +3088,7 @@
         <v>10000</v>
       </c>
       <c r="J58" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="K58" s="3">
         <v>10100</v>
@@ -2963,16 +3097,16 @@
         <v>10100</v>
       </c>
       <c r="M58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="N58" s="3">
         <v>6300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7800</v>
-      </c>
-      <c r="P58" s="3">
-        <v>6300</v>
       </c>
       <c r="Q58" s="3">
         <v>6300</v>
@@ -2980,158 +3114,170 @@
       <c r="R58" s="3">
         <v>6300</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>95400</v>
+      </c>
+      <c r="E59" s="3">
         <v>91400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>98200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>131500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>133400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>130500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>159000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>163900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>129800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>133500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>116700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>112900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>93600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>82600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>90600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>100300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>209200</v>
+      </c>
+      <c r="E60" s="3">
         <v>208200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>225600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>248700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>266400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>269600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>295300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>303900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>267200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>264400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>224800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>226200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>202200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>177200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>187500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>187900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>776200</v>
+      </c>
+      <c r="E61" s="3">
         <v>764200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>669200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>668200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>676900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>676500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>684700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>690600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>687500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>743400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>489400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>492300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>473900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>464300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>447900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>434200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3139,49 +3285,52 @@
         <v>163300</v>
       </c>
       <c r="E62" s="3">
+        <v>163300</v>
+      </c>
+      <c r="F62" s="3">
         <v>169200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>162200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>168300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>173600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>156000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>149600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>163300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>177700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>98400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>50500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>50700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>46800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>40800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1148800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1135800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1064000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1079300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1111800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1119800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1136100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1144200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1118100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1185700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>812700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>769100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>726900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>688400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>676400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>654700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>943200</v>
+      </c>
+      <c r="E72" s="3">
         <v>963800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>950900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>939900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>916000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>882900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>856500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>834600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>791800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>758800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>722100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>741400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>707000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>665800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>634400</v>
       </c>
-      <c r="R72" s="3" t="s">
+      <c r="S72" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1462300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1476800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1495900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1472100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1509800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1505300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1478200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1519300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1469900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1441800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>927400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>933100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>895300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>855600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>814800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>803400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E81" s="3">
         <v>24600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>22700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>35600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>43800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>37000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>32700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>53500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>42300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>36000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>42800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>48600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>38900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>27200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E83" s="3">
         <v>23800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>23400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>23100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>22700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>23300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>27100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>26300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>26200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>23600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>15900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>15600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>15100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>14900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E89" s="3">
         <v>45300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>84500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>80800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>49200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>30900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>79700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>111200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>71600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>69300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>87900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>87700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>70600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>22900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>80100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-23500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-22400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-17500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-20200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-23500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-14200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-17800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-26400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-324400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-16900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-43100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-14000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-12800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-124300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4630,31 +4864,31 @@
         <v>-11700</v>
       </c>
       <c r="G96" s="3">
-        <v>-10600</v>
+        <v>-11700</v>
       </c>
       <c r="H96" s="3">
         <v>-10600</v>
       </c>
       <c r="I96" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="J96" s="3">
         <v>-10700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-10800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-9300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-9200</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-8400</v>
       </c>
       <c r="N96" s="3">
         <v>-8400</v>
       </c>
       <c r="O96" s="3">
-        <v>-7500</v>
+        <v>-8400</v>
       </c>
       <c r="P96" s="3">
         <v>-7500</v>
@@ -4663,10 +4897,13 @@
         <v>-7500</v>
       </c>
       <c r="R96" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="S96" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E100" s="3">
         <v>65800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-10800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-59800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-44300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-31300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-73400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-44100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>240300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-18200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-13000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>21800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>73600</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-8500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E102" s="3">
         <v>89400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>55100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>90100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-17200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>56800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>50900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>43900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>80600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>15000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>LFUS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>391600</v>
+      </c>
+      <c r="E8" s="3">
         <v>307300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>346100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>338500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>362000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>397900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>405500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>402300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>439200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>459200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>417800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>304800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>317900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>313400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>285400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>284500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>253400</v>
+      </c>
+      <c r="E9" s="3">
         <v>208200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>222400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>225100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>231000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>256100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>250300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>247900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>259600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>290200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>268200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>178200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>184200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>180700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>171800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>170200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>166600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>138200</v>
+      </c>
+      <c r="E10" s="3">
         <v>99100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>123700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>113400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>131000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>141800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>155200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>154400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>179600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>169000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>149600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>126600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>133700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>132700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>113600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>114300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E12" s="3">
         <v>13400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>17900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>19700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>21500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>22700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>22500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>13600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>12700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>12200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,16 +1045,19 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>33800</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -1051,11 +1071,11 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1063,79 +1083,85 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E15" s="3">
         <v>9800</v>
-      </c>
-      <c r="E15" s="3">
-        <v>10000</v>
       </c>
       <c r="F15" s="3">
         <v>10000</v>
       </c>
       <c r="G15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H15" s="3">
         <v>9800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>10100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>10200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>13700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>13100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>13400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>12000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>6300</v>
       </c>
       <c r="O15" s="3">
         <v>6300</v>
       </c>
       <c r="P15" s="3">
+        <v>6300</v>
+      </c>
+      <c r="Q15" s="3">
         <v>6200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>5900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>6000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>327000</v>
+      </c>
+      <c r="E17" s="3">
         <v>319300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>301300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>306200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>314800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>345200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>344800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>350700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>363000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>399600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>380200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>254100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>259300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>253100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>236600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>243500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>252800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-12000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>44800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>32300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>47200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>52700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>60700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>51600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>76200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>59600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>37600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>50700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>58600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>60300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>48800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>41000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E20" s="3">
         <v>7300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-8500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>12500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>96700</v>
+      </c>
+      <c r="E21" s="3">
         <v>19000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>64700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>53400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>70100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>81800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>75400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>72500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>84300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>73700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>63600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>74900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>76300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>65600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>49000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E22" s="3">
         <v>5900</v>
-      </c>
-      <c r="E22" s="3">
-        <v>5400</v>
       </c>
       <c r="F22" s="3">
         <v>5400</v>
       </c>
       <c r="G22" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="H22" s="3">
         <v>5600</v>
       </c>
       <c r="I22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J22" s="3">
         <v>5700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5600</v>
-      </c>
-      <c r="K22" s="3">
-        <v>5800</v>
       </c>
       <c r="L22" s="3">
         <v>5800</v>
       </c>
       <c r="M22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="N22" s="3">
         <v>5400</v>
-      </c>
-      <c r="N22" s="3">
-        <v>3500</v>
       </c>
       <c r="O22" s="3">
         <v>3500</v>
       </c>
       <c r="P22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q22" s="3">
         <v>3300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>35500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>24500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>41400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>53600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>46400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>39800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>68200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>52300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>44600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>43700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>55500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>57400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>47400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>31800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>24600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>22700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>35600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>43800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>37000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>35900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>53500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>42300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>36000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>36200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>42800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>48600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>38900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>27200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>24600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>22700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>35600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>43800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>37000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>35900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>53500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>42300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>36000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>36200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>42800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>48600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>38900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>27200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1779,11 +1840,11 @@
       <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="3">
         <v>-3200</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
@@ -1791,11 +1852,11 @@
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3">
         <v>-47000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>8500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-12500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>24600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>22700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>35600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>43800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>37000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>32700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>53500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>42300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>36000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>42800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>48600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>38900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>27200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>24600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>22700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>35600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>43800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>37000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>32700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>53500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>42300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>36000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>42800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>48600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>38900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>27200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,66 +2313,70 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>641900</v>
+      </c>
+      <c r="E41" s="3">
         <v>651900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>620600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>531100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>476100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>474800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>476600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>489700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>498200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>408100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>412500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>429700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>372800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>321900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>278000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>275100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -2328,384 +2418,408 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>3700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>233100</v>
+      </c>
+      <c r="E43" s="3">
         <v>187300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>212200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>207100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>229100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>247100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>238600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>235200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>258400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>265100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>248800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>184400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>204200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>205700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>224900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>385800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>219600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>243800</v>
+      </c>
+      <c r="E44" s="3">
         <v>248000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>227300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>237500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>240100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>254300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>261700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>258200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>247300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>239200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>264000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>140800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>136500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>125200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>118300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>114100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E45" s="3">
         <v>31900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>32400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>28600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>62400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>63300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>53200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>49300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>48700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>45700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>47800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>37500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>45800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>51900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>31500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1148900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1119200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1092500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1004400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1007600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1039500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1030100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1032500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1052600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>958200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>973100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>792300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>759400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>704900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>634200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>612100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>555200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E47" s="3">
         <v>23700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>21200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>24100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>26700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>25500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>24600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>25400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>29100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>31300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>31100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>11000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>11900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>11700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>13900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>358700</v>
+      </c>
+      <c r="E48" s="3">
         <v>354300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>355400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>366500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>351400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>361800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>367100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>339900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>343900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>338800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>337200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>250600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>244900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>232500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>223900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>217200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>223900</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1096000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1089300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1121200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1141800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1140100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1167600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1175900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1188200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1207500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1222300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1246000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>657300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>660700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>643000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>644400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>616600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>634100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2819,52 +2939,55 @@
         <v>24700</v>
       </c>
       <c r="E52" s="3">
+        <v>24700</v>
+      </c>
+      <c r="F52" s="3">
         <v>22300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>23000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>25600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>27200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>27300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>28300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>30400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>37400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>40100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>28900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>26700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>29900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>29800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>31400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2654400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2611100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2612600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2559900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2551400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2621600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2625000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2614300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2663500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2588000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2627500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1740100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1702200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1622200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1544000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1491200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1458100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>120900</v>
+      </c>
+      <c r="E57" s="3">
         <v>113800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>106800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>117300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>107200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>123100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>129100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>126300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>129900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>127300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>120800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>101800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>103800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>100800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>88400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>90700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>81400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3073,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>10000</v>
@@ -3091,7 +3225,7 @@
         <v>10000</v>
       </c>
       <c r="K58" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="L58" s="3">
         <v>10100</v>
@@ -3100,16 +3234,16 @@
         <v>10100</v>
       </c>
       <c r="N58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="O58" s="3">
         <v>6300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7800</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>6300</v>
       </c>
       <c r="R58" s="3">
         <v>6300</v>
@@ -3117,220 +3251,235 @@
       <c r="S58" s="3">
         <v>6300</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>113700</v>
+      </c>
+      <c r="E59" s="3">
         <v>95400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>91400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>98200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>131500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>133400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>130500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>159000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>163900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>129800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>133500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>116700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>112900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>93600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>82600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>90600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>100300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>234600</v>
+      </c>
+      <c r="E60" s="3">
         <v>209200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>208200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>225600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>248700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>266400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>269600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>295300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>303900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>267200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>264400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>224800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>226200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>202200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>177200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>187500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>187900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>725500</v>
+      </c>
+      <c r="E61" s="3">
         <v>776200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>764200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>669200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>668200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>676900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>676500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>684700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>690600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>687500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>743400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>489400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>492300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>473900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>464300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>447900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>434200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>163300</v>
+        <v>164700</v>
       </c>
       <c r="E62" s="3">
         <v>163300</v>
       </c>
       <c r="F62" s="3">
+        <v>163300</v>
+      </c>
+      <c r="G62" s="3">
         <v>169200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>162200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>168300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>173600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>156000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>149600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>163300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>177700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>98400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>50500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>50700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>46800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>40800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1124900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1148800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1135800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1064000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1079300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1111800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1119800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1136100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1144200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1118100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1185700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>812700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>769100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>726900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>688400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>676400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>654700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>986800</v>
+      </c>
+      <c r="E72" s="3">
         <v>943200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>963800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>950900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>939900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>916000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>882900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>856500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>834600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>791800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>758800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>722100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>741400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>707000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>665800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>634400</v>
       </c>
-      <c r="S72" s="3" t="s">
+      <c r="T72" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1529400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1462300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1476800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1495900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1472100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1509800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1505300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1478200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1519300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1469900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1441800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>927400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>933100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>895300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>855600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>814800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>803400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>24600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>22700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>35600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>43800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>37000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>32700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>53500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>42300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>36000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>42800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>48600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>38900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>27200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E83" s="3">
         <v>23700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>23800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>23400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>23100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>22700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>23300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>27100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>26300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>26200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>23600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>16400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>15900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>15600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>15100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E89" s="3">
         <v>56000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>45300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>84500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>80800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>49200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>30900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>79700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>111200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>71600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>69300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>87900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>87700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>70600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>22900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>80100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-23500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-22400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-17900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-17500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-20200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-12400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-23500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-13100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-14200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-13700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-17800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-26400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-324400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-16900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-43100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-22100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-12800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-124300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4867,31 +5101,31 @@
         <v>-11700</v>
       </c>
       <c r="H96" s="3">
-        <v>-10600</v>
+        <v>-11700</v>
       </c>
       <c r="I96" s="3">
         <v>-10600</v>
       </c>
       <c r="J96" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-10700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-10800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-9300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-9200</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-8400</v>
       </c>
       <c r="O96" s="3">
         <v>-8400</v>
       </c>
       <c r="P96" s="3">
-        <v>-7500</v>
+        <v>-8400</v>
       </c>
       <c r="Q96" s="3">
         <v>-7500</v>
@@ -4900,10 +5134,13 @@
         <v>-7500</v>
       </c>
       <c r="S96" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="T96" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-68900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-15300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>65800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-10800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-59800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-44300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-31300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-73400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-44100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>240300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-18200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>21800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>73600</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E101" s="3">
         <v>3400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-6500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-8500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E102" s="3">
         <v>31300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>89400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>55100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-13100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>90100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-17200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>56800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>50900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>43900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>80600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>15000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>LFUS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400700</v>
+      </c>
+      <c r="E8" s="3">
         <v>391600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>307300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>346100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>338500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>362000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>397900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>405500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>402300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>439200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>459200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>417800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>304800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>317900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>313400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>285400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>284500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>260500</v>
+      </c>
+      <c r="E9" s="3">
         <v>253400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>208200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>222400</v>
       </c>
-      <c r="G9" s="3">
-        <v>225100</v>
-      </c>
       <c r="H9" s="3">
+        <v>220200</v>
+      </c>
+      <c r="I9" s="3">
         <v>231000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>256100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>250300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>247900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>259600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>290200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>268200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>178200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>184200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>180700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>171800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>170200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>166600</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>140200</v>
+      </c>
+      <c r="E10" s="3">
         <v>138200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>99100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>123700</v>
       </c>
-      <c r="G10" s="3">
-        <v>113400</v>
-      </c>
       <c r="H10" s="3">
+        <v>118300</v>
+      </c>
+      <c r="I10" s="3">
         <v>131000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>141800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>155200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>154400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>179600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>169000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>149600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>126600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>133700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>132700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>113600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>114300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E12" s="3">
         <v>13000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14600</v>
       </c>
-      <c r="G12" s="3">
-        <v>17900</v>
-      </c>
       <c r="H12" s="3">
+        <v>17400</v>
+      </c>
+      <c r="I12" s="3">
         <v>19700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>22700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>22500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>13600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>12000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>12700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>12200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>11300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,25 +1064,28 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>33800</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
+      <c r="G14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2100</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -1074,11 +1093,11 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1086,26 +1105,29 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1113,55 +1135,58 @@
         <v>10100</v>
       </c>
       <c r="E15" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F15" s="3">
         <v>9800</v>
-      </c>
-      <c r="F15" s="3">
-        <v>10000</v>
       </c>
       <c r="G15" s="3">
         <v>10000</v>
       </c>
       <c r="H15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I15" s="3">
         <v>9800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>10100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>10200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>13700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>13100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>13400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>12000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>6300</v>
       </c>
       <c r="P15" s="3">
         <v>6300</v>
       </c>
       <c r="Q15" s="3">
+        <v>6300</v>
+      </c>
+      <c r="R15" s="3">
         <v>6200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>5900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>6000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>335700</v>
+      </c>
+      <c r="E17" s="3">
         <v>327000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>319300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>301300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>306200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>314800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>345200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>344800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>350700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>363000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>399600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>380200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>254100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>259300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>253100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>236600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>243500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>252800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E18" s="3">
         <v>64600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-12000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>44800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>32300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>47200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>52700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>60700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>51600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>76200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>59600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>37600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>50700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>58600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>60300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>48800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>41000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E20" s="3">
         <v>7800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-8500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>12500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E21" s="3">
         <v>96700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>19000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>64700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>53400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>70100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>81800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>75400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>72500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>100200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>84300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>73700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>63600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>74900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>76300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>65600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>49000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E22" s="3">
         <v>5000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5900</v>
-      </c>
-      <c r="F22" s="3">
-        <v>5400</v>
       </c>
       <c r="G22" s="3">
         <v>5400</v>
       </c>
       <c r="H22" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="I22" s="3">
         <v>5600</v>
       </c>
       <c r="J22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K22" s="3">
         <v>5700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5600</v>
-      </c>
-      <c r="L22" s="3">
-        <v>5800</v>
       </c>
       <c r="M22" s="3">
         <v>5800</v>
       </c>
       <c r="N22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="O22" s="3">
         <v>5400</v>
-      </c>
-      <c r="O22" s="3">
-        <v>3500</v>
       </c>
       <c r="P22" s="3">
         <v>3500</v>
       </c>
       <c r="Q22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R22" s="3">
         <v>3300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>68900</v>
+      </c>
+      <c r="E23" s="3">
         <v>67400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>35500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>24500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>41400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>53600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>46400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>39800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>68200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>52300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>44600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>43700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>55500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>57400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>47400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>31800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E24" s="3">
         <v>12100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E26" s="3">
         <v>55400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>24600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>22700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>35600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>43800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>37000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>35900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>53500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>42300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>36000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>36200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>42800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>48600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>38900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>27200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E27" s="3">
         <v>55400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>24600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>22700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>35600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>43800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>37000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>35900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>53500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>42300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>36000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>36200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>42800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>48600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>38900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>27200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1843,11 +1903,11 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="3">
         <v>-3200</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
@@ -1855,11 +1915,11 @@
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3">
         <v>-47000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>8500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-12500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E33" s="3">
         <v>55400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>24600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>22700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>35600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>43800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>37000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>32700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>53500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>42300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>36000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>42800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>48600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>38900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>27200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E35" s="3">
         <v>55400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>24600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>22700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>35600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>43800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>37000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>32700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>53500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>42300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>36000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>42800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>48600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>38900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>27200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>687500</v>
+      </c>
+      <c r="E41" s="3">
         <v>641900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>651900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>620600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>531100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>476100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>474800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>476600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>489700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>498200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>408100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>412500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>429700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>372800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>321900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>278000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>275100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2379,7 +2468,7 @@
         <v>100</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2421,405 +2510,429 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>3700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>235800</v>
+      </c>
+      <c r="E43" s="3">
         <v>233100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>187300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>212200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>207100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>229100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>247100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>238600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>235200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>258400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>265100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>248800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>184400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>204200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>205700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>224900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>385800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>219600</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>258000</v>
+      </c>
+      <c r="E44" s="3">
         <v>243800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>248000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>227300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>237500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>240100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>254300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>261700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>258200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>247300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>239200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>264000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>140800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>136500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>125200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>118300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>114100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E45" s="3">
         <v>30000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>31900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>32400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>28600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>62400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>63300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>53200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>49300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>48700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>45700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>47800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>37500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>45800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>51900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>13000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>31500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1217300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1148900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1119200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1092500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1004400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1007600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1039500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1030100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1032500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1052600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>958200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>973100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>792300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>759400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>704900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>634200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>612100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>555200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E47" s="3">
         <v>26100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>23700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>21200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>24100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>26700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>25500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>24600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>25400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>29100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>31300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>31100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>11000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>11900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>11700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>13900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>361800</v>
+      </c>
+      <c r="E48" s="3">
         <v>358700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>354300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>355400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>366500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>351400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>361800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>367100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>339900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>343900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>338800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>337200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>250600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>244900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>232500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>223900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>217200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>223900</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1096000</v>
+        <v>1100400</v>
       </c>
       <c r="E49" s="3">
-        <v>1089300</v>
+        <v>1087900</v>
       </c>
       <c r="F49" s="3">
-        <v>1121200</v>
+        <v>1081500</v>
       </c>
       <c r="G49" s="3">
+        <v>1113400</v>
+      </c>
+      <c r="H49" s="3">
         <v>1141800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1140100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1167600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1175900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1188200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1207500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1222300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1246000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>657300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>660700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>643000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>644400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>616600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>634100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>24700</v>
+        <v>37500</v>
       </c>
       <c r="E52" s="3">
-        <v>24700</v>
+        <v>32800</v>
       </c>
       <c r="F52" s="3">
-        <v>22300</v>
+        <v>32400</v>
       </c>
       <c r="G52" s="3">
+        <v>30100</v>
+      </c>
+      <c r="H52" s="3">
         <v>23000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>25600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>27200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>27300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>28300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>30400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>37400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>40100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>28900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>26700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>29900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>29800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>31400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2747600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2654400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2611100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2612600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2559900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2551400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2621600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2625000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2614300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2663500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2588000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2627500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1740100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1702200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1622200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1544000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1491200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1458100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3271,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E57" s="3">
         <v>120900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>113800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>106800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>117300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>107200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>123100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>129100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>126300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>129900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>127300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>120800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>101800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>103800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>100800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>88400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>90700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>81400</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3210,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>10000</v>
@@ -3228,7 +3361,7 @@
         <v>10000</v>
       </c>
       <c r="L58" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="M58" s="3">
         <v>10100</v>
@@ -3237,16 +3370,16 @@
         <v>10100</v>
       </c>
       <c r="O58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="P58" s="3">
         <v>6300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7800</v>
-      </c>
-      <c r="R58" s="3">
-        <v>6300</v>
       </c>
       <c r="S58" s="3">
         <v>6300</v>
@@ -3254,232 +3387,247 @@
       <c r="T58" s="3">
         <v>6300</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>129700</v>
+      </c>
+      <c r="E59" s="3">
         <v>113700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>95400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>91400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>98200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>131500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>133400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>130500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>159000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>163900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>129800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>133500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>116700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>112900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>93600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>82600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>90600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>100300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>275600</v>
+      </c>
+      <c r="E60" s="3">
         <v>234600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>209200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>208200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>225600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>248700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>266400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>269600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>295300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>303900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>267200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>264400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>224800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>226200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>202200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>177200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>187500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>187900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>687000</v>
+      </c>
+      <c r="E61" s="3">
         <v>725500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>776200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>764200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>669200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>668200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>676900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>676500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>684700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>690600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>687500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>743400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>489400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>492300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>473900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>464300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>447900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>434200</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>176100</v>
+      </c>
+      <c r="E62" s="3">
         <v>164700</v>
-      </c>
-      <c r="E62" s="3">
-        <v>163300</v>
       </c>
       <c r="F62" s="3">
         <v>163300</v>
       </c>
       <c r="G62" s="3">
+        <v>163300</v>
+      </c>
+      <c r="H62" s="3">
         <v>169200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>162200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>168300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>173600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>156000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>149600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>163300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>177700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>98400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>50500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>50700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>46800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>40800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1139000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1124900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1148800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1135800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1064000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1079300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1111800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1119800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1136100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1144200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1118100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1185700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>812700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>769100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>726900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>688400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>676400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>654700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1034000</v>
+      </c>
+      <c r="E72" s="3">
         <v>986800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>943200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>963800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>950900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>939900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>916000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>882900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>856500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>834600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>791800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>758800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>722100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>741400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>707000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>665800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>634400</v>
       </c>
-      <c r="T72" s="3" t="s">
+      <c r="U72" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1608600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1529400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1462300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1476800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1495900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1472100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1509800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1505300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1478200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1519300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1469900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1441800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>927400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>933100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>895300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>855600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>814800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>803400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E81" s="3">
         <v>55400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>24600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>22700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>35600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>43800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>37000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>32700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>53500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>42300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>36000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>42800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>48600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>38900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>27200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4432,55 +4630,58 @@
         <v>24300</v>
       </c>
       <c r="E83" s="3">
+        <v>24300</v>
+      </c>
+      <c r="F83" s="3">
         <v>23700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>23800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>23400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>23100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>22700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>23300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>27100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>26300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>26200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>23600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>16400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>15900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>15600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>15100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>14900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>93800</v>
+      </c>
+      <c r="E89" s="3">
         <v>63000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>56000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>45300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>84500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>80800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>49200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>30900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>79700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>111200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>71600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>69300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>87900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>87700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>70600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>22900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>80100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-16600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-23500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-22400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-17900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-17500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-12400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-23500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-17800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-26400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-324400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-43100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-14000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-22100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-12800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-124300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5104,31 +5337,31 @@
         <v>-11700</v>
       </c>
       <c r="I96" s="3">
-        <v>-10600</v>
+        <v>-11700</v>
       </c>
       <c r="J96" s="3">
         <v>-10600</v>
       </c>
       <c r="K96" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="L96" s="3">
         <v>-10700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-10800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-9300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-9200</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-8400</v>
       </c>
       <c r="P96" s="3">
         <v>-8400</v>
       </c>
       <c r="Q96" s="3">
-        <v>-7500</v>
+        <v>-8400</v>
       </c>
       <c r="R96" s="3">
         <v>-7500</v>
@@ -5137,10 +5370,13 @@
         <v>-7500</v>
       </c>
       <c r="T96" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="U96" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-49400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-68900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-15300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>65800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-10800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-59800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-44300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-31300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-73400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-44100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>240300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-18200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-13000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>21800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>73600</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E101" s="3">
         <v>8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-6500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-8500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>31300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>89400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>55100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-13100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>90100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-17200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>56800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>50900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>43900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>80600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>15000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>LFUS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E7" s="2">
         <v>44191</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>463800</v>
+      </c>
+      <c r="E8" s="3">
         <v>400700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>391600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>307300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>346100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>338500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>362000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>397900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>405500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>402300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>439200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>459200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>417800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>304800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>317900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>313400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>285400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>284500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>303300</v>
+      </c>
+      <c r="E9" s="3">
         <v>260500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>253400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>208200</v>
       </c>
-      <c r="G9" s="3">
-        <v>222400</v>
-      </c>
       <c r="H9" s="3">
+        <v>221700</v>
+      </c>
+      <c r="I9" s="3">
         <v>220200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>231000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>256100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>250300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>247900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>259600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>290200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>268200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>178200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>184200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>180700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>171800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>170200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>166600</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>160500</v>
+      </c>
+      <c r="E10" s="3">
         <v>140200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>138200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>99100</v>
       </c>
-      <c r="G10" s="3">
-        <v>123700</v>
-      </c>
       <c r="H10" s="3">
+        <v>124400</v>
+      </c>
+      <c r="I10" s="3">
         <v>118300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>131000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>141800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>155200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>154400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>179600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>169000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>149600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>126600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>133700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>132700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>113600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>114300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E12" s="3">
         <v>11500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>13400</v>
       </c>
-      <c r="G12" s="3">
-        <v>14600</v>
-      </c>
       <c r="H12" s="3">
+        <v>14500</v>
+      </c>
+      <c r="I12" s="3">
         <v>17400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>19700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>22700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>22500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>13600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>12000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>12700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>12200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>11300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,28 +1084,31 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>33800</v>
       </c>
-      <c r="G14" s="3">
-        <v>2200</v>
-      </c>
       <c r="H14" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I14" s="3">
         <v>2100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -1096,11 +1116,11 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1108,85 +1128,91 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>10100</v>
+        <v>10500</v>
       </c>
       <c r="E15" s="3">
         <v>10100</v>
       </c>
       <c r="F15" s="3">
+        <v>10100</v>
+      </c>
+      <c r="G15" s="3">
         <v>9800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>10000</v>
       </c>
       <c r="H15" s="3">
         <v>10000</v>
       </c>
       <c r="I15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J15" s="3">
         <v>9800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>10100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>13700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>13100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>13400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>12000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>6300</v>
       </c>
       <c r="Q15" s="3">
         <v>6300</v>
       </c>
       <c r="R15" s="3">
+        <v>6300</v>
+      </c>
+      <c r="S15" s="3">
         <v>6200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>5900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>6000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>387300</v>
+      </c>
+      <c r="E17" s="3">
         <v>335700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>327000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>319300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>301300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>306200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>314800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>345200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>344800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>350700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>363000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>399600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>380200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>254100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>259300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>253100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>236600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>243500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>252800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E18" s="3">
         <v>65000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>64600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>44800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>32300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>47200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>52700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>60700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>51600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>76200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>59600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>37600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>50700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>58600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>60300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>48800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>41000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
         <v>8700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>12500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>101600</v>
+      </c>
+      <c r="E21" s="3">
         <v>98000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>96700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>19000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>64700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>53400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>70100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>81800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>75400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>72500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>100200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>84300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>73700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>63600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>74900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>76300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>65600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>49000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E22" s="3">
         <v>4800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5900</v>
-      </c>
-      <c r="G22" s="3">
-        <v>5400</v>
       </c>
       <c r="H22" s="3">
         <v>5400</v>
       </c>
       <c r="I22" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="J22" s="3">
         <v>5600</v>
       </c>
       <c r="K22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="L22" s="3">
         <v>5700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5600</v>
-      </c>
-      <c r="M22" s="3">
-        <v>5800</v>
       </c>
       <c r="N22" s="3">
         <v>5800</v>
       </c>
       <c r="O22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="P22" s="3">
         <v>5400</v>
-      </c>
-      <c r="P22" s="3">
-        <v>3500</v>
       </c>
       <c r="Q22" s="3">
         <v>3500</v>
       </c>
       <c r="R22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="S22" s="3">
         <v>3300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>72700</v>
+      </c>
+      <c r="E23" s="3">
         <v>68900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>67400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>35500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>24500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>41400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>53600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>46400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>39800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>68200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>52300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>44600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>43700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>55500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>57400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>47400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>31800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E24" s="3">
         <v>9900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E26" s="3">
         <v>59000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>55400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>24600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>22700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>35600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>43800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>37000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>35900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>53500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>42300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>36000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>36200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>42800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>48600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>38900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>27200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E27" s="3">
         <v>59000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>55400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>24600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>22700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>35600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>43800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>37000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>35900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>53500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>42300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>36000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>36200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>42800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>48600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>38900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>27200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1906,11 +1967,11 @@
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="3">
         <v>-3200</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
@@ -1918,11 +1979,11 @@
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-47000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>10</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-12500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E33" s="3">
         <v>59000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>55400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>24600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>22700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>35600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>43800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>37000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>32700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>53500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>42300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>36000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>42800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>48600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>38900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>27200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E35" s="3">
         <v>59000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>55400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>24600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>22700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>35600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>43800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>37000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>32700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>53500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>42300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>36000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>42800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>48600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>38900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>27200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E38" s="2">
         <v>44191</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>572800</v>
+      </c>
+      <c r="E41" s="3">
         <v>687500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>641900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>651900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>620600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>531100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>476100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>474800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>476600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>489700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>498200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>408100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>412500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>429700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>372800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>321900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>278000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>275100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2471,7 +2561,7 @@
         <v>100</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -2513,426 +2603,450 @@
         <v>0</v>
       </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>3700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>280800</v>
+      </c>
+      <c r="E43" s="3">
         <v>235800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>233100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>187300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>212200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>207100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>229100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>247100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>238600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>235200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>258400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>265100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>248800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>184400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>204200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>205700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>224900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>385800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>219600</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>295100</v>
+      </c>
+      <c r="E44" s="3">
         <v>258000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>243800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>248000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>227300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>237500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>240100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>254300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>261700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>258200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>247300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>239200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>264000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>140800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>136500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>125200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>118300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>114100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E45" s="3">
         <v>35900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>30000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>31900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>32400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>62400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>63300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>53200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>49300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>48700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>45700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>47800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>37500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>45800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>51900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>13000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>31500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1192400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1217300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1148900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1119200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1092500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1004400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1007600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1039500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1030100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1032500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1052600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>958200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>973100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>792300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>759400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>704900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>634200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>612100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>555200</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E47" s="3">
         <v>30500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>26100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>23700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>21200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>24100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>26700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>25500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>24600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>25400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>29100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>31300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>31100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>11000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>11900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>11700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>13900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>364500</v>
+      </c>
+      <c r="E48" s="3">
         <v>361800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>358700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>354300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>355400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>366500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>351400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>361800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>367100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>339900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>343900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>338800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>337200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>250600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>244900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>232500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>223900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>217200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>223900</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1154700</v>
+      </c>
+      <c r="E49" s="3">
         <v>1100400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1087900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1081500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1113400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1141800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1140100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1167600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1175900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1188200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1207500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1222300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1246000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>657300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>660700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>643000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>644400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>616600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>634100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E52" s="3">
         <v>37500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>32800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>32400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>30100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>23000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>25600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>27200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>27300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>28300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>30400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>37400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>40100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>28900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>26700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>29900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>29800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>31400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2786900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2747600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2654400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2611100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2612600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2559900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2551400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2621600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2625000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2614300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2663500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2588000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2627500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1740100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1702200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1622200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1544000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1491200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1458100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,72 +3402,76 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>179700</v>
+      </c>
+      <c r="E57" s="3">
         <v>146000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>120900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>113800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>106800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>117300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>107200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>123100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>129100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>126300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>129900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>127300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>120800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>101800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>103800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>100800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>88400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>90700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>81400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3346,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>10000</v>
@@ -3364,7 +3498,7 @@
         <v>10000</v>
       </c>
       <c r="M58" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="N58" s="3">
         <v>10100</v>
@@ -3373,16 +3507,16 @@
         <v>10100</v>
       </c>
       <c r="P58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="Q58" s="3">
         <v>6300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7800</v>
-      </c>
-      <c r="S58" s="3">
-        <v>6300</v>
       </c>
       <c r="T58" s="3">
         <v>6300</v>
@@ -3390,244 +3524,259 @@
       <c r="U58" s="3">
         <v>6300</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>121800</v>
+      </c>
+      <c r="E59" s="3">
         <v>129700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>113700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>95400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>91400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>98200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>131500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>133400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>130500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>159000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>163900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>129800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>133500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>116700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>112900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>93600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>82600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>90600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>100300</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>326500</v>
+      </c>
+      <c r="E60" s="3">
         <v>275600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>234600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>209200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>208200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>225600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>248700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>266400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>269600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>295300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>303900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>267200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>264400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>224800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>226200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>202200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>177200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>187500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>187900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>623900</v>
+      </c>
+      <c r="E61" s="3">
         <v>687000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>725500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>776200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>764200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>669200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>668200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>676900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>676500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>684700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>690600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>687500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>743400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>489400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>492300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>473900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>464300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>447900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>434200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>175700</v>
+      </c>
+      <c r="E62" s="3">
         <v>176100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>164700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>163300</v>
       </c>
       <c r="G62" s="3">
         <v>163300</v>
       </c>
       <c r="H62" s="3">
+        <v>163300</v>
+      </c>
+      <c r="I62" s="3">
         <v>169200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>162200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>168300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>173600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>156000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>149600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>163300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>177700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>98400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>50500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>50700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>46800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>40800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1126300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1139000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1124900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1148800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1135800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1064000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1079300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1111800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1119800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1136100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1144200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1118100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1185700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>812700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>769100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>726900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>688400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>676400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>654700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1080000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1034000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>986800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>943200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>963800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>950900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>939900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>916000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>882900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>856500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>834600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>791800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>758800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>722100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>741400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>707000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>665800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>634400</v>
       </c>
-      <c r="U72" s="3" t="s">
+      <c r="V72" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1660600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1608600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1529400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1462300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1476800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1495900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1472100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1509800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1505300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1478200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1519300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1469900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1441800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>927400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>933100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>895300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>855600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>814800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>803400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E80" s="2">
         <v>44191</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E81" s="3">
         <v>59000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>55400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>24600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>22700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>35600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>43800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>37000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>32700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>53500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>42300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>36000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>42800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>48600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>38900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>27200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>24300</v>
+        <v>24200</v>
       </c>
       <c r="E83" s="3">
         <v>24300</v>
       </c>
       <c r="F83" s="3">
+        <v>24300</v>
+      </c>
+      <c r="G83" s="3">
         <v>23700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>23800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>23400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>23100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>22700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>23300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>27100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>26300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>26200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>23600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>16400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>15900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>15600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>15100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>14900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E89" s="3">
         <v>93800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>63000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>56000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>45300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>84500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>80800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>49200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>30900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>79700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>111200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>71600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>69300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>87900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>87700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>70600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>22900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>80100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5066,58 +5287,61 @@
         <v>-14700</v>
       </c>
       <c r="E91" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-12100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-16600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-23500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-22400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-17900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-17500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-20200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-12400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-16500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-23500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-17800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-26400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-324400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-43100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-14000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-22100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-12800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-124300</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,13 +5549,14 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="E96" s="3">
         <v>-11700</v>
@@ -5340,31 +5574,31 @@
         <v>-11700</v>
       </c>
       <c r="J96" s="3">
-        <v>-10600</v>
+        <v>-11700</v>
       </c>
       <c r="K96" s="3">
         <v>-10600</v>
       </c>
       <c r="L96" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="M96" s="3">
         <v>-10700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-10800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-9300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-9200</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-8400</v>
       </c>
       <c r="Q96" s="3">
         <v>-8400</v>
       </c>
       <c r="R96" s="3">
-        <v>-7500</v>
+        <v>-8400</v>
       </c>
       <c r="S96" s="3">
         <v>-7500</v>
@@ -5373,10 +5607,13 @@
         <v>-7500</v>
       </c>
       <c r="U96" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="V96" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-49400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-68900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-15300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>65800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-10800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-59800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-44300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-31300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-73400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-44100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>240300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-13000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>21800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>73600</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E101" s="3">
         <v>11300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-6500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-8500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-110200</v>
+      </c>
+      <c r="E102" s="3">
         <v>45600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-10000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>31300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>89400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>55100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>90100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-17200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>56800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>50900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>43900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>80600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>15000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>LFUS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44373</v>
+      </c>
+      <c r="E7" s="2">
         <v>44282</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44191</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>523500</v>
+      </c>
+      <c r="E8" s="3">
         <v>463800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>391600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>307300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>346100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>338500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>362000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>397900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>405500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>402300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>439200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>459200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>417800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>304800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>317900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>313400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>285400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>284500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>326100</v>
+      </c>
+      <c r="E9" s="3">
         <v>303300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>260500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>253400</v>
       </c>
-      <c r="G9" s="3">
-        <v>208200</v>
-      </c>
       <c r="H9" s="3">
+        <v>207400</v>
+      </c>
+      <c r="I9" s="3">
         <v>221700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>220200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>231000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>256100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>250300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>247900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>259600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>290200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>268200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>178200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>184200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>180700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>171800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>170200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>166600</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>197400</v>
+      </c>
+      <c r="E10" s="3">
         <v>160500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>140200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>138200</v>
       </c>
-      <c r="G10" s="3">
-        <v>99100</v>
-      </c>
       <c r="H10" s="3">
+        <v>99900</v>
+      </c>
+      <c r="I10" s="3">
         <v>124400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>118300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>131000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>141800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>155200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>154400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>179600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>169000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>149600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>126600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>133700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>132700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>113600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>114300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E12" s="3">
         <v>14700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>13000</v>
       </c>
-      <c r="G12" s="3">
-        <v>13400</v>
-      </c>
       <c r="H12" s="3">
+        <v>13200</v>
+      </c>
+      <c r="I12" s="3">
         <v>14500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>17400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>19700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>20500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>22700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>22500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>13600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>12000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>12700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>12200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>11300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,31 +1104,34 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E14" s="3">
         <v>1100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
-        <v>33800</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>69500</v>
+      </c>
+      <c r="I14" s="3">
         <v>6200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1119,11 +1139,11 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1131,88 +1151,94 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E15" s="3">
         <v>10500</v>
-      </c>
-      <c r="E15" s="3">
-        <v>10100</v>
       </c>
       <c r="F15" s="3">
         <v>10100</v>
       </c>
       <c r="G15" s="3">
+        <v>10100</v>
+      </c>
+      <c r="H15" s="3">
         <v>9800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>10000</v>
       </c>
       <c r="I15" s="3">
         <v>10000</v>
       </c>
       <c r="J15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K15" s="3">
         <v>9800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>13700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>13100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>13400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>12000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>6300</v>
       </c>
       <c r="R15" s="3">
         <v>6300</v>
       </c>
       <c r="S15" s="3">
+        <v>6300</v>
+      </c>
+      <c r="T15" s="3">
         <v>6200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>5900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>6000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>427700</v>
+      </c>
+      <c r="E17" s="3">
         <v>387300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>335700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>327000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>319300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>301300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>306200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>314800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>345200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>344800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>350700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>363000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>399600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>380200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>254100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>259300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>253100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>236600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>243500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>252800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>95800</v>
+      </c>
+      <c r="E18" s="3">
         <v>76500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>65000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>64600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>44800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>32300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>47200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>52700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>60700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>51600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>76200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>59600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>37600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>50700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>58600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>60300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>48800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>41000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-8500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>12500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-6900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E21" s="3">
         <v>101600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>98000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>96700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>19000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>64700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>53400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>70100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>81800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>75400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>72500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>100200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>84300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>73700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>63600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>74900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>76300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>65600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>49000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E22" s="3">
         <v>4700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>5400</v>
       </c>
       <c r="I22" s="3">
         <v>5400</v>
       </c>
       <c r="J22" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="K22" s="3">
         <v>5600</v>
       </c>
       <c r="L22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="M22" s="3">
         <v>5700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5600</v>
-      </c>
-      <c r="N22" s="3">
-        <v>5800</v>
       </c>
       <c r="O22" s="3">
         <v>5800</v>
       </c>
       <c r="P22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="Q22" s="3">
         <v>5400</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>3500</v>
       </c>
       <c r="R22" s="3">
         <v>3500</v>
       </c>
       <c r="S22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="T22" s="3">
         <v>3300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>95200</v>
+      </c>
+      <c r="E23" s="3">
         <v>72700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>68900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>67400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>35500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>24500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>41400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>53600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>46400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>39800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>68200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>52300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>44600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>43700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>55500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>57400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>47400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>31800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E24" s="3">
         <v>15000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>12700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>82100</v>
+      </c>
+      <c r="E26" s="3">
         <v>57700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>59000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>55400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>24600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>22700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>35600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>43800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>37000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>35900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>53500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>42300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>36000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>36200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>42800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>48600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>38900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>27200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>82100</v>
+      </c>
+      <c r="E27" s="3">
         <v>57700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>59000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>55400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>24600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>22700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>35600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>43800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>37000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>35900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>53500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>42300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>36000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>36200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>42800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>48600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>38900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>27200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1970,11 +2031,11 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3">
         <v>-3200</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
@@ -1982,11 +2043,11 @@
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="3">
         <v>-47000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>8500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>6900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>82100</v>
+      </c>
+      <c r="E33" s="3">
         <v>57700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>59000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>55400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>24600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>22700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>35600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>43800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>37000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>32700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>53500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>42300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>36000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-10800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>42800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>48600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>38900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>27200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>82100</v>
+      </c>
+      <c r="E35" s="3">
         <v>57700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>59000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>55400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>24600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>22700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>35600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>43800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>37000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>32700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>53500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>42300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>36000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-10800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>42800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>48600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>38900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>27200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44373</v>
+      </c>
+      <c r="E38" s="2">
         <v>44282</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44191</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,75 +2573,79 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>616300</v>
+      </c>
+      <c r="E41" s="3">
         <v>572800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>687500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>641900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>651900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>620600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>531100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>476100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>474800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>476600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>489700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>498200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>408100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>412500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>429700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>372800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>321900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>278000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>275100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
         <v>100</v>
@@ -2564,7 +2654,7 @@
         <v>100</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -2606,447 +2696,471 @@
         <v>0</v>
       </c>
       <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
         <v>3700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>317300</v>
+      </c>
+      <c r="E43" s="3">
         <v>280800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>235800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>233100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>187300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>212200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>207100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>229100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>247100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>238600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>235200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>258400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>265100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>248800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>184400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>204200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>205700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>224900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>385800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>219600</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>325800</v>
+      </c>
+      <c r="E44" s="3">
         <v>295100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>258000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>243800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>248000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>227300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>237500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>240100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>254300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>261700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>258200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>247300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>239200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>264000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>140800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>136500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>125200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>118300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>114100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E45" s="3">
         <v>43700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>35900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>30000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>31900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>32400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>28600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>62400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>63300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>53200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>49300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>48700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>45700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>47800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>37500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>45800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>51900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>13000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>31500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1318900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1192400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1217300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1148900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1119200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1092500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1004400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1007600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1039500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1030100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1032500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1052600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>958200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>973100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>792300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>759400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>704900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>634200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>612100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>555200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E47" s="3">
         <v>37300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>30500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>26100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>23700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>21200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>24100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>26700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>25500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>24600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>25400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>29100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>31300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>31100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>11000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>10600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>11900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>11700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>13900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>381300</v>
+      </c>
+      <c r="E48" s="3">
         <v>364500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>361800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>358700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>354300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>355400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>366500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>351400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>361800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>367100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>339900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>343900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>338800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>337200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>250600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>244900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>232500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>223900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>217200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>223900</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1150600</v>
+      </c>
+      <c r="E49" s="3">
         <v>1154700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1100400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1087900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1081500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1113400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1141800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1140100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1167600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1175900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1188200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1207500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1222300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1246000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>657300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>660700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>643000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>644400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>616600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>634100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E52" s="3">
         <v>38000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>37500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>32800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>32400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>30100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>23000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>25600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>27200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>27300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>28300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>30400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>37400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>40100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>28900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>26700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>29900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>29800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>31400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2927500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2786900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2747600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2654400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2611100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2612600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2559900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2551400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2621600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2625000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2614300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2663500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2588000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2627500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1740100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1702200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1622200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1544000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1491200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1458100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>205100</v>
+      </c>
+      <c r="E57" s="3">
         <v>179700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>146000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>120900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>113800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>106800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>117300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>107200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>123100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>129100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>126300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>129900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>127300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>120800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>101800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>103800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>100800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>88400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>90700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>81400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3474,7 +3608,7 @@
         <v>25000</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3483,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>10000</v>
@@ -3501,7 +3635,7 @@
         <v>10000</v>
       </c>
       <c r="N58" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="O58" s="3">
         <v>10100</v>
@@ -3510,16 +3644,16 @@
         <v>10100</v>
       </c>
       <c r="Q58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="R58" s="3">
         <v>6300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7800</v>
-      </c>
-      <c r="T58" s="3">
-        <v>6300</v>
       </c>
       <c r="U58" s="3">
         <v>6300</v>
@@ -3527,256 +3661,271 @@
       <c r="V58" s="3">
         <v>6300</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>151600</v>
+      </c>
+      <c r="E59" s="3">
         <v>121800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>129700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>113700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>95400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>91400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>98200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>131500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>133400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>130500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>159000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>163900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>129800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>133500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>116700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>112900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>93600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>82600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>90600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>100300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>381700</v>
+      </c>
+      <c r="E60" s="3">
         <v>326500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>275600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>234600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>209200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>208200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>225600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>248700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>266400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>269600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>295300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>303900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>267200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>264400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>224800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>226200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>202200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>177200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>187500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>187900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>626900</v>
+      </c>
+      <c r="E61" s="3">
         <v>623900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>687000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>725500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>776200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>764200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>669200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>668200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>676900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>676500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>684700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>690600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>687500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>743400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>489400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>492300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>473900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>464300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>447900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>434200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>176700</v>
+      </c>
+      <c r="E62" s="3">
         <v>175700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>176100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>164700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>163300</v>
       </c>
       <c r="H62" s="3">
         <v>163300</v>
       </c>
       <c r="I62" s="3">
+        <v>163300</v>
+      </c>
+      <c r="J62" s="3">
         <v>169200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>162200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>168300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>173600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>156000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>149600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>163300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>177700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>98400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>50500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>50700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>46800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>40800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1185400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1126300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1139000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1124900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1148800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1135800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1064000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1079300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1111800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1119800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1136100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1144200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1118100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1185700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>812700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>769100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>726900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>688400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>676400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>654700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1150300</v>
+      </c>
+      <c r="E72" s="3">
         <v>1080000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1034000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>986800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>943200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>963800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>950900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>939900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>916000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>882900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>856500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>834600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>791800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>758800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>722100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>741400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>707000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>665800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>634400</v>
       </c>
-      <c r="V72" s="3" t="s">
+      <c r="W72" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1742100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1660600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1608600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1529400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1462300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1476800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1495900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1472100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1509800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1505300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1478200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1519300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1469900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1441800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>927400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>933100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>895300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>855600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>814800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>803400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44373</v>
+      </c>
+      <c r="E80" s="2">
         <v>44282</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44191</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>82100</v>
+      </c>
+      <c r="E81" s="3">
         <v>57700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>59000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>55400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>24600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>22700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>35600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>43800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>37000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>32700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>53500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>42300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>36000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-10800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>42800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>48600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>38900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>27200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4829,61 +5028,64 @@
         <v>24200</v>
       </c>
       <c r="E83" s="3">
-        <v>24300</v>
+        <v>24200</v>
       </c>
       <c r="F83" s="3">
         <v>24300</v>
       </c>
       <c r="G83" s="3">
+        <v>24300</v>
+      </c>
+      <c r="H83" s="3">
         <v>23700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>23800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>23400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>23100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>22700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>23300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>27100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>26300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>26200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>23600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>16400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>15900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>15600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>15100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>14900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>76200</v>
+      </c>
+      <c r="E89" s="3">
         <v>50200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>93800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>63000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>56000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>45300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>84500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>80800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>49200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>30900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>79700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>111200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>71600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>69300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>87900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>87700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>70600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>22900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>80100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14700</v>
+        <v>-17900</v>
       </c>
       <c r="E91" s="3">
         <v>-14700</v>
       </c>
       <c r="F91" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="G91" s="3">
         <v>-12100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-22400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-17500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-20200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-12400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-122000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-23500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-13100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-17800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-26400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-324400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-43100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-14000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-22100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-12800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-124300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5559,7 +5793,7 @@
         <v>-11800</v>
       </c>
       <c r="E96" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="F96" s="3">
         <v>-11700</v>
@@ -5577,31 +5811,31 @@
         <v>-11700</v>
       </c>
       <c r="K96" s="3">
-        <v>-10600</v>
+        <v>-11700</v>
       </c>
       <c r="L96" s="3">
         <v>-10600</v>
       </c>
       <c r="M96" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="N96" s="3">
         <v>-10700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-10800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-9300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-9200</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-8400</v>
       </c>
       <c r="R96" s="3">
         <v>-8400</v>
       </c>
       <c r="S96" s="3">
-        <v>-7500</v>
+        <v>-8400</v>
       </c>
       <c r="T96" s="3">
         <v>-7500</v>
@@ -5610,10 +5844,13 @@
         <v>-7500</v>
       </c>
       <c r="V96" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="W96" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-34300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-49400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-68900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-15300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>65800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-10800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-59800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-44300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-31300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-73400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-44100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>240300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-18200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-13000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>21800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>73600</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>11300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>8000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-6500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-8500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-110200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>45600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-10000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>31300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>89400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>55100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-13100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>90100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>56800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>50900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>43900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>80600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>15000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>LFUS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44464</v>
+      </c>
+      <c r="E7" s="2">
         <v>44373</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44282</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44191</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>539600</v>
+      </c>
+      <c r="E8" s="3">
         <v>523500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>463800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>400700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>391600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>307300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>346100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>338500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>362000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>397900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>405500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>402300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>439200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>459200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>417800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>304800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>317900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>313400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>285400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>284500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>325000</v>
+      </c>
+      <c r="E9" s="3">
         <v>326100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>303300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>260500</v>
       </c>
-      <c r="G9" s="3">
-        <v>253400</v>
-      </c>
       <c r="H9" s="3">
+        <v>252700</v>
+      </c>
+      <c r="I9" s="3">
         <v>207400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>221700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>220200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>231000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>256100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>250300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>247900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>259600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>290200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>268200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>178200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>184200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>180700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>171800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>170200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>166600</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>214600</v>
+      </c>
+      <c r="E10" s="3">
         <v>197400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>160500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>140200</v>
       </c>
-      <c r="G10" s="3">
-        <v>138200</v>
-      </c>
       <c r="H10" s="3">
+        <v>138900</v>
+      </c>
+      <c r="I10" s="3">
         <v>99900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>124400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>118300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>131000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>141800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>155200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>154400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>179600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>169000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>149600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>126600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>133700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>132700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>113600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>114300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E12" s="3">
         <v>16400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>13000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>13200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>14500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>17400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>19700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>20500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>22700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>22500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>13600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>12000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>12700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>12200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>11300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,34 +1124,37 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>800</v>
+      </c>
+      <c r="E14" s="3">
         <v>1400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I14" s="3">
         <v>69500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2100</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1142,11 +1162,11 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1154,91 +1174,97 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E15" s="3">
         <v>10600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>10500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>10100</v>
       </c>
       <c r="G15" s="3">
         <v>10100</v>
       </c>
       <c r="H15" s="3">
+        <v>10100</v>
+      </c>
+      <c r="I15" s="3">
         <v>9800</v>
-      </c>
-      <c r="I15" s="3">
-        <v>10000</v>
       </c>
       <c r="J15" s="3">
         <v>10000</v>
       </c>
       <c r="K15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L15" s="3">
         <v>9800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>10200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>13700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>13100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>13400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>12000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>6300</v>
       </c>
       <c r="S15" s="3">
         <v>6300</v>
       </c>
       <c r="T15" s="3">
+        <v>6300</v>
+      </c>
+      <c r="U15" s="3">
         <v>6200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>5900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>6000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>419500</v>
+      </c>
+      <c r="E17" s="3">
         <v>427700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>387300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>335700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>327000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>319300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>301300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>306200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>314800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>345200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>344800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>350700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>363000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>399600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>380200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>254100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>259300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>253100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>236600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>243500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>252800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>120100</v>
+      </c>
+      <c r="E18" s="3">
         <v>95800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>76500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>65000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>64600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>44800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>32300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>47200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>52700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>60700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>51600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>76200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>59600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>37600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>50700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>58600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>60300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>48800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>41000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>4100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-8500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>12500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-6900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>142800</v>
+      </c>
+      <c r="E21" s="3">
         <v>124000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>101600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>98000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>96700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>19000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>64700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>53400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>70100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>81800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>75400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>72500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>100200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>84300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>73700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>63600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>74900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>76300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>65600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>49000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,194 +1593,203 @@
         <v>4600</v>
       </c>
       <c r="E22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F22" s="3">
         <v>4700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>5400</v>
       </c>
       <c r="J22" s="3">
         <v>5400</v>
       </c>
       <c r="K22" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="L22" s="3">
         <v>5600</v>
       </c>
       <c r="M22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="N22" s="3">
         <v>5700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5600</v>
-      </c>
-      <c r="O22" s="3">
-        <v>5800</v>
       </c>
       <c r="P22" s="3">
         <v>5800</v>
       </c>
       <c r="Q22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="R22" s="3">
         <v>5400</v>
-      </c>
-      <c r="R22" s="3">
-        <v>3500</v>
       </c>
       <c r="S22" s="3">
         <v>3500</v>
       </c>
       <c r="T22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="U22" s="3">
         <v>3300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>113600</v>
+      </c>
+      <c r="E23" s="3">
         <v>95200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>72700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>68900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>67400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>35500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>24500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>41400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>53600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>46400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>39800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>68200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>52300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>44600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>43700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>55500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>57400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>47400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>31800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E24" s="3">
         <v>13100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>15000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>12700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>8500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>92100</v>
+      </c>
+      <c r="E26" s="3">
         <v>82100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>57700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>59000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>55400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>24600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>22700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>35600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>43800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>37000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>35900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>53500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>42300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>36000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>36200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>42800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>48600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>38900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>27200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>92100</v>
+      </c>
+      <c r="E27" s="3">
         <v>82100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>57700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>59000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>55400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>24600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>22700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>35600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>43800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>37000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>35900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>53500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>42300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>36000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>36200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>42800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>48600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>38900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>27200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2034,11 +2095,11 @@
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3">
         <v>-3200</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
@@ -2046,11 +2107,11 @@
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="3">
         <v>-47000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>10</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>8500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-12500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>6900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>92100</v>
+      </c>
+      <c r="E33" s="3">
         <v>82100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>57700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>59000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>55400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>24600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>22700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>35600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>43800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>37000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>32700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>53500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>42300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>36000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-10800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>42800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>48600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>38900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>27200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>92100</v>
+      </c>
+      <c r="E35" s="3">
         <v>82100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>57700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>59000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>55400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>24600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>22700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>35600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>43800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>37000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>32700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>53500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>42300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>36000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-10800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>42800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>48600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>38900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>27200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44464</v>
+      </c>
+      <c r="E38" s="2">
         <v>44373</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44282</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44191</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>690700</v>
+      </c>
+      <c r="E41" s="3">
         <v>616300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>572800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>687500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>641900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>651900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>620600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>531100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>476100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>474800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>476600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>489700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>498200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>408100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>412500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>429700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>372800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>321900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>278000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>275100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2648,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
         <v>100</v>
@@ -2657,7 +2747,7 @@
         <v>100</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -2699,468 +2789,492 @@
         <v>0</v>
       </c>
       <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
         <v>3700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>328400</v>
+      </c>
+      <c r="E43" s="3">
         <v>317300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>280800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>235800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>233100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>187300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>212200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>207100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>229100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>247100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>238600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>235200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>258400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>265100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>248800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>184400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>204200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>205700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>224900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>385800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>219600</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>357000</v>
+      </c>
+      <c r="E44" s="3">
         <v>325800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>295100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>258000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>243800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>248000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>227300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>237500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>240100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>254300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>261700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>258200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>247300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>239200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>264000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>140800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>136500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>125200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>118300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>114100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E45" s="3">
         <v>59500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>43700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>35900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>30000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>31900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>32400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>28600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>62400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>63300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>53200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>49300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>48700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>45700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>47800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>37500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>45800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>51900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>13000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>31500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1435900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1318900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1192400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1217300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1148900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1119200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1092500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1004400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1007600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1039500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1030100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1032500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1052600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>958200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>973100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>792300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>759400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>704900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>634200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>612100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>555200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E47" s="3">
         <v>39300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>37300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>30500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>26100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>23700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>21200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>24100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>26700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>25500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>24600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>25400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>29100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>31300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>31100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>11000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>10600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>11900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>11700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>13900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>388700</v>
+      </c>
+      <c r="E48" s="3">
         <v>381300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>364500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>361800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>358700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>354300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>355400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>366500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>351400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>361800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>367100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>339900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>343900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>338800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>337200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>250600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>244900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>232500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>223900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>217200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>223900</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1134800</v>
+      </c>
+      <c r="E49" s="3">
         <v>1150600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1154700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1100400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1087900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1081500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1113400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1141800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1140100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1167600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1175900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1188200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1207500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1222300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1246000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>657300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>660700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>643000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>644400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>616600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>634100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E52" s="3">
         <v>37400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>38000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>37500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>32800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>32400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>30100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>23000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>25600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>27200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>27300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>28300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>30400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>37400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>40100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>28900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>26700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>29900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>29800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>31400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3038500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2927500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2786900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2747600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2654400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2611100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2612600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2559900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2551400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2621600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2625000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2614300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2663500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2588000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2627500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1740100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1702200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1622200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1544000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1491200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1458100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,84 +3664,88 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>221900</v>
+      </c>
+      <c r="E57" s="3">
         <v>205100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>179700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>146000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>120900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>113800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>106800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>117300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>107200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>123100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>129100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>126300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>129900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>127300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>120800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>101800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>103800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>100800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>88400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>90700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>81400</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>25000</v>
+        <v>27600</v>
       </c>
       <c r="E58" s="3">
         <v>25000</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3620,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>10000</v>
@@ -3638,7 +3772,7 @@
         <v>10000</v>
       </c>
       <c r="O58" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="P58" s="3">
         <v>10100</v>
@@ -3647,16 +3781,16 @@
         <v>10100</v>
       </c>
       <c r="R58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="S58" s="3">
         <v>6300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7800</v>
-      </c>
-      <c r="U58" s="3">
-        <v>6300</v>
       </c>
       <c r="V58" s="3">
         <v>6300</v>
@@ -3664,268 +3798,283 @@
       <c r="W58" s="3">
         <v>6300</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>172100</v>
+      </c>
+      <c r="E59" s="3">
         <v>151600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>121800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>129700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>113700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>95400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>91400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>98200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>131500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>133400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>130500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>159000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>163900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>129800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>133500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>116700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>112900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>93600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>82600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>90600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>100300</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>421600</v>
+      </c>
+      <c r="E60" s="3">
         <v>381700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>326500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>275600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>234600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>209200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>208200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>225600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>248700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>266400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>269600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>295300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>303900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>267200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>264400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>224800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>226200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>202200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>177200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>187500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>187900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>620100</v>
+      </c>
+      <c r="E61" s="3">
         <v>626900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>623900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>687000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>725500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>776200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>764200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>669200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>668200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>676900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>676500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>684700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>690600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>687500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>743400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>489400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>492300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>473900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>464300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>447900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>434200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>175400</v>
+      </c>
+      <c r="E62" s="3">
         <v>176700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>175700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>176100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>164700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>163300</v>
       </c>
       <c r="I62" s="3">
         <v>163300</v>
       </c>
       <c r="J62" s="3">
+        <v>163300</v>
+      </c>
+      <c r="K62" s="3">
         <v>169200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>162200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>168300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>173600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>156000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>149600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>163300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>177700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>98400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>50500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>50700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>46800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>40800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1217300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1185400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1126300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1139000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1124900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1148800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1135800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1064000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1079300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1111800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1119800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1136100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1144200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1118100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1185700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>812700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>769100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>726900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>688400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>676400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>654700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1229300</v>
+      </c>
+      <c r="E72" s="3">
         <v>1150300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1080000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1034000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>986800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>943200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>963800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>950900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>939900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>916000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>882900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>856500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>834600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>791800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>758800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>722100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>741400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>707000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>665800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>634400</v>
       </c>
-      <c r="W72" s="3" t="s">
+      <c r="X72" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1821300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1742100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1660600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1608600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1529400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1462300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1476800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1495900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1472100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1509800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1505300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1478200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1519300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1469900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1441800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>927400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>933100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>895300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>855600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>814800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>803400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44464</v>
+      </c>
+      <c r="E80" s="2">
         <v>44373</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44282</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44191</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>92100</v>
+      </c>
+      <c r="E81" s="3">
         <v>82100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>57700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>59000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>55400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>24600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>22700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>35600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>43800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>37000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>32700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>53500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>42300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>36000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-10800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>42800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>48600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>38900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>27200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>24200</v>
+        <v>24600</v>
       </c>
       <c r="E83" s="3">
         <v>24200</v>
       </c>
       <c r="F83" s="3">
-        <v>24300</v>
+        <v>24200</v>
       </c>
       <c r="G83" s="3">
         <v>24300</v>
       </c>
       <c r="H83" s="3">
+        <v>24300</v>
+      </c>
+      <c r="I83" s="3">
         <v>23700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>23800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>23400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>23100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>22700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>23300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>27100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>26300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>26200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>23600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>16400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>15900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>15600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>15100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>14900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>114300</v>
+      </c>
+      <c r="E89" s="3">
         <v>76200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>50200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>93800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>63000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>56000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>45300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>84500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>80800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>49200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>30900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>79700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>111200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>71600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>69300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>87900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>87700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>70600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>22900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>80100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17900</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-14700</v>
       </c>
       <c r="F91" s="3">
         <v>-14700</v>
       </c>
       <c r="G91" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="H91" s="3">
         <v>-12100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-18800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-17900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-20200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-12400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-11700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-122000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-16500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-23500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-14200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-13700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-17800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-26400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-324400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-16900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-43100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-14000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-22100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-12800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-124300</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,19 +6017,20 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-11800</v>
+        <v>-13100</v>
       </c>
       <c r="E96" s="3">
         <v>-11800</v>
       </c>
       <c r="F96" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="G96" s="3">
         <v>-11700</v>
@@ -5814,31 +6048,31 @@
         <v>-11700</v>
       </c>
       <c r="L96" s="3">
-        <v>-10600</v>
+        <v>-11700</v>
       </c>
       <c r="M96" s="3">
         <v>-10600</v>
       </c>
       <c r="N96" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="O96" s="3">
         <v>-10700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-10800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-9200</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-8400</v>
       </c>
       <c r="S96" s="3">
         <v>-8400</v>
       </c>
       <c r="T96" s="3">
-        <v>-7500</v>
+        <v>-8400</v>
       </c>
       <c r="U96" s="3">
         <v>-7500</v>
@@ -5847,10 +6081,13 @@
         <v>-7500</v>
       </c>
       <c r="W96" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="X96" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-14900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-34300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-49400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-68900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-15300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>65800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-10800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-59800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-44300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-31300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-73400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-44100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>240300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-18200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-13000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>21800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>73600</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E101" s="3">
         <v>1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>11300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>8000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-8500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E102" s="3">
         <v>44600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-110200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>45600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>31300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>89400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>55100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-13100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>90100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-17200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>56800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>50900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>43900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>80600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>15000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>LFUS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44464</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44282</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44191</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>553100</v>
+      </c>
+      <c r="E8" s="3">
         <v>539600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>523500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>463800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>400700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>391600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>307300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>346100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>338500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>362000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>397900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>405500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>402300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>439200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>459200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>417800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>304800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>317900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>313400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>285400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>284500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>353600</v>
+      </c>
+      <c r="E9" s="3">
         <v>325000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>326100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>303300</v>
       </c>
-      <c r="G9" s="3">
-        <v>260500</v>
-      </c>
       <c r="H9" s="3">
+        <v>262600</v>
+      </c>
+      <c r="I9" s="3">
         <v>252700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>207400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>221700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>220200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>231000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>256100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>250300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>247900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>259600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>290200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>268200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>178200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>184200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>180700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>171800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>170200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>166600</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>199500</v>
+      </c>
+      <c r="E10" s="3">
         <v>214600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>197400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>160500</v>
       </c>
-      <c r="G10" s="3">
-        <v>140200</v>
-      </c>
       <c r="H10" s="3">
+        <v>138100</v>
+      </c>
+      <c r="I10" s="3">
         <v>138900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>99900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>124400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>118300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>131000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>141800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>155200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>154400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>179600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>169000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>149600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>126600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>133700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>132700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>113600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>114300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1004,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E12" s="3">
         <v>15800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>16400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14700</v>
       </c>
-      <c r="G12" s="3">
-        <v>11500</v>
-      </c>
       <c r="H12" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I12" s="3">
         <v>13000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>13200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>17400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>19700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>20500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>22700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>22500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>13600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>12000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>12700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>12200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>11300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,37 +1144,40 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E14" s="3">
         <v>800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3">
-        <v>3000</v>
-      </c>
       <c r="H14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I14" s="3">
         <v>1300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>69500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2100</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1165,11 +1185,11 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1177,94 +1197,100 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E15" s="3">
         <v>10400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>10600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>10500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>10100</v>
       </c>
       <c r="H15" s="3">
         <v>10100</v>
       </c>
       <c r="I15" s="3">
+        <v>10100</v>
+      </c>
+      <c r="J15" s="3">
         <v>9800</v>
-      </c>
-      <c r="J15" s="3">
-        <v>10000</v>
       </c>
       <c r="K15" s="3">
         <v>10000</v>
       </c>
       <c r="L15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M15" s="3">
         <v>9800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>10100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>10200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>13700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>13100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>13400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>12000</v>
-      </c>
-      <c r="S15" s="3">
-        <v>6300</v>
       </c>
       <c r="T15" s="3">
         <v>6300</v>
       </c>
       <c r="U15" s="3">
+        <v>6300</v>
+      </c>
+      <c r="V15" s="3">
         <v>6200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>5900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>6000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>460300</v>
+      </c>
+      <c r="E17" s="3">
         <v>419500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>427700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>387300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>335700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>327000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>319300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>301300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>306200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>314800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>345200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>344800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>350700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>363000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>399600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>380200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>254100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>259300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>253100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>236600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>243500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>252800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>92800</v>
+      </c>
+      <c r="E18" s="3">
         <v>120100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>95800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>76500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>65000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>64600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>44800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>32300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>47200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>52700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>60700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>51600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>76200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>59600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>37600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>50700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>58600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>60300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>48800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>41000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1481,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>12500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-6900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>89700</v>
+      </c>
+      <c r="E21" s="3">
         <v>142800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>124000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>101600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>98000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>96700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>19000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>64700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>53400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>70100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>81800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>75400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>72500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>100200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>84300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>73700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>63600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>74900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>76300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>65600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>49000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1596,200 +1636,209 @@
         <v>4600</v>
       </c>
       <c r="F22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G22" s="3">
         <v>4700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>5400</v>
       </c>
       <c r="K22" s="3">
         <v>5400</v>
       </c>
       <c r="L22" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="M22" s="3">
         <v>5600</v>
       </c>
       <c r="N22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="O22" s="3">
         <v>5700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5600</v>
-      </c>
-      <c r="P22" s="3">
-        <v>5800</v>
       </c>
       <c r="Q22" s="3">
         <v>5800</v>
       </c>
       <c r="R22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="S22" s="3">
         <v>5400</v>
-      </c>
-      <c r="S22" s="3">
-        <v>3500</v>
       </c>
       <c r="T22" s="3">
         <v>3500</v>
       </c>
       <c r="U22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="V22" s="3">
         <v>3300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E23" s="3">
         <v>113600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>95200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>72700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>68900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>67400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>35500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>24500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>41400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>53600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>46400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>39800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>68200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>52300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>44600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>43700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>55500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>57400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>47400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>31800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E24" s="3">
         <v>21500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>13100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>15000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>14700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>12700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>8700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>8500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E26" s="3">
         <v>92100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>82100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>57700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>59000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>55400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>24600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>22700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>35600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>43800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>37000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>35900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>53500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>42300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>36000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>36200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>42800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>48600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>38900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>27200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E27" s="3">
         <v>92100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>82100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>57700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>59000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>55400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>24600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>22700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>35600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>43800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>37000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>35900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>53500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>42300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>36000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>36200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>42800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>48600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>38900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>27200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2098,11 +2159,11 @@
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3">
         <v>-3200</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
@@ -2110,11 +2171,11 @@
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T29" s="3">
         <v>-47000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>10</v>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E32" s="3">
         <v>1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-8700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-12500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>6900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E33" s="3">
         <v>92100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>82100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>57700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>59000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>55400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>24600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>22700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>35600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>43800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>37000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>32700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>53500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>42300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>36000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-10800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>42800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>48600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>38900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>27200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E35" s="3">
         <v>92100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>82100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>57700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>59000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>55400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>24600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>22700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>35600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>43800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>37000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>32700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>53500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>42300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>36000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-10800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>42800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>48600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>38900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>27200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44464</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44282</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44191</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>478500</v>
+      </c>
+      <c r="E41" s="3">
         <v>690700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>616300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>572800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>687500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>641900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>651900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>620600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>531100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>476100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>474800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>476600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>489700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>498200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>408100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>412500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>429700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>372800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>321900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>278000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>275100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2741,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
         <v>100</v>
@@ -2750,7 +2840,7 @@
         <v>100</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -2792,489 +2882,513 @@
         <v>0</v>
       </c>
       <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
         <v>3700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>277200</v>
+      </c>
+      <c r="E43" s="3">
         <v>328400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>317300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>280800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>235800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>233100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>187300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>212200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>207100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>229100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>247100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>238600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>235200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>258400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>265100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>248800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>184400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>204200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>205700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>224900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>385800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>219600</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>445700</v>
+      </c>
+      <c r="E44" s="3">
         <v>357000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>325800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>295100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>258000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>243800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>248000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>227300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>237500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>240100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>254300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>261700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>258200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>247300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>239200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>264000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>140800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>136500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>125200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>118300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>114100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>68800</v>
+      </c>
+      <c r="E45" s="3">
         <v>59800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>59500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>43700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>35900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>30000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>31900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>32400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>28600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>62400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>63300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>53200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>49300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>48700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>45700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>47800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>37500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>45800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>51900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>13000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>31500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1270200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1435900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1318900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1192400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1217300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1148900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1119200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1092500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1004400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1007600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1039500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1030100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1032500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1052600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>958200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>973100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>792300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>759400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>704900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>634200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>612100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>555200</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E47" s="3">
         <v>39900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>39300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>37300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>30500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>26100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>23700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>21200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>24100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>26700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>25500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>24600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>25400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>29100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>31300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>31100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>11000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>10600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>11900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>11700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>13900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>467500</v>
+      </c>
+      <c r="E48" s="3">
         <v>388700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>381300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>364500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>361800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>358700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>354300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>355400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>366500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>351400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>361800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>367100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>339900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>343900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>338800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>337200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>250600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>244900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>232500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>223900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>217200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>223900</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1319300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1134800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1150600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1154700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1100400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1087900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1081500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1113400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1141800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1140100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1167600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1175900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1188200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1207500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1222300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1246000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>657300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>660700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>643000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>644400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>616600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>634100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E52" s="3">
         <v>39100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>37400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>38000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>37500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>32800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>32400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>30100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>23000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>25600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>27200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>27300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>28300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>30400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>37400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>40100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>28900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>26700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>29900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>29800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>31400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3151700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3038500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2927500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2786900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2747600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2654400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2611100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2612600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2559900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2551400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2621600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2625000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2614300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2663500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2588000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2627500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1740100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1702200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1622200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1544000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1491200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1458100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,90 +3795,94 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E57" s="3">
         <v>221900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>205100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>179700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>146000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>120900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>113800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>106800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>117300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>107200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>123100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>129100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>126300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>129900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>127300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>120800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>101800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>103800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>100800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>88400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>90700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>81400</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E58" s="3">
         <v>27600</v>
-      </c>
-      <c r="E58" s="3">
-        <v>25000</v>
       </c>
       <c r="F58" s="3">
         <v>25000</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3757,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>10000</v>
@@ -3775,7 +3909,7 @@
         <v>10000</v>
       </c>
       <c r="P58" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="Q58" s="3">
         <v>10100</v>
@@ -3784,16 +3918,16 @@
         <v>10100</v>
       </c>
       <c r="S58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="T58" s="3">
         <v>6300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7800</v>
-      </c>
-      <c r="V58" s="3">
-        <v>6300</v>
       </c>
       <c r="W58" s="3">
         <v>6300</v>
@@ -3801,280 +3935,295 @@
       <c r="X58" s="3">
         <v>6300</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>187600</v>
+      </c>
+      <c r="E59" s="3">
         <v>172100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>151600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>121800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>129700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>113700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>95400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>91400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>98200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>131500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>133400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>130500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>159000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>163900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>129800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>133500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>116700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>112900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>93600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>82600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>90600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>100300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>434600</v>
+      </c>
+      <c r="E60" s="3">
         <v>421600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>381700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>326500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>275600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>234600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>209200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>208200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>225600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>248700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>266400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>269600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>295300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>303900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>267200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>264400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>224800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>226200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>202200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>177200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>187500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>187900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>611900</v>
+      </c>
+      <c r="E61" s="3">
         <v>620100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>626900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>623900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>687000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>725500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>776200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>764200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>669200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>668200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>676900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>676500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>684700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>690600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>687500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>743400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>489400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>492300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>473900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>464300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>447900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>434200</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>211700</v>
+      </c>
+      <c r="E62" s="3">
         <v>175400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>176700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>175700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>176100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>164700</v>
-      </c>
-      <c r="I62" s="3">
-        <v>163300</v>
       </c>
       <c r="J62" s="3">
         <v>163300</v>
       </c>
       <c r="K62" s="3">
+        <v>163300</v>
+      </c>
+      <c r="L62" s="3">
         <v>169200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>162200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>168300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>173600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>156000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>149600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>163300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>177700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>98400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>50500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>50700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>46800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>40800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1258300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1217300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1185400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1126300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1139000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1124900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1148800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1135800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1064000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1079300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1111800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1119800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1136100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1144200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1118100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1185700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>812700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>769100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>726900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>688400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>676400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>654700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1341600</v>
+      </c>
+      <c r="E72" s="3">
         <v>1229300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1150300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1080000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1034000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>986800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>943200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>963800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>950900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>939900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>916000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>882900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>856500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>834600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>791800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>758800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>722100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>741400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>707000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>665800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>634400</v>
       </c>
-      <c r="X72" s="3" t="s">
+      <c r="Y72" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1893400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1821300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1742100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1660600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1608600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1529400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1462300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1476800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1495900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1472100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1509800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1505300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1478200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1519300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1469900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1441800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>927400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>933100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>895300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>855600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>814800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>803400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44464</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44282</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44191</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E81" s="3">
         <v>92100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>82100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>57700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>59000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>55400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>24600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>22700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>35600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>43800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>37000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>32700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>53500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>42300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>36000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-10800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>42800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>48600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>38900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>27200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5416,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E83" s="3">
         <v>24600</v>
-      </c>
-      <c r="E83" s="3">
-        <v>24200</v>
       </c>
       <c r="F83" s="3">
         <v>24200</v>
       </c>
       <c r="G83" s="3">
-        <v>24300</v>
+        <v>24200</v>
       </c>
       <c r="H83" s="3">
         <v>24300</v>
       </c>
       <c r="I83" s="3">
+        <v>24300</v>
+      </c>
+      <c r="J83" s="3">
         <v>23700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>23800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>23400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>23100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>22700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>23300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>27100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>26300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>26200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>23600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>16400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>15900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>15600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>15100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>14900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>132700</v>
+      </c>
+      <c r="E89" s="3">
         <v>114300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>76200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>50200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>93800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>63000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>56000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>45300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>84500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>80800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>49200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>30900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>79700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>111200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>71600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>69300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>87900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>87700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>70600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>22900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>80100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-24900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-17900</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-14700</v>
       </c>
       <c r="G91" s="3">
         <v>-14700</v>
       </c>
       <c r="H91" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="I91" s="3">
         <v>-12100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-14100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-18800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-22400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-20200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-15900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-12400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-11700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-333500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-25700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-122000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-16500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-14200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-13700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-26400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-324400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-16900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-43100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-14000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-22100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-12800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-124300</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6027,13 +6261,13 @@
         <v>-13100</v>
       </c>
       <c r="E96" s="3">
-        <v>-11800</v>
+        <v>-13100</v>
       </c>
       <c r="F96" s="3">
         <v>-11800</v>
       </c>
       <c r="G96" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="H96" s="3">
         <v>-11700</v>
@@ -6051,31 +6285,31 @@
         <v>-11700</v>
       </c>
       <c r="M96" s="3">
-        <v>-10600</v>
+        <v>-11700</v>
       </c>
       <c r="N96" s="3">
         <v>-10600</v>
       </c>
       <c r="O96" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="P96" s="3">
         <v>-10700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-9300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-9200</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-8400</v>
       </c>
       <c r="T96" s="3">
         <v>-8400</v>
       </c>
       <c r="U96" s="3">
-        <v>-7500</v>
+        <v>-8400</v>
       </c>
       <c r="V96" s="3">
         <v>-7500</v>
@@ -6084,10 +6318,13 @@
         <v>-7500</v>
       </c>
       <c r="X96" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6533,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-14900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-34300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-49400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-68900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-15300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>65800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-10800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-59800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-44300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-31300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-73400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-44100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>240300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-18200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-13000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>21800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>73600</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>11300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>8000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-8500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-213000</v>
+      </c>
+      <c r="E102" s="3">
         <v>74000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>44600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-110200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>45600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-10000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>31300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>89400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>55100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-13100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>90100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-17200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>56800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>50900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>43900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>80600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>15000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>LFUS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,333 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44464</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44373</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44282</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44191</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>623300</v>
+      </c>
+      <c r="E8" s="3">
         <v>553100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>539600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>523500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>463800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>400700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>391600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>307300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>346100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>338500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>362000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>397900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>405500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>402300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>439200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>459200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>417800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>304800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>317900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>313400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>285400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>284500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>364700</v>
+      </c>
+      <c r="E9" s="3">
         <v>353600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>325000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>326100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>303300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>262600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>252700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>207400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>221700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>220200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>231000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>256100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>250300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>247900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>259600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>290200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>268200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>178200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>184200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>180700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>171800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>170200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>166600</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>258600</v>
+      </c>
+      <c r="E10" s="3">
         <v>199500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>214600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>197400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>160500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>138100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>138900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>99900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>124400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>118300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>131000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>141800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>155200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>154400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>179600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>169000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>149600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>126600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>133700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>132700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>113600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>114300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E12" s="3">
         <v>19000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>15800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>16400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>14700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>12000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>13000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>17400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>19700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>21600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>20500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>22700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>22500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>13600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>12000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>12700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>12200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>11300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,40 +1163,43 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>5600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>69500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2100</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1188,11 +1207,11 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
@@ -1200,97 +1219,103 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E15" s="3">
         <v>11100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>10400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>10600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>10500</v>
-      </c>
-      <c r="H15" s="3">
-        <v>10100</v>
       </c>
       <c r="I15" s="3">
         <v>10100</v>
       </c>
       <c r="J15" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K15" s="3">
         <v>9800</v>
-      </c>
-      <c r="K15" s="3">
-        <v>10000</v>
       </c>
       <c r="L15" s="3">
         <v>10000</v>
       </c>
       <c r="M15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="N15" s="3">
         <v>9800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>10100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>10200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>13700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>13100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>13400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>12000</v>
-      </c>
-      <c r="T15" s="3">
-        <v>6300</v>
       </c>
       <c r="U15" s="3">
         <v>6300</v>
       </c>
       <c r="V15" s="3">
+        <v>6300</v>
+      </c>
+      <c r="W15" s="3">
         <v>6200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>5900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>6000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>472700</v>
+      </c>
+      <c r="E17" s="3">
         <v>460300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>419500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>427700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>387300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>335700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>327000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>319300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>301300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>306200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>314800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>345200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>344800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>350700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>363000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>399600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>380200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>254100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>259300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>253100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>236600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>243500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>252800</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>150600</v>
+      </c>
+      <c r="E18" s="3">
         <v>92800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>120100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>95800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>76500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>65000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>64600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>44800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>32300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>47200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>52700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>60700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>51600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>76200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>59600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>37600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>50700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>58600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>60300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>48800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>41000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,155 +1514,162 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-28700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>8700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>12500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-6900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>166700</v>
+      </c>
+      <c r="E21" s="3">
         <v>89700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>142800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>124000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>101600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>98000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>96700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>19000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>64700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>53400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>70100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>81800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>75400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>72500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>100200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>84300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>73700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>63600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>74900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>76300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>65600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>49000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="E22" s="3">
         <v>4600</v>
@@ -1639,206 +1678,215 @@
         <v>4600</v>
       </c>
       <c r="G22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H22" s="3">
         <v>4700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5900</v>
-      </c>
-      <c r="K22" s="3">
-        <v>5400</v>
       </c>
       <c r="L22" s="3">
         <v>5400</v>
       </c>
       <c r="M22" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="N22" s="3">
         <v>5600</v>
       </c>
       <c r="O22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="P22" s="3">
         <v>5700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5600</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>5800</v>
       </c>
       <c r="R22" s="3">
         <v>5800</v>
       </c>
       <c r="S22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="T22" s="3">
         <v>5400</v>
-      </c>
-      <c r="T22" s="3">
-        <v>3500</v>
       </c>
       <c r="U22" s="3">
         <v>3500</v>
       </c>
       <c r="V22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="W22" s="3">
         <v>3300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>134100</v>
+      </c>
+      <c r="E23" s="3">
         <v>59500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>113600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>95200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>72700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>68900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>67400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>35500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>24500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>41400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>53600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>46400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>39800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>68200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>52300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>44600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>43700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>55500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>57400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>47400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>31800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E24" s="3">
         <v>7600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>21500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>13100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>15000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>14700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>12700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>8700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>8500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>117500</v>
+      </c>
+      <c r="E26" s="3">
         <v>51900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>92100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>82100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>57700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>59000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>55400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>24600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>22700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>35600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>43800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>37000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>35900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>53500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>42300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>36000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>36200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>42800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>48600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>38900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>27200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>117500</v>
+      </c>
+      <c r="E27" s="3">
         <v>51900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>92100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>82100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>57700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>59000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>55400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>24600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>22700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>35600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>43800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>37000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>35900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>53500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>42300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>36000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>36200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>42800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>48600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>38900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>27200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,31 +2178,34 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -2162,11 +2222,11 @@
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-3200</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>10</v>
@@ -2174,11 +2234,11 @@
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U29" s="3">
         <v>-47000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>10</v>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E32" s="3">
         <v>28700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-8700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-12500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>6900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>117500</v>
+      </c>
+      <c r="E33" s="3">
         <v>51900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>92100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>82100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>57700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>59000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>55400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>24600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>22700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>35600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>43800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>37000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>32700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>53500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>42300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>36000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-10800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>42800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>48600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>38900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>27200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>117500</v>
+      </c>
+      <c r="E35" s="3">
         <v>51900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>92100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>82100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>57700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>59000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>55400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>24600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>22700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>35600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>43800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>37000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>32700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>53500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>42300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>36000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-10800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>42800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>48600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>38900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>27200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44464</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44373</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44282</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44191</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>461600</v>
+      </c>
+      <c r="E41" s="3">
         <v>478500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>690700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>616300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>572800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>687500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>641900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>651900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>620600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>531100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>476100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>474800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>476600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>489700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>498200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>408100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>412500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>429700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>372800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>321900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>278000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>275100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2834,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <v>100</v>
@@ -2843,7 +2932,7 @@
         <v>100</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2885,510 +2974,534 @@
         <v>0</v>
       </c>
       <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
         <v>3700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>321000</v>
+      </c>
+      <c r="E43" s="3">
         <v>277200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>328400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>317300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>280800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>235800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>233100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>187300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>212200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>207100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>229100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>247100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>238600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>235200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>258400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>265100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>248800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>184400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>204200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>205700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>224900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>385800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>219600</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>470600</v>
+      </c>
+      <c r="E44" s="3">
         <v>445700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>357000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>325800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>295100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>258000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>243800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>248000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>227300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>237500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>240100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>254300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>261700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>258200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>247300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>239200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>264000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>140800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>136500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>125200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>118300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>114100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E45" s="3">
         <v>68800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>59800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>59500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>43700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>35900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>30000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>31900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>32400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>28600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>62400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>63300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>53200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>49300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>48700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>45700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>47800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>37500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>45800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>51900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>13000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>31500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1318200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1270200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1435900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1318900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1192400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1217300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1148900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1119200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1092500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1004400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1007600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1039500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1030100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1032500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1052600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>958200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>973100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>792300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>759400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>704900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>634200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>612100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>555200</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E47" s="3">
         <v>39200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>39900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>39300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>37300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>30500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>26100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>23700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>21200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>24100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>26700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>25500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>24600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>25400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>29100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>31300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>31100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>11000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>10600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>11900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>11700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>13900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>479600</v>
+      </c>
+      <c r="E48" s="3">
         <v>467500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>388700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>381300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>364500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>361800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>358700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>354300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>355400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>366500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>351400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>361800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>367100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>339900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>343900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>338800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>337200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>250600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>244900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>232500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>223900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>217200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>223900</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1301000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1319300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1134800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1150600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1154700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1100400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1087900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1081500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1113400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1141800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1140100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1167600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1175900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1188200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1207500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1222300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1246000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>657300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>660700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>643000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>644400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>616600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>634100</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E52" s="3">
         <v>55500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>39100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>37400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>38000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>37500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>32800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>32400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>30100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>23000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>25600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>27200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>27300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>28300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>30400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>37400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>40100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>28900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>26700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>29900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>29800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>31400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3193200</v>
+      </c>
+      <c r="E54" s="3">
         <v>3151700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3038500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2927500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2786900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2747600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2654400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2611100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2612600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2559900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2551400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2621600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2625000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2614300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2663500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2588000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2627500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1740100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1702200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1622200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1544000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1491200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1458100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,96 +3925,100 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>212600</v>
+      </c>
+      <c r="E57" s="3">
         <v>222000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>221900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>205100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>179700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>146000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>120900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>113800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>106800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>117300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>107200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>123100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>129100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>126300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>129900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>127300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>120800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>101800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>103800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>100800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>88400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>90700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>81400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>25000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>27600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>25000</v>
       </c>
       <c r="G58" s="3">
         <v>25000</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -3894,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>10000</v>
@@ -3912,7 +4045,7 @@
         <v>10000</v>
       </c>
       <c r="Q58" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="R58" s="3">
         <v>10100</v>
@@ -3921,16 +4054,16 @@
         <v>10100</v>
       </c>
       <c r="T58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="U58" s="3">
         <v>6300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7800</v>
-      </c>
-      <c r="W58" s="3">
-        <v>6300</v>
       </c>
       <c r="X58" s="3">
         <v>6300</v>
@@ -3938,292 +4071,307 @@
       <c r="Y58" s="3">
         <v>6300</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>152700</v>
+      </c>
+      <c r="E59" s="3">
         <v>187600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>172100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>151600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>121800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>129700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>113700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>95400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>91400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>98200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>131500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>133400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>130500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>159000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>163900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>129800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>133500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>116700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>112900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>93600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>82600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>90600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>100300</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>365300</v>
+      </c>
+      <c r="E60" s="3">
         <v>434600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>421600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>381700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>326500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>275600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>234600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>209200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>208200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>225600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>248700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>266400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>269600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>295300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>303900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>267200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>264400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>224800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>226200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>202200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>177200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>187500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>187900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>606700</v>
+      </c>
+      <c r="E61" s="3">
         <v>611900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>620100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>626900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>623900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>687000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>725500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>776200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>764200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>669200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>668200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>676900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>676500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>684700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>690600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>687500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>743400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>489400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>492300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>473900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>464300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>447900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>434200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>220400</v>
+      </c>
+      <c r="E62" s="3">
         <v>211700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>175400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>176700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>175700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>176100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>164700</v>
-      </c>
-      <c r="J62" s="3">
-        <v>163300</v>
       </c>
       <c r="K62" s="3">
         <v>163300</v>
       </c>
       <c r="L62" s="3">
+        <v>163300</v>
+      </c>
+      <c r="M62" s="3">
         <v>169200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>162200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>168300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>173600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>156000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>149600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>163300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>177700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>98400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>50500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>50700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>46800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>40800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1192600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1258300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1217300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1185400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1126300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1139000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1124900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1148800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1135800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1064000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1079300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1111800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1119800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1136100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1144200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1118100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1185700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>812700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>769100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>726900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>688400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>676400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>654700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1341600</v>
+        <v>1372600</v>
       </c>
       <c r="E72" s="3">
+        <v>1268100</v>
+      </c>
+      <c r="F72" s="3">
         <v>1229300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1150300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1080000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1034000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>986800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>943200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>963800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>950900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>939900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>916000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>882900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>856500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>834600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>791800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>758800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>722100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>741400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>707000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>665800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>634400</v>
       </c>
-      <c r="Y72" s="3" t="s">
+      <c r="Z72" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2000500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1893400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1821300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1742100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1660600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1608600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1529400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1462300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1476800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1495900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1472100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1509800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1505300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1478200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1519300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1469900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1441800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>927400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>933100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>895300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>855600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>814800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>803400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44464</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44373</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44282</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44191</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>117500</v>
+      </c>
+      <c r="E81" s="3">
         <v>51900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>92100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>82100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>57700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>59000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>55400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>24600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>22700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>35600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>43800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>37000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>32700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>53500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>42300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>36000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-10800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>42800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>48600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>38900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>27200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E83" s="3">
         <v>25600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>24600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>24200</v>
       </c>
       <c r="G83" s="3">
         <v>24200</v>
       </c>
       <c r="H83" s="3">
-        <v>24300</v>
+        <v>24200</v>
       </c>
       <c r="I83" s="3">
         <v>24300</v>
       </c>
       <c r="J83" s="3">
+        <v>24300</v>
+      </c>
+      <c r="K83" s="3">
         <v>23700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>23800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>23400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>23100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>22700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>23300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>27100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>26300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>26200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>23600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>16400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>15900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>15600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>15100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>14900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E89" s="3">
         <v>132700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>114300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>76200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>50200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>93800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>63000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>56000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>45300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>84500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>80800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>49200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>30900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>79700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>111200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>71600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>69300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>87900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>87700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>70600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>22900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>80100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-33000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-24900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-17900</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-14700</v>
       </c>
       <c r="H91" s="3">
         <v>-14700</v>
       </c>
       <c r="I91" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="J91" s="3">
         <v>-12100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-14100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-22400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-17500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-20200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-15900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-12400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-11700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-333500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-25700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-122000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-16500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-14200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-17800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-26400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-324400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-16900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-43100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-14000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-22100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-12800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-124300</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6264,13 +6497,13 @@
         <v>-13100</v>
       </c>
       <c r="F96" s="3">
-        <v>-11800</v>
+        <v>-13100</v>
       </c>
       <c r="G96" s="3">
         <v>-11800</v>
       </c>
       <c r="H96" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="I96" s="3">
         <v>-11700</v>
@@ -6288,31 +6521,31 @@
         <v>-11700</v>
       </c>
       <c r="N96" s="3">
-        <v>-10600</v>
+        <v>-11700</v>
       </c>
       <c r="O96" s="3">
         <v>-10600</v>
       </c>
       <c r="P96" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-10800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-9300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-9200</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-8400</v>
       </c>
       <c r="U96" s="3">
         <v>-8400</v>
       </c>
       <c r="V96" s="3">
-        <v>-7500</v>
+        <v>-8400</v>
       </c>
       <c r="W96" s="3">
         <v>-7500</v>
@@ -6321,10 +6554,13 @@
         <v>-7500</v>
       </c>
       <c r="Y96" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-14900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-34300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-49400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-68900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-15300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>65800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-10800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-59800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-44300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-31300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-73400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-44100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>240300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-18200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-13000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>21800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>73600</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>11300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>8000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-213000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>74000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>44600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-110200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>45600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-10000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>31300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>89400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>55100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-13100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>90100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-17200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>56800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>50900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>43900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>80600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>15000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,345 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44464</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44282</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44191</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>618400</v>
+      </c>
+      <c r="E8" s="3">
         <v>623300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>553100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>539600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>523500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>463800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>400700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>391600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>307300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>346100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>338500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>362000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>397900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>405500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>402300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>439200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>459200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>417800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>304800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>317900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>313400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>285400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>284500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>355500</v>
+      </c>
+      <c r="E9" s="3">
         <v>364700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>353600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>325000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>326100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>303300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>262600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>252700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>207400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>221700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>220200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>231000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>256100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>250300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>247900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>259600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>290200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>268200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>178200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>184200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>180700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>171800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>170200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>166600</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>262900</v>
+      </c>
+      <c r="E10" s="3">
         <v>258600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>199500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>214600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>197400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>160500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>138100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>138900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>99900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>124400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>118300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>131000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>141800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>155200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>154400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>179600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>169000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>149600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>126600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>133700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>132700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>113600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>114300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,82 +1030,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E12" s="3">
         <v>19600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>19000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>15800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>16400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>14700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>12000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>17400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>19700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>21400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>21600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>20500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>22700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>22500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>13600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>12000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>12700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>12200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>11300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,43 +1182,46 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>200</v>
+        <v>5400</v>
       </c>
       <c r="E14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F14" s="3">
         <v>5600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>69500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2100</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1210,11 +1229,11 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1222,100 +1241,106 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E15" s="3">
         <v>12700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>11100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>10400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>10600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>10500</v>
-      </c>
-      <c r="I15" s="3">
-        <v>10100</v>
       </c>
       <c r="J15" s="3">
         <v>10100</v>
       </c>
       <c r="K15" s="3">
+        <v>10100</v>
+      </c>
+      <c r="L15" s="3">
         <v>9800</v>
-      </c>
-      <c r="L15" s="3">
-        <v>10000</v>
       </c>
       <c r="M15" s="3">
         <v>10000</v>
       </c>
       <c r="N15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O15" s="3">
         <v>9800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>10100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>10200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>13700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>13100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>13400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>12000</v>
-      </c>
-      <c r="U15" s="3">
-        <v>6300</v>
       </c>
       <c r="V15" s="3">
         <v>6300</v>
       </c>
       <c r="W15" s="3">
+        <v>6300</v>
+      </c>
+      <c r="X15" s="3">
         <v>6200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>5900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>6000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1364,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>484300</v>
+      </c>
+      <c r="E17" s="3">
         <v>472700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>460300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>419500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>427700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>387300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>335700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>327000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>319300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>301300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>306200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>314800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>345200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>344800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>350700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>363000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>399600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>380200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>254100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>259300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>253100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>236600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>243500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>252800</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>134100</v>
+      </c>
+      <c r="E18" s="3">
         <v>150600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>92800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>120100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>95800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>76500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>65000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>64600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>44800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>32300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>47200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>52700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>60700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>51600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>76200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>59600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>37600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>50700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>58600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>60300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>48800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>41000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,164 +1547,171 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-12100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-28700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>12500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-6900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>141300</v>
+      </c>
+      <c r="E21" s="3">
         <v>166700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>89700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>142800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>124000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>101600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>98000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>96700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>19000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>64700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>53400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>70100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>81800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>75400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>72500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>100200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>84300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>73700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>63600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>74900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>76300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>65600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>49000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E22" s="3">
         <v>4300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>4600</v>
       </c>
       <c r="F22" s="3">
         <v>4600</v>
@@ -1681,212 +1720,221 @@
         <v>4600</v>
       </c>
       <c r="H22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I22" s="3">
         <v>4700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5900</v>
-      </c>
-      <c r="L22" s="3">
-        <v>5400</v>
       </c>
       <c r="M22" s="3">
         <v>5400</v>
       </c>
       <c r="N22" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="O22" s="3">
         <v>5600</v>
       </c>
       <c r="P22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="Q22" s="3">
         <v>5700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5600</v>
-      </c>
-      <c r="R22" s="3">
-        <v>5800</v>
       </c>
       <c r="S22" s="3">
         <v>5800</v>
       </c>
       <c r="T22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="U22" s="3">
         <v>5400</v>
-      </c>
-      <c r="U22" s="3">
-        <v>3500</v>
       </c>
       <c r="V22" s="3">
         <v>3500</v>
       </c>
       <c r="W22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="X22" s="3">
         <v>3300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>3100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>109600</v>
+      </c>
+      <c r="E23" s="3">
         <v>134100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>59500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>113600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>95200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>72700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>68900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>67400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>35500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>24500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>41400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>53600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>46400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>39800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>68200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>52300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>44600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>43700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>55500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>57400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>47400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>31800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E24" s="3">
         <v>16600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>21500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>13100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>15000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>14700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>12700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>8700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>8500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>4500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2007,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E26" s="3">
         <v>117500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>51900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>92100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>82100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>57700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>59000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>55400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>24600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>22700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>35600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>43800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>37000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>35900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>53500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>42300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>36000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>36200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>42800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>48600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>38900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>27200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E27" s="3">
         <v>117500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>51900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>92100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>82100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>57700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>59000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>55400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>24600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>22700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>35600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>43800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>37000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>35900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>53500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>42300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>36000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>36200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>42800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>48600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>38900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>27200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2238,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2207,8 +2267,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
@@ -2225,11 +2285,11 @@
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="3">
         <v>-3200</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
@@ -2237,11 +2297,11 @@
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V29" s="3">
         <v>-47000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>10</v>
@@ -2255,8 +2315,11 @@
       <c r="Z29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2392,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2469,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E32" s="3">
         <v>12100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>28700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>8500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-12500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>6900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E33" s="3">
         <v>117500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>51900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>92100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>82100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>57700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>59000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>55400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>24600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>22700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>35600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>43800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>37000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>32700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>53500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>42300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>36000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-10800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>42800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>48600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>38900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>27200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2700,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E35" s="3">
         <v>117500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>51900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>92100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>82100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>57700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>59000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>55400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>24600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>22700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>35600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>43800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>37000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>32700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>53500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>42300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>36000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-10800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>42800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>48600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>38900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>27200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44464</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44282</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44191</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2890,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2919,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>809100</v>
+      </c>
+      <c r="E41" s="3">
         <v>461600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>478500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>690700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>616300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>572800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>687500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>641900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>651900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>620600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>531100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>476100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>474800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>476600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>489700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>498200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>408100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>412500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>429700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>372800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>321900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>278000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>275100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2926,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>100</v>
@@ -2935,7 +3024,7 @@
         <v>100</v>
       </c>
       <c r="K42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2977,531 +3066,555 @@
         <v>0</v>
       </c>
       <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
         <v>3700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>348200</v>
+      </c>
+      <c r="E43" s="3">
         <v>321000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>277200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>328400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>317300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>280800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>235800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>233100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>187300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>212200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>207100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>229100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>247100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>238600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>235200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>258400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>265100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>248800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>184400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>204200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>205700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>224900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>385800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>219600</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>496200</v>
+      </c>
+      <c r="E44" s="3">
         <v>470600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>445700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>357000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>325800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>295100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>258000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>243800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>248000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>227300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>237500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>240100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>254300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>261700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>258200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>247300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>239200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>264000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>140800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>136500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>125200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>118300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>114100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E45" s="3">
         <v>65000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>68800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>59800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>59500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>43700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>35900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>30000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>31900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>32400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>28600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>62400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>63300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>53200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>49300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>48700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>45700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>47800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>37500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>45800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>51900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>13000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>31500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1718800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1318200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1270200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1435900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1318900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1192400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1217300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1148900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1119200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1092500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1004400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1007600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1039500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1030100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1032500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1052600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>958200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>973100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>792300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>759400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>704900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>634200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>612100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>555200</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E47" s="3">
         <v>34400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>39200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>39900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>39300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>37300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>30500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>26100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>23700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>21200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>24100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>26700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>25500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>24600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>25400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>29100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>31300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>31100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>11000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>10600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>11900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>11700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>13900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>475400</v>
+      </c>
+      <c r="E48" s="3">
         <v>479600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>467500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>388700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>381300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>364500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>361800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>358700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>354300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>355400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>366500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>351400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>361800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>367100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>339900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>343900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>338800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>337200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>250600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>244900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>232500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>223900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>217200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>223900</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1271900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1301000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1319300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1134800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1150600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1154700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1100400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1087900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1081500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1113400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1141800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1140100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1167600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1175900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1188200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1207500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1222300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1246000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>657300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>660700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>643000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>644400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>616600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>634100</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3687,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3764,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E52" s="3">
         <v>59900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>55500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>39100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>37400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>38000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>37500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>32800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>32400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>30100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>23000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>25600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>27200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>27300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>28300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>30400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>37400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>40100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>28900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>26700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>29900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>29800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>31400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3918,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3544500</v>
+      </c>
+      <c r="E54" s="3">
         <v>3193200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3151700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3038500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2927500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2786900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2747600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2654400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2611100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2612600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2559900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2551400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2621600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2625000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2614300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2663500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2588000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2627500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1740100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1702200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1622200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1544000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1491200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1458100</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4026,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,102 +4055,106 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>219800</v>
+      </c>
+      <c r="E57" s="3">
         <v>212600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>222000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>221900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>205100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>179700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>146000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>120900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>113800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>106800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>117300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>107200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>123100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>129100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>126300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>129900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>127300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>120800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>101800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>103800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>100800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>88400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>90700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>81400</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>25000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>27600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>25000</v>
       </c>
       <c r="H58" s="3">
         <v>25000</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -4030,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>10000</v>
@@ -4048,7 +4181,7 @@
         <v>10000</v>
       </c>
       <c r="R58" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="S58" s="3">
         <v>10100</v>
@@ -4057,16 +4190,16 @@
         <v>10100</v>
       </c>
       <c r="U58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="V58" s="3">
         <v>6300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>9400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7800</v>
-      </c>
-      <c r="X58" s="3">
-        <v>6300</v>
       </c>
       <c r="Y58" s="3">
         <v>6300</v>
@@ -4074,304 +4207,319 @@
       <c r="Z58" s="3">
         <v>6300</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>171500</v>
+      </c>
+      <c r="E59" s="3">
         <v>152700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>187600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>172100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>151600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>121800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>129700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>113700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>95400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>91400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>98200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>131500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>133400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>130500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>159000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>163900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>129800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>133500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>116700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>112900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>93600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>82600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>90600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>100300</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>398800</v>
+      </c>
+      <c r="E60" s="3">
         <v>365300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>434600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>421600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>381700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>326500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>275600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>234600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>209200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>208200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>225600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>248700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>266400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>269600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>295300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>303900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>267200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>264400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>224800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>226200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>202200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>177200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>187500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>187900</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>884600</v>
+      </c>
+      <c r="E61" s="3">
         <v>606700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>611900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>620100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>626900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>623900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>687000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>725500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>776200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>764200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>669200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>668200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>676900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>676500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>684700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>690600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>687500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>743400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>489400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>492300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>473900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>464300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>447900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>434200</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>209200</v>
+      </c>
+      <c r="E62" s="3">
         <v>220400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>211700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>175400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>176700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>175700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>176100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>164700</v>
-      </c>
-      <c r="K62" s="3">
-        <v>163300</v>
       </c>
       <c r="L62" s="3">
         <v>163300</v>
       </c>
       <c r="M62" s="3">
+        <v>163300</v>
+      </c>
+      <c r="N62" s="3">
         <v>169200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>162200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>168300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>173600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>156000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>149600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>163300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>177700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>98400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>50500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>50700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>46800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>40800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4592,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4669,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4746,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1492700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1192600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1258300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1217300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1185400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1126300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1139000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1124900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1148800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1135800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1064000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1079300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1111800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1119800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1136100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1144200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1118100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1185700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>812700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>769100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>726900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>688400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>676400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>654700</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4854,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4929,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5006,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5083,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5160,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1446500</v>
+      </c>
+      <c r="E72" s="3">
         <v>1372600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1268100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1229300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1150300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1080000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1034000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>986800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>943200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>963800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>950900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>939900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>916000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>882900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>856500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>834600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>791800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>758800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>722100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>741400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>707000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>665800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>634400</v>
       </c>
-      <c r="Z72" s="3" t="s">
+      <c r="AA72" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5314,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5391,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5468,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2051800</v>
+      </c>
+      <c r="E76" s="3">
         <v>2000500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1893400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1821300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1742100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1660600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1608600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1529400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1462300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1476800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1495900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1472100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1509800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1505300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1478200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1519300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1469900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1441800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>927400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>933100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>895300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>855600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>814800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>803400</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5622,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44464</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44282</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44191</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E81" s="3">
         <v>117500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>51900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>92100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>82100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>57700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>59000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>55400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>24600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>22700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>35600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>43800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>37000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>32700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>53500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>42300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>36000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-10800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>42800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>48600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>38900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>27200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5812,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E83" s="3">
         <v>28300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>25600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>24600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>24200</v>
       </c>
       <c r="H83" s="3">
         <v>24200</v>
       </c>
       <c r="I83" s="3">
-        <v>24300</v>
+        <v>24200</v>
       </c>
       <c r="J83" s="3">
         <v>24300</v>
       </c>
       <c r="K83" s="3">
+        <v>24300</v>
+      </c>
+      <c r="L83" s="3">
         <v>23700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>23800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>23400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>23100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>22700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>23300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>27100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>26300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>26200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>23600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>16400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>15900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>15600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>15100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>14900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5964,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6041,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6118,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6195,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6272,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>113600</v>
+      </c>
+      <c r="E89" s="3">
         <v>51700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>132700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>114300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>76200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>50200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>93800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>63000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>56000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>45300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>84500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>80800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>49200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>30900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>79700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>111200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>71600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>69300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>87900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>87700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>70600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>22900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>80100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6380,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-29800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-33000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-24900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-17900</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-14700</v>
       </c>
       <c r="I91" s="3">
         <v>-14700</v>
       </c>
       <c r="J91" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-12100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-18800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-22400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-17900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-17500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-20200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-15900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-12400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-11700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6532,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6609,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-29800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-333500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-25700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-122000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-16500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-23500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-13100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-14200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-13700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-17800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-26400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-324400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-16900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-43100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-14000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-22100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-12800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-124300</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6717,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6500,13 +6733,13 @@
         <v>-13100</v>
       </c>
       <c r="G96" s="3">
-        <v>-11800</v>
+        <v>-13100</v>
       </c>
       <c r="H96" s="3">
         <v>-11800</v>
       </c>
       <c r="I96" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="J96" s="3">
         <v>-11700</v>
@@ -6524,31 +6757,31 @@
         <v>-11700</v>
       </c>
       <c r="O96" s="3">
-        <v>-10600</v>
+        <v>-11700</v>
       </c>
       <c r="P96" s="3">
         <v>-10600</v>
       </c>
       <c r="Q96" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="R96" s="3">
         <v>-10700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-10800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-9300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-9200</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-8400</v>
       </c>
       <c r="V96" s="3">
         <v>-8400</v>
       </c>
       <c r="W96" s="3">
-        <v>-7500</v>
+        <v>-8400</v>
       </c>
       <c r="X96" s="3">
         <v>-7500</v>
@@ -6557,10 +6790,13 @@
         <v>-7500</v>
       </c>
       <c r="Z96" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6869,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6946,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7023,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>282100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-37100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-14900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-34300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-49400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-68900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-15300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>65800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-10800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-59800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-44300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-31300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-73400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-44100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>240300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-18200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-13000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>21800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>73600</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>11300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-6500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-5500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-8500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>347300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-213000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>74000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>44600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-110200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>45600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-10000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>31300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>89400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>55100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-8500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>90100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-17200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>56800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>50900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>43900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>80600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>15000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,345 +665,357 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44464</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44282</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>658900</v>
+      </c>
+      <c r="E8" s="3">
         <v>618400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>623300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>553100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>539600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>523500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>463800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>400700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>391600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>307300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>346100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>338500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>362000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>397900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>405500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>402300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>439200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>459200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>417800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>304800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>317900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>313400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>285400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>284500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>402100</v>
+      </c>
+      <c r="E9" s="3">
         <v>355500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>364700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>353600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>325000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>326100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>303300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>262600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>252700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>207400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>221700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>220200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>231000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>256100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>250300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>247900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>259600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>290200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>268200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>178200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>184200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>180700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>171800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>170200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>166600</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>256800</v>
+      </c>
+      <c r="E10" s="3">
         <v>262900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>258600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>199500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>214600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>197400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>160500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>138100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>138900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>99900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>124400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>118300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>131000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>141800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>155200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>154400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>179600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>169000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>149600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>126600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>133700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>132700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>113600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>114300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1031,85 +1043,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E12" s="3">
         <v>23500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>19600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>19000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>15800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>16400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>14700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>12000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>14500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>17400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>19700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>21500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>21400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>21600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>20500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>22700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>22500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>13600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>12000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>12700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>12200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>11300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1185,46 +1201,49 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E14" s="3">
         <v>5400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>69500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2100</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1232,11 +1251,11 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1244,103 +1263,109 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>10</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E15" s="3">
         <v>11600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>12700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>11100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>10400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>10600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>10500</v>
-      </c>
-      <c r="J15" s="3">
-        <v>10100</v>
       </c>
       <c r="K15" s="3">
         <v>10100</v>
       </c>
       <c r="L15" s="3">
+        <v>10100</v>
+      </c>
+      <c r="M15" s="3">
         <v>9800</v>
-      </c>
-      <c r="M15" s="3">
-        <v>10000</v>
       </c>
       <c r="N15" s="3">
         <v>10000</v>
       </c>
       <c r="O15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="P15" s="3">
         <v>9800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>10100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>10200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>13700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>13100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>13400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>12000</v>
-      </c>
-      <c r="V15" s="3">
-        <v>6300</v>
       </c>
       <c r="W15" s="3">
         <v>6300</v>
       </c>
       <c r="X15" s="3">
+        <v>6300</v>
+      </c>
+      <c r="Y15" s="3">
         <v>6200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>5900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>6000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1365,162 +1390,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>537000</v>
+      </c>
+      <c r="E17" s="3">
         <v>484300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>472700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>460300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>419500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>427700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>387300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>335700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>327000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>319300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>301300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>306200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>314800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>345200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>344800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>350700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>363000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>399600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>380200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>254100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>259300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>253100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>236600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>243500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>252800</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>121900</v>
+      </c>
+      <c r="E18" s="3">
         <v>134100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>150600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>92800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>120100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>95800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>76500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>65000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>64600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>44800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>32300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>47200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>52700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>60700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>51600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>76200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>59600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>37600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>50700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>58600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>60300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>48800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>41000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1548,173 +1580,180 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-20100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-12100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-28700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-8500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>12500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-6900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E21" s="3">
         <v>141300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>166700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>89700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>142800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>124000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>101600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>98000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>96700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>19000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>64700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>53400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>70100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>81800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>75400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>72500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>100200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>84300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>73700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>63600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>74900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>76300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>65600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>49000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E22" s="3">
         <v>4400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4600</v>
       </c>
       <c r="G22" s="3">
         <v>4600</v>
@@ -1723,218 +1762,227 @@
         <v>4600</v>
       </c>
       <c r="I22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J22" s="3">
         <v>4700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5900</v>
-      </c>
-      <c r="M22" s="3">
-        <v>5400</v>
       </c>
       <c r="N22" s="3">
         <v>5400</v>
       </c>
       <c r="O22" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="P22" s="3">
         <v>5600</v>
       </c>
       <c r="Q22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="R22" s="3">
         <v>5700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5600</v>
-      </c>
-      <c r="S22" s="3">
-        <v>5800</v>
       </c>
       <c r="T22" s="3">
         <v>5800</v>
       </c>
       <c r="U22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="V22" s="3">
         <v>5400</v>
-      </c>
-      <c r="V22" s="3">
-        <v>3500</v>
       </c>
       <c r="W22" s="3">
         <v>3500</v>
       </c>
       <c r="X22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Y22" s="3">
         <v>3300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>3100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>2300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E23" s="3">
         <v>109600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>134100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>59500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>113600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>95200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>72700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>68900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>67400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>35500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>24500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>41400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>53600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>46400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>39800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>68200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>52300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>44600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>43700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>55500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>57400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>47400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>31800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E24" s="3">
         <v>22600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>16600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>21500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>13100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>15000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>9500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>14700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>8600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>7500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>12700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>8700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>8500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>4500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2010,162 +2058,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E26" s="3">
         <v>87000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>117500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>51900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>92100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>82100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>57700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>59000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>55400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>24600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>22700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>35600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>43800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>37000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>35900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>53500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>42300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>36000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>36200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>42800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>48600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>38900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>27200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E27" s="3">
         <v>87000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>117500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>51900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>92100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>82100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>57700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>59000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>55400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>24600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>22700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>35600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>43800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>37000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>35900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>53500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>42300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>36000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>36200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>42800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>48600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>38900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>27200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2241,8 +2298,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2270,8 +2330,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
@@ -2288,11 +2348,11 @@
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="3">
         <v>-3200</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>10</v>
@@ -2300,11 +2360,11 @@
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W29" s="3">
         <v>-47000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>10</v>
@@ -2318,8 +2378,11 @@
       <c r="AA29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2395,8 +2458,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2472,162 +2538,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E32" s="3">
         <v>20100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>12100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>28700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>8500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-12500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>6900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E33" s="3">
         <v>87000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>117500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>51900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>92100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>82100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>57700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>59000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>55400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>24600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>22700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>35600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>43800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>37000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>32700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>53500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>42300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>36000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-10800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>42800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>48600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>38900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>27200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2703,167 +2778,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E35" s="3">
         <v>87000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>117500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>51900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>92100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>82100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>57700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>59000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>55400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>24600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>22700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>35600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>43800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>37000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>32700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>53500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>42300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>36000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-10800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>42800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>48600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>38900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>27200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44464</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44282</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2891,8 +2975,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2920,90 +3005,94 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>474000</v>
+      </c>
+      <c r="E41" s="3">
         <v>809100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>461600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>478500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>690700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>616300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>572800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>687500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>641900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>651900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>620600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>531100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>476100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>474800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>476600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>489700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>498200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>408100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>412500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>429700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>372800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>321900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>278000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>275100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -3018,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <v>100</v>
@@ -3027,7 +3116,7 @@
         <v>100</v>
       </c>
       <c r="L42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -3069,552 +3158,576 @@
         <v>0</v>
       </c>
       <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
         <v>3700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>345600</v>
+      </c>
+      <c r="E43" s="3">
         <v>348200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>321000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>277200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>328400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>317300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>280800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>235800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>233100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>187300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>212200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>207100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>229100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>247100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>238600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>235200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>258400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>265100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>248800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>184400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>204200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>205700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>224900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>385800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>219600</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>536000</v>
+      </c>
+      <c r="E44" s="3">
         <v>496200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>470600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>445700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>357000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>325800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>295100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>258000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>243800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>248000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>227300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>237500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>240100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>254300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>261700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>258200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>247300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>239200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>264000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>140800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>136500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>125200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>118300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>114100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>75600</v>
+      </c>
+      <c r="E45" s="3">
         <v>65300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>65000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>68800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>59800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>59500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>43700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>35900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>30000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>31900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>32400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>28600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>62400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>63300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>53200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>49300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>48700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>45700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>47800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>37500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>45800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>51900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>13000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>31500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1431300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1718800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1318200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1270200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1435900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1318900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1192400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1217300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1148900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1119200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1092500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1004400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1007600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1039500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1030100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1032500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1052600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>958200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>973100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>792300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>759400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>704900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>634200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>612100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>555200</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E47" s="3">
         <v>25600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>34400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>39200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>39900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>39300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>37300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>30500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>26100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>23700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>21200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>24100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>26700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>25500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>24600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>25400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>29100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>31300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>31100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>11000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>10600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>11900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>11700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>13900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>504400</v>
+      </c>
+      <c r="E48" s="3">
         <v>475400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>479600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>467500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>388700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>381300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>364500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>361800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>358700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>354300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>355400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>366500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>351400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>361800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>367100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>339900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>343900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>338800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>337200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>250600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>244900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>232500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>223900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>217200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>223900</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1758400</v>
+      </c>
+      <c r="E49" s="3">
         <v>1271900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1301000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1319300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1134800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1150600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1154700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1100400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1087900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1081500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1113400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1141800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1140100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1167600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1175900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1188200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1207500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1222300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1246000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>657300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>660700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>643000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>644400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>616600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>634100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3690,8 +3803,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3767,85 +3883,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E52" s="3">
         <v>52700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>59900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>55500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>39100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>37400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>38000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>37500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>32800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>32400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>30100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>23000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>25600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>27200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>27300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>28300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>30400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>37400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>40100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>28900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>26700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>29900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>29800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>31400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3921,85 +4043,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3777900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3544500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3193200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3151700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3038500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2927500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2786900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2747600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2654400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2611100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2612600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2559900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2551400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2621600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2625000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2614300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2663500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2588000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2627500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1740100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1702200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1622200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1544000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1491200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1458100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4027,8 +4155,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4056,108 +4185,112 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>219400</v>
+      </c>
+      <c r="E57" s="3">
         <v>219800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>212600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>222000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>221900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>205100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>179700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>146000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>120900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>113800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>106800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>117300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>107200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>123100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>129100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>126300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>129900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>127300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>120800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>101800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>103800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>100800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>88400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>90700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>81400</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E58" s="3">
         <v>7500</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>25000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>27600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>25000</v>
       </c>
       <c r="I58" s="3">
         <v>25000</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -4166,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>10000</v>
@@ -4184,7 +4317,7 @@
         <v>10000</v>
       </c>
       <c r="S58" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="T58" s="3">
         <v>10100</v>
@@ -4193,16 +4326,16 @@
         <v>10100</v>
       </c>
       <c r="V58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="W58" s="3">
         <v>6300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>9400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>7800</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>6300</v>
       </c>
       <c r="Z58" s="3">
         <v>6300</v>
@@ -4210,316 +4343,331 @@
       <c r="AA58" s="3">
         <v>6300</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>219100</v>
+      </c>
+      <c r="E59" s="3">
         <v>171500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>152700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>187600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>172100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>151600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>121800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>129700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>113700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>95400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>91400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>98200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>131500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>133400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>130500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>159000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>163900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>129800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>133500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>116700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>112900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>93600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>82600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>90600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>100300</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>448800</v>
+      </c>
+      <c r="E60" s="3">
         <v>398800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>365300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>434600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>421600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>381700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>326500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>275600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>234600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>209200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>208200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>225600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>248700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>266400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>269600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>295300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>303900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>267200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>264400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>224800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>226200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>202200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>177200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>187500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>187900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>975600</v>
+      </c>
+      <c r="E61" s="3">
         <v>884600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>606700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>611900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>620100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>626900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>623900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>687000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>725500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>776200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>764200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>669200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>668200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>676900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>676500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>684700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>690600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>687500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>743400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>489400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>492300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>473900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>464300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>447900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>434200</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>264600</v>
+      </c>
+      <c r="E62" s="3">
         <v>209200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>220400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>211700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>175400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>176700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>175700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>176100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>164700</v>
-      </c>
-      <c r="L62" s="3">
-        <v>163300</v>
       </c>
       <c r="M62" s="3">
         <v>163300</v>
       </c>
       <c r="N62" s="3">
+        <v>163300</v>
+      </c>
+      <c r="O62" s="3">
         <v>169200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>162200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>168300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>173600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>156000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>149600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>163300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>177700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>98400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>50500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>50700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>46800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>40800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4595,8 +4743,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4672,8 +4823,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4749,85 +4903,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1689200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1492700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1192600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1258300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1217300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1185400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1126300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1139000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1124900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1148800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1135800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1064000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1079300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1111800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1119800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1136100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1144200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1118100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1185700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>812700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>769100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>726900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>688400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>676400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>654700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4855,8 +5015,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4932,8 +5093,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5009,8 +5173,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5086,8 +5253,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5163,85 +5333,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1507000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1446500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1372600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1268100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1229300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1150300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1080000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1034000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>986800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>943200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>963800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>950900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>939900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>916000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>882900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>856500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>834600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>791800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>758800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>722100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>741400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>707000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>665800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>634400</v>
       </c>
-      <c r="AA72" s="3" t="s">
+      <c r="AB72" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5317,8 +5493,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5394,8 +5573,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5471,85 +5653,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2088700</v>
+      </c>
+      <c r="E76" s="3">
         <v>2051800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2000500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1893400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1821300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1742100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1660600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1608600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1529400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1462300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1476800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1495900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1472100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1509800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1505300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1478200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1519300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1469900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1441800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>927400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>933100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>895300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>855600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>814800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>803400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5625,167 +5813,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44464</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44282</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E81" s="3">
         <v>87000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>117500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>51900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>92100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>82100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>57700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>59000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>55400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>24600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>22700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>35600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>43800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>37000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>32700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>53500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>42300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>36000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-10800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>42800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>48600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>38900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>27200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5813,85 +6010,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E83" s="3">
         <v>27300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>28300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>25600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>24600</v>
-      </c>
-      <c r="H83" s="3">
-        <v>24200</v>
       </c>
       <c r="I83" s="3">
         <v>24200</v>
       </c>
       <c r="J83" s="3">
-        <v>24300</v>
+        <v>24200</v>
       </c>
       <c r="K83" s="3">
         <v>24300</v>
       </c>
       <c r="L83" s="3">
+        <v>24300</v>
+      </c>
+      <c r="M83" s="3">
         <v>23700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>23800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>23400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>23100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>22700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>23300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>27100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>26300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>26200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>23600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>16400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>15900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>15600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>15100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>14900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5967,8 +6168,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6044,8 +6248,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6121,8 +6328,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6198,8 +6408,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6275,85 +6488,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>148100</v>
+      </c>
+      <c r="E89" s="3">
         <v>113600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>51700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>132700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>114300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>76200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>50200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>93800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>63000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>56000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>45300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>84500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>80800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>49200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>30900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>79700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>111200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>71600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>69300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>87900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>87700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>70600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>22900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>80100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6381,85 +6600,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-26300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-29800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-33000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-24900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-17900</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-14700</v>
       </c>
       <c r="J91" s="3">
         <v>-14700</v>
       </c>
       <c r="K91" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="L91" s="3">
         <v>-12100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-14100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-18800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-22400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-17900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-17500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-20200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-15900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-12400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-11700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6535,8 +6758,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6612,85 +6838,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-544600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-35600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-29800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-333500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-25700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-17900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-122000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-16500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-23500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-13100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-14200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-13700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-17800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-26400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-324400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-16900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-43100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-14000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-22100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-12800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-124300</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6718,13 +6950,14 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-13100</v>
+        <v>-14900</v>
       </c>
       <c r="E96" s="3">
         <v>-13100</v>
@@ -6736,13 +6969,13 @@
         <v>-13100</v>
       </c>
       <c r="H96" s="3">
-        <v>-11800</v>
+        <v>-13100</v>
       </c>
       <c r="I96" s="3">
         <v>-11800</v>
       </c>
       <c r="J96" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="K96" s="3">
         <v>-11700</v>
@@ -6760,31 +6993,31 @@
         <v>-11700</v>
       </c>
       <c r="P96" s="3">
-        <v>-10600</v>
+        <v>-11700</v>
       </c>
       <c r="Q96" s="3">
         <v>-10600</v>
       </c>
       <c r="R96" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="S96" s="3">
         <v>-10700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-10800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-9300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-9200</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-8400</v>
       </c>
       <c r="W96" s="3">
         <v>-8400</v>
       </c>
       <c r="X96" s="3">
-        <v>-7500</v>
+        <v>-8400</v>
       </c>
       <c r="Y96" s="3">
         <v>-7500</v>
@@ -6793,10 +7026,13 @@
         <v>-7500</v>
       </c>
       <c r="AA96" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6872,8 +7108,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6949,8 +7188,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7026,235 +7268,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E100" s="3">
         <v>282100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-37100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-14900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-34300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-49400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-68900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>65800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-10800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-59800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-44300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-31300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-73400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-44100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>240300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-18200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-13000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>21800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>73600</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-12800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>11300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>8000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-5500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>4100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-8500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-336000</v>
+      </c>
+      <c r="E102" s="3">
         <v>347300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-17900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-213000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>74000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>44600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-110200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>45600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>31300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>89400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>55100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-13100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-8500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>90100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-17200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>56800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>50900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>43900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>80600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>15000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,357 +665,370 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44562</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44464</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44282</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44191</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>613300</v>
+      </c>
+      <c r="E8" s="3">
         <v>658900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>618400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>623300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>553100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>539600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>523500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>463800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>400700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>391600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>307300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>346100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>338500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>362000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>397900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>405500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>402300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>439200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>459200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>417800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>304800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>317900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>313400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>285400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>284500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>384700</v>
+      </c>
+      <c r="E9" s="3">
         <v>402100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>355500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>364700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>353600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>325000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>326100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>303300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>262600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>252700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>207400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>221700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>220200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>231000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>256100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>250300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>247900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>259600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>290200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>268200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>178200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>184200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>180700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>171800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>170200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>166600</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>228600</v>
+      </c>
+      <c r="E10" s="3">
         <v>256800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>262900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>258600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>199500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>214600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>197400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>160500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>138100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>138900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>99900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>124400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>118300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>131000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>141800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>155200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>154400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>179600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>169000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>149600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>126600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>133700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>132700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>113600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>114300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1044,88 +1057,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E12" s="3">
         <v>25800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>23500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>19600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>19000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>15800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>13200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>14500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>17400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>19700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>21500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>21400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>21600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>20500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>22700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>22500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>13600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>12000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>12700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>12200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>11300</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1204,49 +1221,52 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E14" s="3">
         <v>9600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>69500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2100</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1254,11 +1274,11 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
@@ -1266,106 +1286,112 @@
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>10</v>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E15" s="3">
         <v>15600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>11600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>12700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>11100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>10400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>10600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>10500</v>
-      </c>
-      <c r="K15" s="3">
-        <v>10100</v>
       </c>
       <c r="L15" s="3">
         <v>10100</v>
       </c>
       <c r="M15" s="3">
+        <v>10100</v>
+      </c>
+      <c r="N15" s="3">
         <v>9800</v>
-      </c>
-      <c r="N15" s="3">
-        <v>10000</v>
       </c>
       <c r="O15" s="3">
         <v>10000</v>
       </c>
       <c r="P15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>9800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>10100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>10200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>13700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>13100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>13400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>12000</v>
-      </c>
-      <c r="W15" s="3">
-        <v>6300</v>
       </c>
       <c r="X15" s="3">
         <v>6300</v>
       </c>
       <c r="Y15" s="3">
+        <v>6300</v>
+      </c>
+      <c r="Z15" s="3">
         <v>6200</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>5900</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>6000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1391,168 +1417,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>519500</v>
+      </c>
+      <c r="E17" s="3">
         <v>537000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>484300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>472700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>460300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>419500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>427700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>387300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>335700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>327000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>319300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>301300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>306200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>314800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>345200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>344800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>350700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>363000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>399600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>380200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>254100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>259300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>253100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>236600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>243500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>252800</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>93800</v>
+      </c>
+      <c r="E18" s="3">
         <v>121900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>134100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>150600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>92800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>120100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>95800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>76500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>65000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>64600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>44800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>32300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>47200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>52700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>60700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>51600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>76200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>59600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>37600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>50700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>58600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>60300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>48800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>41000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1581,182 +1614,189 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-17500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-20100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-12100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-28700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-8500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>12500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-6900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E21" s="3">
         <v>137000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>141300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>166700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>89700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>142800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>124000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>101600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>98000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>96700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>19000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>64700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>53400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>70100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>81800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>75400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>72500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>100200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>84300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>73700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>63600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>74900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>76300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>65600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>49000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E22" s="3">
         <v>8400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4600</v>
       </c>
       <c r="H22" s="3">
         <v>4600</v>
@@ -1765,224 +1805,233 @@
         <v>4600</v>
       </c>
       <c r="J22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K22" s="3">
         <v>4700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5900</v>
-      </c>
-      <c r="N22" s="3">
-        <v>5400</v>
       </c>
       <c r="O22" s="3">
         <v>5400</v>
       </c>
       <c r="P22" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="Q22" s="3">
         <v>5600</v>
       </c>
       <c r="R22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="S22" s="3">
         <v>5700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5600</v>
-      </c>
-      <c r="T22" s="3">
-        <v>5800</v>
       </c>
       <c r="U22" s="3">
         <v>5800</v>
       </c>
       <c r="V22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="W22" s="3">
         <v>5400</v>
-      </c>
-      <c r="W22" s="3">
-        <v>3500</v>
       </c>
       <c r="X22" s="3">
         <v>3500</v>
       </c>
       <c r="Y22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Z22" s="3">
         <v>3300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>3100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>2300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>103300</v>
+      </c>
+      <c r="E23" s="3">
         <v>96000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>109600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>134100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>59500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>113600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>95200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>72700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>68900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>67400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>35500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>24500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>41400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>53600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>46400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>39800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>68200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>52300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>44600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>43700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>55500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>57400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>47400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>31800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E24" s="3">
         <v>20500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>22600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>21500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>13100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>15000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>9800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>14700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>10000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>8600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>7500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>12700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>8700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>8500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>4500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2061,168 +2110,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E26" s="3">
         <v>75500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>87000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>117500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>51900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>92100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>82100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>57700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>59000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>55400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>24600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>22700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>35600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>43800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>37000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>35900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>53500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>42300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>36000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>36200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>42800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>48600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>38900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>27200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E27" s="3">
         <v>75500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>87000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>117500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>51900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>92100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>82100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>57700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>59000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>55400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>24600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>22700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>35600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>43800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>37000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>35900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>53500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>42300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>36000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>36200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>42800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>48600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>38900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>27200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2301,8 +2359,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2333,8 +2394,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
@@ -2351,11 +2412,11 @@
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T29" s="3">
         <v>-3200</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>10</v>
@@ -2363,11 +2424,11 @@
       <c r="V29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X29" s="3">
         <v>-47000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>10</v>
@@ -2381,8 +2442,11 @@
       <c r="AB29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2461,8 +2525,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2541,168 +2608,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E32" s="3">
         <v>17500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>20100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>12100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>28700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>8500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-12500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>6900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E33" s="3">
         <v>75500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>87000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>117500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>51900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>92100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>82100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>57700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>59000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>55400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>24600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>22700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>35600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>43800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>37000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>32700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>53500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>42300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>36000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-10800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>42800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>48600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>38900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>27200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2781,173 +2857,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E35" s="3">
         <v>75500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>87000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>117500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>51900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>92100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>82100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>57700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>59000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>55400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>24600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>22700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>35600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>43800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>37000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>32700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>53500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>42300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>36000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-10800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>42800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>48600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>38900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>27200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44562</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44464</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44282</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44191</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2976,8 +3061,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3006,88 +3092,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>562600</v>
+      </c>
+      <c r="E41" s="3">
         <v>474000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>809100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>461600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>478500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>690700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>616300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>572800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>687500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>641900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>651900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>620600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>531100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>476100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>474800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>476600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>489700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>498200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>408100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>412500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>429700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>372800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>321900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>278000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>275100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3095,7 +3185,7 @@
         <v>100</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -3110,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3">
         <v>100</v>
@@ -3119,7 +3209,7 @@
         <v>100</v>
       </c>
       <c r="M42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -3161,573 +3251,597 @@
         <v>0</v>
       </c>
       <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
         <v>3700</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>313800</v>
+      </c>
+      <c r="E43" s="3">
         <v>345600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>348200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>321000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>277200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>328400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>317300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>280800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>235800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>233100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>187300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>212200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>207100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>229100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>247100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>238600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>235200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>258400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>265100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>248800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>184400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>204200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>205700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>224900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>385800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>219600</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>547700</v>
+      </c>
+      <c r="E44" s="3">
         <v>536000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>496200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>470600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>445700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>357000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>325800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>295100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>258000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>243800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>248000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>227300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>237500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>240100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>254300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>261700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>258200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>247300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>239200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>264000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>140800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>136500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>125200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>118300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>114100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>87600</v>
+      </c>
+      <c r="E45" s="3">
         <v>75600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>65300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>65000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>68800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>59800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>59500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>43700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>35900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>30000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>31900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>32400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>28600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>62400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>63300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>53200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>49300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>48700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>45700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>47800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>37500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>45800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>51900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>13000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>31500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1511800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1431300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1718800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1318200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1270200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1435900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1318900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1192400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1217300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1148900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1119200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1092500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1004400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1007600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1039500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1030100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1032500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1052600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>958200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>973100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>792300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>759400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>704900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>634200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>612100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>555200</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E47" s="3">
         <v>23800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>25600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>34400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>39200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>39900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>39300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>37300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>30500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>26100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>23700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>21200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>24100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>26700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>25500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>24600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>25400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>29100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>31300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>31100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>11000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>10600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>11900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>11700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>13900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>538500</v>
+      </c>
+      <c r="E48" s="3">
         <v>504400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>475400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>479600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>467500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>388700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>381300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>364500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>361800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>358700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>354300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>355400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>366500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>351400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>361800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>367100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>339900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>343900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>338800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>337200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>250600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>244900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>232500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>223900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>217200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>223900</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1765300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1758400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1271900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1301000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1319300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1134800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1150600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1154700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1100400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1087900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1081500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1113400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1141800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1140100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1167600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1175900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1188200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1207500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1222300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1246000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>657300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>660700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>643000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>644400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>616600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>634100</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3806,8 +3920,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3886,88 +4003,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>64100</v>
+      </c>
+      <c r="E52" s="3">
         <v>60000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>52700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>59900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>55500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>39100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>37400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>38000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>37500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>32800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>32400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>30100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>23000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>25600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>27200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>27300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>28300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>30400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>37400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>40100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>28900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>26700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>29900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>29800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>31400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4046,88 +4169,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3903700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3777900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3544500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3193200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3151700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3038500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2927500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2786900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2747600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2654400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2611100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2612600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2559900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2551400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2621600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2625000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2614300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2663500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2588000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2627500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1740100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1702200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1622200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1544000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1491200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1458100</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4156,8 +4285,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4186,114 +4316,118 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>208600</v>
+      </c>
+      <c r="E57" s="3">
         <v>219400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>219800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>212600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>222000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>221900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>205100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>179700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>146000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>120900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>113800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>106800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>117300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>107200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>123100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>129100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>126300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>129900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>127300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>120800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>101800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>103800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>100800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>88400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>90700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>81400</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>134900</v>
+      </c>
+      <c r="E58" s="3">
         <v>10200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7500</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>25000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>27600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>25000</v>
       </c>
       <c r="J58" s="3">
         <v>25000</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -4302,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>10000</v>
@@ -4320,7 +4454,7 @@
         <v>10000</v>
       </c>
       <c r="T58" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="U58" s="3">
         <v>10100</v>
@@ -4329,16 +4463,16 @@
         <v>10100</v>
       </c>
       <c r="W58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="X58" s="3">
         <v>6300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>9400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>7800</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>6300</v>
       </c>
       <c r="AA58" s="3">
         <v>6300</v>
@@ -4346,328 +4480,343 @@
       <c r="AB58" s="3">
         <v>6300</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>228900</v>
+      </c>
+      <c r="E59" s="3">
         <v>219100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>171500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>152700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>187600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>172100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>151600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>121800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>129700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>113700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>95400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>91400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>98200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>131500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>133400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>130500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>159000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>163900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>129800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>133500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>116700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>112900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>93600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>82600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>90600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>100300</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>572300</v>
+      </c>
+      <c r="E60" s="3">
         <v>448800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>398800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>365300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>434600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>421600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>381700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>326500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>275600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>234600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>209200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>208200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>225600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>248700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>266400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>269600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>295300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>303900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>267200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>264400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>224800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>226200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>202200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>177200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>187500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>187900</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>866600</v>
+      </c>
+      <c r="E61" s="3">
         <v>975600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>884600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>606700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>611900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>620100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>626900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>623900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>687000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>725500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>776200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>764200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>669200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>668200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>676900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>676500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>684700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>690600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>687500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>743400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>489400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>492300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>473900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>464300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>447900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>434200</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>253400</v>
+      </c>
+      <c r="E62" s="3">
         <v>264600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>209200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>220400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>211700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>175400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>176700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>175700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>176100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>164700</v>
-      </c>
-      <c r="M62" s="3">
-        <v>163300</v>
       </c>
       <c r="N62" s="3">
         <v>163300</v>
       </c>
       <c r="O62" s="3">
+        <v>163300</v>
+      </c>
+      <c r="P62" s="3">
         <v>169200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>162200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>168300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>173600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>156000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>149600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>163300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>177700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>98400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>50500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>50700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>46800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>40800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4746,8 +4895,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4826,8 +4978,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4906,88 +5061,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1692500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1689200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1492700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1192600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1258300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1217300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1185400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1126300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1139000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1124900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1148800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1135800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1064000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1079300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1111800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1119800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1136100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1144200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1118100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1185700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>812700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>769100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>726900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>688400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>676400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>654700</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5016,8 +5177,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5096,8 +5258,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5176,8 +5341,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5256,8 +5424,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5336,88 +5507,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1585500</v>
+      </c>
+      <c r="E72" s="3">
         <v>1507000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1446500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1372600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1268100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1229300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1150300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1080000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1034000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>986800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>943200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>963800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>950900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>939900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>916000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>882900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>856500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>834600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>791800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>758800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>722100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>741400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>707000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>665800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>634400</v>
       </c>
-      <c r="AB72" s="3" t="s">
+      <c r="AC72" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5496,8 +5673,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5576,8 +5756,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5656,88 +5839,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2211200</v>
+      </c>
+      <c r="E76" s="3">
         <v>2088700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2051800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2000500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1893400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1821300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1742100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1660600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1608600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1529400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1462300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1476800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1495900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1472100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1509800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1505300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1478200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1519300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1469900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1441800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>927400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>933100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>895300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>855600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>814800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>803400</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5816,173 +6005,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44562</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44464</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44282</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44191</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E81" s="3">
         <v>75500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>87000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>117500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>51900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>92100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>82100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>57700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>59000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>55400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>24600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>22700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>35600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>43800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>37000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>32700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>53500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>42300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>36000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-10800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>42800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>48600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>38900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>27200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6011,88 +6209,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E83" s="3">
         <v>32600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>27300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>28300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>25600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>24600</v>
-      </c>
-      <c r="I83" s="3">
-        <v>24200</v>
       </c>
       <c r="J83" s="3">
         <v>24200</v>
       </c>
       <c r="K83" s="3">
-        <v>24300</v>
+        <v>24200</v>
       </c>
       <c r="L83" s="3">
         <v>24300</v>
       </c>
       <c r="M83" s="3">
+        <v>24300</v>
+      </c>
+      <c r="N83" s="3">
         <v>23700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>23800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>23400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>23100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>22700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>23300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>27100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>26300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>26200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>23600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>16400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>15900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>15600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>15100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>14900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6171,8 +6373,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6251,8 +6456,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6331,8 +6539,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6411,8 +6622,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6491,88 +6705,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>106300</v>
+      </c>
+      <c r="E89" s="3">
         <v>148100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>113600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>51700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>132700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>114300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>76200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>50200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>93800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>63000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>56000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>45300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>84500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>80800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>49200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>30900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>79700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>111200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>71600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>69300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>87900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>87700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>70600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>22900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>80100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6601,88 +6821,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-26300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-29800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-33000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-24900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-17900</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-14700</v>
       </c>
       <c r="K91" s="3">
         <v>-14700</v>
       </c>
       <c r="L91" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="M91" s="3">
         <v>-12100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-14100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-18800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-22400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-17900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-17500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-20200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-15900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-12400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-11700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6761,8 +6985,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6841,88 +7068,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-544600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-35600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-29800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-333500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-25700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-17900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-122000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-16500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-23500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-14200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-13700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-17800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-26400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-324400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-16900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-43100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-14000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-22100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-12800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-124300</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6951,8 +7184,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6960,7 +7194,7 @@
         <v>-14900</v>
       </c>
       <c r="E96" s="3">
-        <v>-13100</v>
+        <v>-14900</v>
       </c>
       <c r="F96" s="3">
         <v>-13100</v>
@@ -6972,13 +7206,13 @@
         <v>-13100</v>
       </c>
       <c r="I96" s="3">
-        <v>-11800</v>
+        <v>-13100</v>
       </c>
       <c r="J96" s="3">
         <v>-11800</v>
       </c>
       <c r="K96" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="L96" s="3">
         <v>-11700</v>
@@ -6996,31 +7230,31 @@
         <v>-11700</v>
       </c>
       <c r="Q96" s="3">
-        <v>-10600</v>
+        <v>-11700</v>
       </c>
       <c r="R96" s="3">
         <v>-10600</v>
       </c>
       <c r="S96" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="T96" s="3">
         <v>-10700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-10800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-9300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-9200</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-8400</v>
       </c>
       <c r="X96" s="3">
         <v>-8400</v>
       </c>
       <c r="Y96" s="3">
-        <v>-7500</v>
+        <v>-8400</v>
       </c>
       <c r="Z96" s="3">
         <v>-7500</v>
@@ -7029,10 +7263,13 @@
         <v>-7500</v>
       </c>
       <c r="AB96" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7111,8 +7348,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7191,8 +7431,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7271,244 +7514,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E100" s="3">
         <v>76900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>282100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-37100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-14900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-34300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-49400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-68900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-15300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>65800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-10800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-59800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-44300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-31300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-73400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-44100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>240300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-18200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>3600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-13000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>21800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>73600</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-16500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-12800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>11300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>8000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-5500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>4100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-8500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-336000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>347300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-213000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>74000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>44600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-110200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>45600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-10000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>31300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>89400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>55100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-13100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-8500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>90100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-17200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>56800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>50900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>43900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>80600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>15000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,370 +665,383 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44562</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44464</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44282</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>609800</v>
+      </c>
+      <c r="E8" s="3">
         <v>613300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>658900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>618400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>623300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>553100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>539600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>523500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>463800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>400700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>391600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>307300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>346100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>338500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>362000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>397900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>405500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>402300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>439200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>459200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>417800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>304800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>317900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>313400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>285400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>284500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>364800</v>
+      </c>
+      <c r="E9" s="3">
         <v>384700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>402100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>355500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>364700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>353600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>325000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>326100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>303300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>262600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>252700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>207400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>221700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>220200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>231000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>256100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>250300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>247900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>259600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>290200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>268200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>178200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>184200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>180700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>171800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>170200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>166600</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>245000</v>
+      </c>
+      <c r="E10" s="3">
         <v>228600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>256800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>262900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>258600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>199500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>214600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>197400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>160500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>138100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>138900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>99900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>124400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>118300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>131000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>141800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>155200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>154400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>179600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>169000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>149600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>126600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>133700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>132700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>113600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>114300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1058,91 +1071,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E12" s="3">
         <v>26800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>23500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>19600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>19000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>15800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>16400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>13000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>13200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>14500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>17400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>19700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>21500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>21400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>21600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>20500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>22700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>22500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>13600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>12000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>12700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>12200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>11300</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1224,52 +1241,55 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E14" s="3">
         <v>9000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>9600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>69500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2100</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
@@ -1277,11 +1297,11 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
@@ -1289,109 +1309,115 @@
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>10</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
+      <c r="AB14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E15" s="3">
         <v>15800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>15600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>11600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>12700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>11100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>10400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>10600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10500</v>
-      </c>
-      <c r="L15" s="3">
-        <v>10100</v>
       </c>
       <c r="M15" s="3">
         <v>10100</v>
       </c>
       <c r="N15" s="3">
+        <v>10100</v>
+      </c>
+      <c r="O15" s="3">
         <v>9800</v>
-      </c>
-      <c r="O15" s="3">
-        <v>10000</v>
       </c>
       <c r="P15" s="3">
         <v>10000</v>
       </c>
       <c r="Q15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="R15" s="3">
         <v>9800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>10100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>10200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>13700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>13100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>13400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>12000</v>
-      </c>
-      <c r="X15" s="3">
-        <v>6300</v>
       </c>
       <c r="Y15" s="3">
         <v>6300</v>
       </c>
       <c r="Z15" s="3">
+        <v>6300</v>
+      </c>
+      <c r="AA15" s="3">
         <v>6200</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>5900</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>6000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1418,174 +1444,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>499100</v>
+      </c>
+      <c r="E17" s="3">
         <v>519500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>537000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>484300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>472700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>460300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>419500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>427700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>387300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>335700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>327000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>319300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>301300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>306200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>314800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>345200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>344800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>350700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>363000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>399600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>380200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>254100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>259300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>253100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>236600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>243500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>252800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>110700</v>
+      </c>
+      <c r="E18" s="3">
         <v>93800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>121900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>134100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>150600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>92800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>120100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>95800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>76500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>65000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>64600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>44800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>32300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>47200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>52700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>60700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>51600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>76200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>59600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>37600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>50700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>58600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>60300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>48800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>41000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1615,191 +1648,198 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E20" s="3">
         <v>18700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-17500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-20100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-12100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-28700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>6500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-8500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>12500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-6900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E21" s="3">
         <v>145000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>137000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>141300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>166700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>89700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>142800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>124000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>101600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>98000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>96700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>19000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>64700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>53400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>70100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>81800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>75400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>72500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>100200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>84300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>73700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>63600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>74900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>76300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>65600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>49000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E22" s="3">
         <v>9100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4600</v>
       </c>
       <c r="I22" s="3">
         <v>4600</v>
@@ -1808,230 +1848,239 @@
         <v>4600</v>
       </c>
       <c r="K22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L22" s="3">
         <v>4700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5900</v>
-      </c>
-      <c r="O22" s="3">
-        <v>5400</v>
       </c>
       <c r="P22" s="3">
         <v>5400</v>
       </c>
       <c r="Q22" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="R22" s="3">
         <v>5600</v>
       </c>
       <c r="S22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="T22" s="3">
         <v>5700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5600</v>
-      </c>
-      <c r="U22" s="3">
-        <v>5800</v>
       </c>
       <c r="V22" s="3">
         <v>5800</v>
       </c>
       <c r="W22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="X22" s="3">
         <v>5400</v>
-      </c>
-      <c r="X22" s="3">
-        <v>3500</v>
       </c>
       <c r="Y22" s="3">
         <v>3500</v>
       </c>
       <c r="Z22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="AA22" s="3">
         <v>3300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>3100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>2300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>108900</v>
+      </c>
+      <c r="E23" s="3">
         <v>103300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>96000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>109600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>134100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>59500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>113600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>95200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>72700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>68900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>67400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>35500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>24500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>41400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>53600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>46400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>39800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>68200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>52300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>44600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>43700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>55500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>57400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>47400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>31800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E24" s="3">
         <v>10000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>20500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>22600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>16600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>21500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>13100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>15000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>14700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>10000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>8600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>7500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>12700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>8700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>8500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>4500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2113,174 +2162,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E26" s="3">
         <v>93300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>75500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>87000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>117500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>51900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>92100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>82100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>57700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>59000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>55400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>24600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>22700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>35600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>43800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>37000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>35900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>53500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>42300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>36000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>36200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>42800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>48600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>38900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>27200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E27" s="3">
         <v>93300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>75500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>87000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>117500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>51900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>92100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>82100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>57700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>59000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>55400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>24600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>22700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>35600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>43800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>37000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>35900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>53500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>42300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>36000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>36200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>42800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>48600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>38900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>27200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2362,8 +2420,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2397,8 +2458,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
@@ -2415,11 +2476,11 @@
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U29" s="3">
         <v>-3200</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>10</v>
@@ -2427,11 +2488,11 @@
       <c r="W29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-47000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>10</v>
@@ -2445,8 +2506,11 @@
       <c r="AC29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2528,8 +2592,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2611,174 +2678,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-18700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>17500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>20100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>12100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>28700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-6500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>8500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-12500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>6900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E33" s="3">
         <v>93300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>75500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>87000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>117500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>51900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>92100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>82100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>57700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>59000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>55400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>24600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>22700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>35600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>43800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>37000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>32700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>53500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>42300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>36000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-10800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>42800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>48600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>38900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>27200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2860,179 +2936,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E35" s="3">
         <v>93300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>75500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>87000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>117500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>51900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>92100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>82100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>57700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>59000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>55400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>24600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>22700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>35600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>43800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>37000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>32700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>53500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>42300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>36000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-10800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>42800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>48600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>38900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>27200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44562</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44464</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44282</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3062,8 +3147,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3093,91 +3179,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>425100</v>
+      </c>
+      <c r="E41" s="3">
         <v>562600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>474000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>809100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>461600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>478500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>690700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>616300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>572800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>687500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>641900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>651900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>620600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>531100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>476100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>474800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>476600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>489700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>498200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>408100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>412500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>429700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>372800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>321900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>278000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>275100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3188,7 +3278,7 @@
         <v>100</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -3203,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L42" s="3">
         <v>100</v>
@@ -3212,7 +3302,7 @@
         <v>100</v>
       </c>
       <c r="N42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -3254,594 +3344,618 @@
         <v>0</v>
       </c>
       <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
         <v>3700</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>330400</v>
+      </c>
+      <c r="E43" s="3">
         <v>313800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>345600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>348200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>321000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>277200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>328400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>317300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>280800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>235800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>233100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>187300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>212200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>207100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>229100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>247100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>238600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>235200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>258400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>265100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>248800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>184400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>204200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>205700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>224900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>385800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>219600</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>559800</v>
+      </c>
+      <c r="E44" s="3">
         <v>547700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>536000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>496200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>470600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>445700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>357000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>325800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>295100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>258000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>243800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>248000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>227300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>237500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>240100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>254300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>261700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>258200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>247300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>239200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>264000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>140800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>136500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>125200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>118300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>114100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>86100</v>
+      </c>
+      <c r="E45" s="3">
         <v>87600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>75600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>65300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>65000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>68800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>59800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>59500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>43700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>35900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>30000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>31900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>32400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>28600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>62400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>63300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>53200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>49300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>48700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>45700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>47800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>37500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>45800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>51900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>13000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>31500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1401600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1511800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1431300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1718800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1318200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1270200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1435900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1318900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1192400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1217300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1148900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1119200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1092500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1004400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1007600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1039500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1030100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1032500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1052600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>958200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>973100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>792300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>759400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>704900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>634200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>612100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>555200</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E47" s="3">
         <v>24100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>23800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>25600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>34400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>39200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>39900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>39300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>37300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>30500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>26100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>23700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>21200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>24100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>26700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>25500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>24600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>25400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>29100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>31300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>31100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>11000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>10600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>11900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>11700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>13900</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>549000</v>
+      </c>
+      <c r="E48" s="3">
         <v>538500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>504400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>475400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>479600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>467500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>388700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>381300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>364500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>361800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>358700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>354300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>355400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>366500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>351400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>361800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>367100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>339900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>343900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>338800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>337200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>250600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>244900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>232500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>223900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>217200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>223900</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1920500</v>
+      </c>
+      <c r="E49" s="3">
         <v>1765300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1758400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1271900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1301000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1319300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1134800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1150600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1154700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1100400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1087900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1081500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1113400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1141800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1140100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1167600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1175900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1188200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1207500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1222300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1246000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>657300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>660700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>643000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>644400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>616600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>634100</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3923,8 +4037,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4006,8 +4123,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4015,82 +4135,85 @@
         <v>64100</v>
       </c>
       <c r="E52" s="3">
+        <v>64100</v>
+      </c>
+      <c r="F52" s="3">
         <v>60000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>52700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>59900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>55500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>39100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>37400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>38000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>37500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>32800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>32400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>30100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>23000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>25600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>27200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>27300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>28300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>30400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>37400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>40100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>28900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>26700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>29900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>29800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>31400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4172,91 +4295,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3961700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3903700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3777900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3544500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3193200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3151700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3038500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2927500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2786900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2747600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2654400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2611100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2612600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2559900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2551400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2621600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2625000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2614300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2663500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2588000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2627500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1740100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1702200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1622200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1544000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1491200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1458100</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4286,8 +4415,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4317,120 +4447,124 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>191300</v>
+      </c>
+      <c r="E57" s="3">
         <v>208600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>219400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>219800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>212600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>222000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>221900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>205100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>179700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>146000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>120900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>113800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>106800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>117300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>107200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>123100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>129100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>126300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>129900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>127300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>120800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>101800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>103800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>100800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>88400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>90700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>81400</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>137900</v>
+      </c>
+      <c r="E58" s="3">
         <v>134900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7500</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>25000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>27600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>25000</v>
       </c>
       <c r="K58" s="3">
         <v>25000</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -4439,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>10000</v>
@@ -4457,7 +4591,7 @@
         <v>10000</v>
       </c>
       <c r="U58" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="V58" s="3">
         <v>10100</v>
@@ -4466,16 +4600,16 @@
         <v>10100</v>
       </c>
       <c r="X58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="Y58" s="3">
         <v>6300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>9400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>7800</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>6300</v>
       </c>
       <c r="AB58" s="3">
         <v>6300</v>
@@ -4483,340 +4617,355 @@
       <c r="AC58" s="3">
         <v>6300</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>190400</v>
+      </c>
+      <c r="E59" s="3">
         <v>228900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>219100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>171500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>152700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>187600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>172100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>151600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>121800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>129700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>113700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>95400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>91400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>98200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>131500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>133400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>130500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>159000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>163900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>129800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>133500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>116700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>112900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>93600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>82600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>90600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>100300</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>519600</v>
+      </c>
+      <c r="E60" s="3">
         <v>572300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>448800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>398800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>365300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>434600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>421600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>381700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>326500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>275600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>234600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>209200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>208200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>225600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>248700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>266400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>269600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>295300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>303900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>267200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>264400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>224800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>226200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>202200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>177200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>187500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>187900</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>866900</v>
+      </c>
+      <c r="E61" s="3">
         <v>866600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>975600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>884600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>606700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>611900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>620100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>626900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>623900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>687000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>725500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>776200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>764200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>669200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>668200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>676900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>676500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>684700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>690600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>687500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>743400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>489400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>492300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>473900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>464300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>447900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>434200</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>267700</v>
+      </c>
+      <c r="E62" s="3">
         <v>253400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>264600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>209200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>220400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>211700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>175400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>176700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>175700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>176100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>164700</v>
-      </c>
-      <c r="N62" s="3">
-        <v>163300</v>
       </c>
       <c r="O62" s="3">
         <v>163300</v>
       </c>
       <c r="P62" s="3">
+        <v>163300</v>
+      </c>
+      <c r="Q62" s="3">
         <v>169200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>162200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>168300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>173600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>156000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>149600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>163300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>177700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>98400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>50500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>50700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>46800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>40800</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4898,8 +5047,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4981,8 +5133,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5064,91 +5219,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1654500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1692500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1689200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1492700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1192600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1258300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1217300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1185400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1126300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1139000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1124900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1148800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1135800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1064000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1079300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1111800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1119800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1136100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1144200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1118100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1185700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>812700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>769100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>726900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>688400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>676400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>654700</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5178,8 +5339,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5261,8 +5423,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5344,8 +5509,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5427,8 +5595,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5510,91 +5681,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1659300</v>
+      </c>
+      <c r="E72" s="3">
         <v>1585500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1507000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1446500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1372600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1268100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1229300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1150300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1080000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1034000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>986800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>943200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>963800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>950900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>939900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>916000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>882900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>856500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>834600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>791800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>758800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>722100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>741400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>707000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>665800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>634400</v>
       </c>
-      <c r="AC72" s="3" t="s">
+      <c r="AD72" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5676,8 +5853,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5759,8 +5939,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5842,91 +6025,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2307200</v>
+      </c>
+      <c r="E76" s="3">
         <v>2211200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2088700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2051800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2000500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1893400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1821300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1742100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1660600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1608600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1529400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1462300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1476800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1495900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1472100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1509800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1505300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1478200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1519300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1469900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1441800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>927400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>933100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>895300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>855600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>814800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>803400</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6008,179 +6197,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44562</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44464</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44282</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E81" s="3">
         <v>93300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>75500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>87000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>117500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>51900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>92100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>82100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>57700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>59000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>55400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>24600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>22700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>35600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>43800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>37000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>32700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>53500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>42300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>36000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-10800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>42800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>48600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>38900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>27200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6210,91 +6408,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E83" s="3">
         <v>32500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>32600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>27300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>28300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>25600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>24600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>24200</v>
       </c>
       <c r="K83" s="3">
         <v>24200</v>
       </c>
       <c r="L83" s="3">
-        <v>24300</v>
+        <v>24200</v>
       </c>
       <c r="M83" s="3">
         <v>24300</v>
       </c>
       <c r="N83" s="3">
+        <v>24300</v>
+      </c>
+      <c r="O83" s="3">
         <v>23700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>23800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>23400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>23100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>22700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>23300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>27100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>26300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>26200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>23600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>16400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>15900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>15600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>15100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>14900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6376,8 +6578,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6459,8 +6664,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6542,8 +6750,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6625,8 +6836,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6708,91 +6922,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E89" s="3">
         <v>106300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>148100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>113600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>51700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>132700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>114300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>76200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>50200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>93800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>63000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>56000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>45300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>84500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>80800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>49200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>30900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>79700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>111200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>71600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>69300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>87900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>87700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>70600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>22900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>80100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6822,91 +7042,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-26600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-21600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-26300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-29800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-33000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-24900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-17900</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-14700</v>
       </c>
       <c r="L91" s="3">
         <v>-14700</v>
       </c>
       <c r="M91" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="N91" s="3">
         <v>-12100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-23500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-14100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-18800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-15600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-22400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-17900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-17500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-20200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-15900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-12400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-11700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6988,8 +7212,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7071,91 +7298,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-183200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-26400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-544600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-35600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-29800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-333500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-25700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-17900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-122000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-23500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-13100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-14200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-13700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-17800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-26400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-324400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-16900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-43100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-14000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-22100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-12800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-124300</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7185,8 +7418,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7197,7 +7431,7 @@
         <v>-14900</v>
       </c>
       <c r="F96" s="3">
-        <v>-13100</v>
+        <v>-14900</v>
       </c>
       <c r="G96" s="3">
         <v>-13100</v>
@@ -7209,13 +7443,13 @@
         <v>-13100</v>
       </c>
       <c r="J96" s="3">
-        <v>-11800</v>
+        <v>-13100</v>
       </c>
       <c r="K96" s="3">
         <v>-11800</v>
       </c>
       <c r="L96" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="M96" s="3">
         <v>-11700</v>
@@ -7233,31 +7467,31 @@
         <v>-11700</v>
       </c>
       <c r="R96" s="3">
-        <v>-10600</v>
+        <v>-11700</v>
       </c>
       <c r="S96" s="3">
         <v>-10600</v>
       </c>
       <c r="T96" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="U96" s="3">
         <v>-10700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-10800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-9300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-9200</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-8400</v>
       </c>
       <c r="Y96" s="3">
         <v>-8400</v>
       </c>
       <c r="Z96" s="3">
-        <v>-7500</v>
+        <v>-8400</v>
       </c>
       <c r="AA96" s="3">
         <v>-7500</v>
@@ -7266,10 +7500,13 @@
         <v>-7500</v>
       </c>
       <c r="AC96" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7351,8 +7588,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7434,8 +7674,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7517,253 +7760,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>76900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>282100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-37100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-11700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-14900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-34300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-49400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-68900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-15300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>65800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-59800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-44300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-31300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-73400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-44100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>240300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-18200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>3600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-13000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>2900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>21800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>73600</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E101" s="3">
         <v>20500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-16500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-12800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>11300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>8000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-6500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-5500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>4100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-900</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-8500</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-137400</v>
+      </c>
+      <c r="E102" s="3">
         <v>88700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-336000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>347300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-17900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-213000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>74000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>44600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-110200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>45600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-10000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>31300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>89400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>55100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-13100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-8500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>90100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-17200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>56800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>50900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>43900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>2900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>80600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>15000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,383 +665,395 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44464</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44282</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44191</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>612000</v>
+      </c>
+      <c r="E8" s="3">
         <v>609800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>613300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>658900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>618400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>623300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>553100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>539600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>523500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>463800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>400700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>391600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>307300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>346100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>338500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>362000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>397900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>405500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>402300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>439200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>459200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>417800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>304800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>317900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>313400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>285400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>284500</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>377200</v>
+      </c>
+      <c r="E9" s="3">
         <v>364800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>384700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>402100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>355500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>364700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>353600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>325000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>326100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>303300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>262600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>252700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>207400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>221700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>220200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>231000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>256100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>250300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>247900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>259600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>290200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>268200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>178200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>184200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>180700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>171800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>170200</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>166600</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>234800</v>
+      </c>
+      <c r="E10" s="3">
         <v>245000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>228600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>256800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>262900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>258600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>199500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>214600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>197400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>160500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>138100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>138900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>99900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>124400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>118300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>131000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>141800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>155200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>154400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>179600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>169000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>149600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>126600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>133700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>132700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>113600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>114300</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1072,94 +1084,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E12" s="3">
         <v>27300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>26800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>23500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>19600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>19000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>15800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>13000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>13200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>14500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>17400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>19700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>21500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>21400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>21600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>20500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>22700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>22500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>13600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>12000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>12700</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>12200</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>11300</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1244,55 +1260,58 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E14" s="3">
         <v>5200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>9000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>9600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>69500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2100</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1300,11 +1319,11 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
@@ -1312,26 +1331,29 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>10</v>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
+      <c r="AC14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1339,85 +1361,88 @@
         <v>16900</v>
       </c>
       <c r="E15" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F15" s="3">
         <v>15800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>15600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>11600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>12700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>11100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>10400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10500</v>
-      </c>
-      <c r="M15" s="3">
-        <v>10100</v>
       </c>
       <c r="N15" s="3">
         <v>10100</v>
       </c>
       <c r="O15" s="3">
+        <v>10100</v>
+      </c>
+      <c r="P15" s="3">
         <v>9800</v>
-      </c>
-      <c r="P15" s="3">
-        <v>10000</v>
       </c>
       <c r="Q15" s="3">
         <v>10000</v>
       </c>
       <c r="R15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="S15" s="3">
         <v>9800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>10100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>10200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>13700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>13100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>13400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>12000</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>6300</v>
       </c>
       <c r="Z15" s="3">
         <v>6300</v>
       </c>
       <c r="AA15" s="3">
+        <v>6300</v>
+      </c>
+      <c r="AB15" s="3">
         <v>6200</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>5900</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>6000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1445,180 +1470,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>519900</v>
+      </c>
+      <c r="E17" s="3">
         <v>499100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>519500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>537000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>484300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>472700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>460300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>419500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>427700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>387300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>335700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>327000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>319300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>301300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>306200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>314800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>345200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>344800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>350700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>363000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>399600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>380200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>254100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>259300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>253100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>236600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>243500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>252800</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>92100</v>
+      </c>
+      <c r="E18" s="3">
         <v>110700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>93800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>121900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>134100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>150600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>92800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>120100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>95800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>76500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>65000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>64600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-12000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>44800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>32300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>47200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>52700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>60700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>51600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>76200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>59600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>37600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>50700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>58600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>60300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>48800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>41000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1649,200 +1681,207 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E20" s="3">
         <v>7900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>18700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-17500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-20100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-12100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-28700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>6500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-8500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-6300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>12500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-6900</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>130400</v>
+      </c>
+      <c r="E21" s="3">
         <v>153000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>145000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>137000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>141300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>166700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>89700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>142800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>124000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>101600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>98000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>96700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>19000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>64700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>53400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>70100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>81800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>75400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>72500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>100200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>84300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>73700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>63600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>74900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>76300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>65600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>49000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E22" s="3">
         <v>9600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>4600</v>
       </c>
       <c r="J22" s="3">
         <v>4600</v>
@@ -1851,236 +1890,245 @@
         <v>4600</v>
       </c>
       <c r="L22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M22" s="3">
         <v>4700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5900</v>
-      </c>
-      <c r="P22" s="3">
-        <v>5400</v>
       </c>
       <c r="Q22" s="3">
         <v>5400</v>
       </c>
       <c r="R22" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="S22" s="3">
         <v>5600</v>
       </c>
       <c r="T22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="U22" s="3">
         <v>5700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5600</v>
-      </c>
-      <c r="V22" s="3">
-        <v>5800</v>
       </c>
       <c r="W22" s="3">
         <v>5800</v>
       </c>
       <c r="X22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="Y22" s="3">
         <v>5400</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>3500</v>
       </c>
       <c r="Z22" s="3">
         <v>3500</v>
       </c>
       <c r="AA22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="AB22" s="3">
         <v>3300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>3100</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>2300</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>85500</v>
+      </c>
+      <c r="E23" s="3">
         <v>108900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>103300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>96000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>109600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>134100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>59500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>113600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>95200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>72700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>68900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>67400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>35500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>24500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>41400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>53600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>46400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>39800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>68200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>52300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>44600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>43700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>55500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>57400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>47400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>31800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E24" s="3">
         <v>20200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>20500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>22600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>16600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>21500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>15000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>9500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>14700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>10000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>8600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>7500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>12700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>8700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>8500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>4500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2165,180 +2213,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E26" s="3">
         <v>88700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>93300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>75500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>87000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>117500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>51900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>92100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>82100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>57700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>59000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>55400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>24600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>22700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>35600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>43800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>37000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>35900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>53500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>42300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>36000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>36200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>42800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>48600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>38900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>27200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E27" s="3">
         <v>88700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>93300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>75500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>87000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>117500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>51900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>92100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>82100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>57700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>59000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>55400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>24600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>22700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>35600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>43800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>37000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>35900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>53500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>42300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>36000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>36200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>42800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>48600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>38900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>27200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2423,8 +2480,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2461,8 +2521,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
@@ -2479,11 +2539,11 @@
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V29" s="3">
         <v>-3200</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>10</v>
@@ -2491,11 +2551,11 @@
       <c r="X29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-47000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>10</v>
@@ -2509,8 +2569,11 @@
       <c r="AD29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2595,8 +2658,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2681,180 +2747,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-18700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>17500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>20100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>12100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>28700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-6500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>8500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>6300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-12500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-1700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>6900</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E33" s="3">
         <v>88700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>93300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>75500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>87000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>117500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>51900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>92100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>82100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>57700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>59000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>55400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>24600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>22700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>35600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>43800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>37000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>32700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>53500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>42300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>36000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-10800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>42800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>48600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>38900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>27200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2939,185 +3014,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E35" s="3">
         <v>88700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>93300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>75500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>87000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>117500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>51900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>92100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>82100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>57700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>59000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>55400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>24600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>22700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>35600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>43800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>37000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>32700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>53500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>42300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>36000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-10800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>42800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>48600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>38900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>27200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44464</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44282</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44191</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3148,8 +3232,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3180,94 +3265,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>480700</v>
+      </c>
+      <c r="E41" s="3">
         <v>425100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>562600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>474000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>809100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>461600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>478500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>690700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>616300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>572800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>687500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>641900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>651900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>620600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>531100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>476100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>474800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>476600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>489700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>498200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>408100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>412500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>429700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>372800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>321900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>278000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>275100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3281,7 +3370,7 @@
         <v>100</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -3296,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M42" s="3">
         <v>100</v>
@@ -3305,7 +3394,7 @@
         <v>100</v>
       </c>
       <c r="O42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -3347,615 +3436,639 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
         <v>3700</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>343000</v>
+      </c>
+      <c r="E43" s="3">
         <v>330400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>313800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>345600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>348200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>321000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>277200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>328400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>317300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>280800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>235800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>233100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>187300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>212200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>207100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>229100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>247100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>238600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>235200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>258400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>265100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>248800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>184400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>204200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>205700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>224900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>385800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>219600</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>527200</v>
+      </c>
+      <c r="E44" s="3">
         <v>559800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>547700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>536000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>496200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>470600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>445700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>357000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>325800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>295100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>258000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>243800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>248000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>227300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>237500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>240100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>254300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>261700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>258200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>247300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>239200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>264000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>140800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>136500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>125200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>118300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>114100</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>90300</v>
+      </c>
+      <c r="E45" s="3">
         <v>86100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>87600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>75600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>65300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>65000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>68800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>59800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>59500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>43700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>35900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>30000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>31900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>32400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>28600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>62400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>63300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>53200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>49300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>48700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>45700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>47800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>37500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>45800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>51900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>13000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>31500</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1441300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1401600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1511800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1431300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1718800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1318200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1270200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1435900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1318900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1192400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1217300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1148900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1119200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1092500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1004400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1007600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1039500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1030100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1032500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1052600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>958200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>973100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>792300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>759400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>704900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>634200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>612100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>555200</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E47" s="3">
         <v>26600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>24100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>23800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>25600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>34400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>39200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>39900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>39300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>37300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>30500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>26100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>23700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>21200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>24100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>26700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>25500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>24600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>25400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>29100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>31300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>31100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>11000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>10600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>11900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>11700</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>13900</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>537900</v>
+      </c>
+      <c r="E48" s="3">
         <v>549000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>538500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>504400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>475400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>479600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>467500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>388700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>381300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>364500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>361800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>358700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>354300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>355400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>366500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>351400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>361800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>367100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>339900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>343900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>338800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>337200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>250600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>244900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>232500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>223900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>217200</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>223900</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1902700</v>
+      </c>
+      <c r="E49" s="3">
         <v>1920500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1765300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1758400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1271900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1301000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1319300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1134800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1150600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1154700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1100400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1087900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1081500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1113400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1141800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1140100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1167600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1175900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1188200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1207500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1222300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1246000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>657300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>660700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>643000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>644400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>616600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>634100</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4040,8 +4153,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4126,94 +4242,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>64100</v>
+        <v>68500</v>
       </c>
       <c r="E52" s="3">
         <v>64100</v>
       </c>
       <c r="F52" s="3">
+        <v>64100</v>
+      </c>
+      <c r="G52" s="3">
         <v>60000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>52700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>59900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>55500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>39100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>37400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>38000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>37500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>32800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>32400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>30100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>23000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>25600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>27200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>27300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>28300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>30400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>37400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>40100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>28900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>26700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>29900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>29800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>31400</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4298,94 +4420,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3975700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3961700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3903700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3777900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3544500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3193200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3151700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3038500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2927500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2786900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2747600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2654400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2611100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2612600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2559900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2551400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2621600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2625000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2614300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2663500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2588000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2627500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1740100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1702200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1622200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1544000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1491200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1458100</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4416,8 +4544,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4448,126 +4577,130 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>173400</v>
+      </c>
+      <c r="E57" s="3">
         <v>191300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>208600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>219400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>219800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>212600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>222000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>221900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>205100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>179700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>146000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>120900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>113800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>106800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>117300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>107200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>123100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>129100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>126300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>129900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>127300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>120800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>101800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>103800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>100800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>88400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>90700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>81400</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>137400</v>
+      </c>
+      <c r="E58" s="3">
         <v>137900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>134900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7500</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>25000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>27600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>25000</v>
       </c>
       <c r="L58" s="3">
         <v>25000</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -4576,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>10000</v>
@@ -4594,7 +4727,7 @@
         <v>10000</v>
       </c>
       <c r="V58" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="W58" s="3">
         <v>10100</v>
@@ -4603,16 +4736,16 @@
         <v>10100</v>
       </c>
       <c r="Y58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="Z58" s="3">
         <v>6300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>9400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>7800</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>6300</v>
       </c>
       <c r="AC58" s="3">
         <v>6300</v>
@@ -4620,352 +4753,367 @@
       <c r="AD58" s="3">
         <v>6300</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>184900</v>
+      </c>
+      <c r="E59" s="3">
         <v>190400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>228900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>219100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>171500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>152700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>187600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>172100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>151600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>121800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>129700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>113700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>95400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>91400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>98200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>131500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>133400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>130500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>159000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>163900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>129800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>133500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>116700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>112900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>93600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>82600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>90600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>100300</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>495700</v>
+      </c>
+      <c r="E60" s="3">
         <v>519600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>572300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>448800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>398800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>365300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>434600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>421600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>381700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>326500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>275600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>234600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>209200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>208200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>225600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>248700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>266400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>269600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>295300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>303900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>267200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>264400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>224800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>226200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>202200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>177200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>187500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>187900</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>864200</v>
+      </c>
+      <c r="E61" s="3">
         <v>866900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>866600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>975600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>884600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>606700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>611900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>620100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>626900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>623900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>687000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>725500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>776200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>764200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>669200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>668200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>676900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>676500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>684700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>690600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>687500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>743400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>489400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>492300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>473900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>464300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>447900</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>434200</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>258600</v>
+      </c>
+      <c r="E62" s="3">
         <v>267700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>253400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>264600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>209200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>220400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>211700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>175400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>176700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>175700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>176100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>164700</v>
-      </c>
-      <c r="O62" s="3">
-        <v>163300</v>
       </c>
       <c r="P62" s="3">
         <v>163300</v>
       </c>
       <c r="Q62" s="3">
+        <v>163300</v>
+      </c>
+      <c r="R62" s="3">
         <v>169200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>162200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>168300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>173600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>156000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>149600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>163300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>177700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>98400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>50500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>50700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>46800</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>40800</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5050,8 +5198,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5136,8 +5287,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5222,94 +5376,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1618800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1654500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1692500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1689200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1492700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1192600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1258300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1217300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1185400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1126300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1139000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1124900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1148800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1135800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1064000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1079300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1111800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1119800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1136100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1144200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1118100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1185700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>812700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>769100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>726900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>688400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>676400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>654700</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5340,8 +5500,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5426,8 +5587,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5512,8 +5676,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5598,8 +5765,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5684,94 +5854,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1714400</v>
+      </c>
+      <c r="E72" s="3">
         <v>1659300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1585500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1507000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1446500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1372600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1268100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1229300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1150300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1080000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1034000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>986800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>943200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>963800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>950900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>939900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>916000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>882900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>856500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>834600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>791800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>758800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>722100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>741400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>707000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>665800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>634400</v>
       </c>
-      <c r="AD72" s="3" t="s">
+      <c r="AE72" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5856,8 +6032,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5942,8 +6121,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6028,94 +6210,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2357000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2307200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2211200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2088700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2051800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2000500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1893400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1821300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1742100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1660600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1608600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1529400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1462300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1476800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1495900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1472100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1509800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1505300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1478200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1519300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1469900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1441800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>927400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>933100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>895300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>855600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>814800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>803400</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6200,185 +6388,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44464</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44282</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44191</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E81" s="3">
         <v>88700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>93300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>75500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>87000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>117500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>51900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>92100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>82100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>57700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>59000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>55400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>24600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>22700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>35600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>43800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>37000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>32700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>53500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>42300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>36000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-10800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>42800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>48600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>38900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>27200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6409,94 +6606,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E83" s="3">
         <v>34500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>32500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>32600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>27300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>28300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>25600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>24600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>24200</v>
       </c>
       <c r="L83" s="3">
         <v>24200</v>
       </c>
       <c r="M83" s="3">
-        <v>24300</v>
+        <v>24200</v>
       </c>
       <c r="N83" s="3">
         <v>24300</v>
       </c>
       <c r="O83" s="3">
+        <v>24300</v>
+      </c>
+      <c r="P83" s="3">
         <v>23700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>23800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>23400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>23100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>22700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>23300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>27100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>26300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>26200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>23600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>16400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>15900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>15600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>15100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>14900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6581,8 +6782,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6667,8 +6871,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6753,8 +6960,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6839,8 +7049,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6925,94 +7138,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>98200</v>
+      </c>
+      <c r="E89" s="3">
         <v>53400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>106300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>148100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>113600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>51700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>132700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>114300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>76200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>50200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>93800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>63000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>56000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>45300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>84500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>80800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>49200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>30900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>79700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>111200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>71600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>69300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>87900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>87700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>70600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>22900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>80100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7043,94 +7262,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-26600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-21600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-26300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-29800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-33000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-24900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-17900</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-14700</v>
       </c>
       <c r="M91" s="3">
         <v>-14700</v>
       </c>
       <c r="N91" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="O91" s="3">
         <v>-12100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-12900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-23500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-13100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-14100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-18800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-15600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-22400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-17900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-17500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-20200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-15900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-12400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-11700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7215,8 +7438,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7301,94 +7527,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-183200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-544600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-35600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-29800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-333500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-25700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-17900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-122000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-23500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-13100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-14200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-13700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-17800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-26400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-324400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-16900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-43100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-14000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-22100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-12800</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-124300</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7419,8 +7651,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7434,7 +7667,7 @@
         <v>-14900</v>
       </c>
       <c r="G96" s="3">
-        <v>-13100</v>
+        <v>-14900</v>
       </c>
       <c r="H96" s="3">
         <v>-13100</v>
@@ -7446,13 +7679,13 @@
         <v>-13100</v>
       </c>
       <c r="K96" s="3">
-        <v>-11800</v>
+        <v>-13100</v>
       </c>
       <c r="L96" s="3">
         <v>-11800</v>
       </c>
       <c r="M96" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="N96" s="3">
         <v>-11700</v>
@@ -7470,31 +7703,31 @@
         <v>-11700</v>
       </c>
       <c r="S96" s="3">
-        <v>-10600</v>
+        <v>-11700</v>
       </c>
       <c r="T96" s="3">
         <v>-10600</v>
       </c>
       <c r="U96" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="V96" s="3">
         <v>-10700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-10800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-9300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-9200</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-8400</v>
       </c>
       <c r="Z96" s="3">
         <v>-8400</v>
       </c>
       <c r="AA96" s="3">
-        <v>-7500</v>
+        <v>-8400</v>
       </c>
       <c r="AB96" s="3">
         <v>-7500</v>
@@ -7503,10 +7736,13 @@
         <v>-7500</v>
       </c>
       <c r="AD96" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7591,8 +7827,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7677,8 +7916,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7763,262 +8005,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-12200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>76900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>282100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-37100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-14900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-34300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-49400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-68900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-15300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>65800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-10800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-59800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-44300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-31300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-73400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-44100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>240300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-18200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>3600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-13000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>2900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>21800</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>73600</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E101" s="3">
         <v>4600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>20500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-16500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-12800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>11300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>8000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-6500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-5500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>4100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>2700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-900</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-8500</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-137400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>88700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-336000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>347300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-17900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-213000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>74000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>44600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-110200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>45600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-10000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>31300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>89400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>55100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-13100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-8500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>90100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-4300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-17200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>56800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>50900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>43900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>2900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>80600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>15000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LFUS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,395 +665,408 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44562</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44464</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44282</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>607100</v>
+      </c>
+      <c r="E8" s="3">
         <v>612000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>609800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>613300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>658900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>618400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>623300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>553100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>539600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>523500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>463800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>400700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>391600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>307300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>346100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>338500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>362000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>397900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>405500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>402300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>439200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>459200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>417800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>304800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>317900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>313400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>285400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>284500</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>380200</v>
+      </c>
+      <c r="E9" s="3">
         <v>377200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>364800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>384700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>402100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>355500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>364700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>353600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>325000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>326100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>303300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>262600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>252700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>207400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>221700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>220200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>231000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>256100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>250300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>247900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>259600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>290200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>268200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>178200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>184200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>180700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>171800</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>170200</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>166600</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>226900</v>
+      </c>
+      <c r="E10" s="3">
         <v>234800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>245000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>228600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>256800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>262900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>258600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>199500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>214600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>197400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>160500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>138100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>138900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>99900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>124400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>118300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>131000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>141800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>155200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>154400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>179600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>169000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>149600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>126600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>133700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>132700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>113600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>114300</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1085,97 +1098,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E12" s="3">
         <v>24500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>27300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>26800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>25800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>23500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>19600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>19000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>14700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>13000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>13200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>14500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>17400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>19700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>21500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>21400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>21600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>20500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>22700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>22500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>13600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>12000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>12700</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>12200</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>11300</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1263,58 +1280,61 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E14" s="3">
         <v>10800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>9000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>9600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>69500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2100</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1322,11 +1342,11 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
@@ -1334,115 +1354,121 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>10</v>
+      <c r="AB14" s="3">
+        <v>0</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
+      <c r="AD14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>16900</v>
+        <v>16000</v>
       </c>
       <c r="E15" s="3">
         <v>16900</v>
       </c>
       <c r="F15" s="3">
+        <v>16900</v>
+      </c>
+      <c r="G15" s="3">
         <v>15800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>15600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>11600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>12700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>11100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>10500</v>
-      </c>
-      <c r="N15" s="3">
-        <v>10100</v>
       </c>
       <c r="O15" s="3">
         <v>10100</v>
       </c>
       <c r="P15" s="3">
+        <v>10100</v>
+      </c>
+      <c r="Q15" s="3">
         <v>9800</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>10000</v>
       </c>
       <c r="R15" s="3">
         <v>10000</v>
       </c>
       <c r="S15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="T15" s="3">
         <v>9800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>10100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>10200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>13700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>13100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>13400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>12000</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>6300</v>
       </c>
       <c r="AA15" s="3">
         <v>6300</v>
       </c>
       <c r="AB15" s="3">
+        <v>6300</v>
+      </c>
+      <c r="AC15" s="3">
         <v>6200</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>5900</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>6000</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1471,186 +1497,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>513400</v>
+      </c>
+      <c r="E17" s="3">
         <v>519900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>499100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>519500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>537000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>484300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>472700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>460300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>419500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>427700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>387300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>335700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>327000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>319300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>301300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>306200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>314800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>345200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>344800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>350700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>363000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>399600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>380200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>254100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>259300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>253100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>236600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>243500</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>252800</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>93700</v>
+      </c>
+      <c r="E18" s="3">
         <v>92100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>110700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>93800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>121900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>134100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>150600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>92800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>120100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>95800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>76500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>65000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>64600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>44800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>32300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>47200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>52700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>60700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>51600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>76200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>59600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>37600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>50700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>58600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>60300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>48800</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>41000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1682,186 +1715,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E20" s="3">
         <v>3500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>18700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-17500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-20100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-12100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-28700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>6500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-8500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-6300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>12500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>1700</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-6900</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>119300</v>
+      </c>
+      <c r="E21" s="3">
         <v>130400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>153000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>145000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>137000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>141300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>166700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>89700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>142800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>124000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>101600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>98000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>96700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>19000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>64700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>53400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>70100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>81800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>75400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>72500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>100200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>84300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>73700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>63600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>74900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>76300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>65600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>49000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1869,22 +1909,22 @@
         <v>10100</v>
       </c>
       <c r="E22" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F22" s="3">
         <v>9600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>4600</v>
       </c>
       <c r="K22" s="3">
         <v>4600</v>
@@ -1893,242 +1933,251 @@
         <v>4600</v>
       </c>
       <c r="M22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="N22" s="3">
         <v>4700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5900</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>5400</v>
       </c>
       <c r="R22" s="3">
         <v>5400</v>
       </c>
       <c r="S22" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="T22" s="3">
         <v>5600</v>
       </c>
       <c r="U22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="V22" s="3">
         <v>5700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5600</v>
-      </c>
-      <c r="W22" s="3">
-        <v>5800</v>
       </c>
       <c r="X22" s="3">
         <v>5800</v>
       </c>
       <c r="Y22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="Z22" s="3">
         <v>5400</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>3500</v>
       </c>
       <c r="AA22" s="3">
         <v>3500</v>
       </c>
       <c r="AB22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="AC22" s="3">
         <v>3300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>3100</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>2300</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>75300</v>
+      </c>
+      <c r="E23" s="3">
         <v>85500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>108900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>103300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>96000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>109600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>134100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>59500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>113600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>95200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>72700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>68900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>67400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>35500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>24500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>41400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>53600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>46400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>39800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>68200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>52300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>44600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>43700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>55500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>57400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>47400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>31800</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E24" s="3">
         <v>15400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>20200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>20500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>22600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>16600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>21500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>13100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>15000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>9800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>9500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>14700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>10000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>8600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>7500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>12700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>8700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>8500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>4500</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2216,186 +2265,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E26" s="3">
         <v>70100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>88700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>93300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>75500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>87000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>117500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>51900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>92100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>82100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>57700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>59000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>55400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>24600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>22700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>35600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>43800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>37000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>35900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>53500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>42300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>36000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>36200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>42800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>48600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>38900</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>27200</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E27" s="3">
         <v>70100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>88700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>93300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>75500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>87000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>117500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>51900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>92100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>82100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>57700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>59000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>55400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>24600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>22700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>35600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>43800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>37000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>35900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>53500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>42300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>36000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>36200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>42800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>48600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>38900</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>27200</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2483,8 +2541,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2524,8 +2585,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
@@ -2542,11 +2603,11 @@
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W29" s="3">
         <v>-3200</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>10</v>
@@ -2554,11 +2615,11 @@
       <c r="Y29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-47000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>10</v>
@@ -2572,8 +2633,11 @@
       <c r="AE29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2661,8 +2725,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2750,186 +2817,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-18700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>17500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>20100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>12100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>28700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-6500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>8500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>6300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-12500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>3500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-1700</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>6900</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E33" s="3">
         <v>70100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>88700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>93300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>75500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>87000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>117500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>51900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>92100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>82100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>57700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>59000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>55400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>24600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>22700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>35600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>43800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>37000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>32700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>53500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>42300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>36000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-10800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>42800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>48600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>38900</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>27200</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3017,191 +3093,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E35" s="3">
         <v>70100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>88700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>93300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>75500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>87000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>117500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>51900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>92100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>82100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>57700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>59000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>55400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>24600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>22700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>35600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>43800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>37000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>32700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>53500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>42300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>36000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-10800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>42800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>48600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>38900</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>27200</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44562</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44464</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44282</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3233,8 +3318,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3266,102 +3352,106 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>560100</v>
+      </c>
+      <c r="E41" s="3">
         <v>480700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>425100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>562600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>474000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>809100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>461600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>478500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>690700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>616300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>572800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>687500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>641900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>651900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>620600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>531100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>476100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>474800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>476600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>489700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>498200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>408100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>412500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>429700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>372800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>321900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>278000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>275100</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E42" s="3">
         <v>100</v>
@@ -3373,7 +3463,7 @@
         <v>100</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -3388,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N42" s="3">
         <v>100</v>
@@ -3397,7 +3487,7 @@
         <v>100</v>
       </c>
       <c r="P42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -3439,636 +3529,660 @@
         <v>0</v>
       </c>
       <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
         <v>3700</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>331300</v>
+      </c>
+      <c r="E43" s="3">
         <v>343000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>330400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>313800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>345600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>348200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>321000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>277200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>328400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>317300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>280800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>235800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>233100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>187300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>212200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>207100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>229100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>247100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>238600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>235200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>258400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>265100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>248800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>184400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>204200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>205700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>224900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>385800</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>219600</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>483100</v>
+      </c>
+      <c r="E44" s="3">
         <v>527200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>559800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>547700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>536000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>496200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>470600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>445700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>357000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>325800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>295100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>258000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>243800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>248000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>227300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>237500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>240100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>254300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>261700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>258200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>247300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>239200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>264000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>140800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>136500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>125200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>118300</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>114100</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>83700</v>
+      </c>
+      <c r="E45" s="3">
         <v>90300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>86100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>87600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>75600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>65300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>65000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>68800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>59800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>59500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>43700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>35900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>30000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>31900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>32400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>28600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>62400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>63300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>53200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>49300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>48700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>45700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>47800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>37500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>45800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>51900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>13000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>31500</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1458300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1441300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1401600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1511800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1431300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1718800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1318200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1270200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1435900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1318900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1192400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1217300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1148900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1119200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1092500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1004400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1007600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1039500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1030100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1032500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1052600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>958200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>973100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>792300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>759400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>704900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>634200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>612100</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>555200</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E47" s="3">
         <v>25200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>26600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>24100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>23800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>25600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>34400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>39200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>39900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>39300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>37300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>30500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>26100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>23700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>21200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>24100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>26700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>25500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>24600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>25400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>29100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>31300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>31100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>11000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>10600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>11900</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>11700</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>13900</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>530700</v>
+      </c>
+      <c r="E48" s="3">
         <v>537900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>549000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>538500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>504400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>475400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>479600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>467500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>388700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>381300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>364500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>361800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>358700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>354300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>355400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>366500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>351400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>361800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>367100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>339900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>343900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>338800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>337200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>250600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>244900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>232500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>223900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>217200</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>223900</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1882200</v>
+      </c>
+      <c r="E49" s="3">
         <v>1902700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1920500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1765300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1758400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1271900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1301000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1319300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1134800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1150600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1154700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1100400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1087900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1081500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1113400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1141800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1140100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1167600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1175900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1188200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1207500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1222300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1246000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>657300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>660700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>643000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>644400</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>616600</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>634100</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4156,8 +4270,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4245,97 +4362,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>108400</v>
+      </c>
+      <c r="E52" s="3">
         <v>68500</v>
-      </c>
-      <c r="E52" s="3">
-        <v>64100</v>
       </c>
       <c r="F52" s="3">
         <v>64100</v>
       </c>
       <c r="G52" s="3">
+        <v>64100</v>
+      </c>
+      <c r="H52" s="3">
         <v>60000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>52700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>59900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>55500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>39100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>37400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>38000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>37500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>32800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>32400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>30100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>23000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>25600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>27200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>27300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>28300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>30400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>37400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>40100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>28900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>26700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>29900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>29800</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>31400</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4423,97 +4546,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4002900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3975700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3961700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3903700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3777900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3544500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3193200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3151700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3038500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2927500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2786900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2747600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2654400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2611100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2612600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2559900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2551400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2621600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2625000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2614300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2663500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2588000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2627500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1740100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1702200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1622200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1544000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1491200</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>1458100</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4545,8 +4674,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4578,132 +4708,136 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>166700</v>
+      </c>
+      <c r="E57" s="3">
         <v>173400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>191300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>208600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>219400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>219800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>212600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>222000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>221900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>205100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>179700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>146000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>120900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>113800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>106800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>117300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>107200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>123100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>129100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>126300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>129900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>127300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>120800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>101800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>103800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>100800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>88400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>90700</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>81400</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>135600</v>
+      </c>
+      <c r="E58" s="3">
         <v>137400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>137900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>134900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7500</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>25000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>27600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>25000</v>
       </c>
       <c r="M58" s="3">
         <v>25000</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -4712,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>10000</v>
@@ -4730,7 +4864,7 @@
         <v>10000</v>
       </c>
       <c r="W58" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="X58" s="3">
         <v>10100</v>
@@ -4739,16 +4873,16 @@
         <v>10100</v>
       </c>
       <c r="Z58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="AA58" s="3">
         <v>6300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>9400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>7800</v>
-      </c>
-      <c r="AC58" s="3">
-        <v>6300</v>
       </c>
       <c r="AD58" s="3">
         <v>6300</v>
@@ -4756,364 +4890,379 @@
       <c r="AE58" s="3">
         <v>6300</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>179300</v>
+      </c>
+      <c r="E59" s="3">
         <v>184900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>190400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>228900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>219100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>171500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>152700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>187600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>172100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>151600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>121800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>129700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>113700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>95400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>91400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>98200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>131500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>133400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>130500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>159000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>163900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>129800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>133500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>116700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>112900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>93600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>82600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>90600</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>100300</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>481600</v>
+      </c>
+      <c r="E60" s="3">
         <v>495700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>519600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>572300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>448800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>398800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>365300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>434600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>421600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>381700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>326500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>275600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>234600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>209200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>208200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>225600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>248700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>266400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>269600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>295300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>303900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>267200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>264400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>224800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>226200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>202200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>177200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>187500</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>187900</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>857000</v>
+      </c>
+      <c r="E61" s="3">
         <v>864200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>866900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>866600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>975600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>884600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>606700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>611900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>620100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>626900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>623900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>687000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>725500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>776200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>764200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>669200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>668200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>676900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>676500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>684700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>690600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>687500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>743400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>489400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>492300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>473900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>464300</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>447900</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>434200</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>259400</v>
+      </c>
+      <c r="E62" s="3">
         <v>258600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>267700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>253400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>264600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>209200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>220400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>211700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>175400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>176700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>175700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>176100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>164700</v>
-      </c>
-      <c r="P62" s="3">
-        <v>163300</v>
       </c>
       <c r="Q62" s="3">
         <v>163300</v>
       </c>
       <c r="R62" s="3">
+        <v>163300</v>
+      </c>
+      <c r="S62" s="3">
         <v>169200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>162200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>168300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>173600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>156000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>149600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>163300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>177700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>98400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>50500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>50700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>46800</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>40800</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5201,8 +5350,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5290,8 +5442,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5379,97 +5534,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1598400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1618800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1654500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1692500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1689200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1492700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1192600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1258300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1217300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1185400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1126300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1139000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1124900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1148800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1135800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1064000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1079300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1111800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1119800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1136100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1144200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1118100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1185700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>812700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>769100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>726900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>688400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>676400</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>654700</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5501,8 +5662,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5590,8 +5752,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5679,8 +5844,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5768,8 +5936,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5857,97 +6028,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1755900</v>
+      </c>
+      <c r="E72" s="3">
         <v>1714400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1659300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1585500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1507000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1446500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1372600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1268100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1229300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1150300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1080000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1034000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>986800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>943200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>963800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>950900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>939900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>916000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>882900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>856500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>834600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>791800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>758800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>722100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>741400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>707000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>665800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>634400</v>
       </c>
-      <c r="AE72" s="3" t="s">
+      <c r="AF72" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6035,8 +6212,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6124,8 +6304,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6213,97 +6396,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2404500</v>
+      </c>
+      <c r="E76" s="3">
         <v>2357000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2307200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2211200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2088700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2051800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2000500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1893400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1821300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1742100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1660600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1608600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1529400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1462300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1476800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1495900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1472100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1509800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1505300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1478200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1519300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1469900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1441800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>927400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>933100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>895300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>855600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>814800</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>803400</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6391,191 +6580,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44562</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44464</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44282</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E81" s="3">
         <v>70100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>88700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>93300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>75500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>87000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>117500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>51900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>92100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>82100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>57700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>59000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>55400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>24600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>22700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>35600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>43800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>37000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>32700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>53500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>42300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>36000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-10800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>42800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>48600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>38900</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>27200</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6607,97 +6805,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E83" s="3">
         <v>34900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>34500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>32500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>32600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>27300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>28300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>25600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>24600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>24200</v>
       </c>
       <c r="M83" s="3">
         <v>24200</v>
       </c>
       <c r="N83" s="3">
-        <v>24300</v>
+        <v>24200</v>
       </c>
       <c r="O83" s="3">
         <v>24300</v>
       </c>
       <c r="P83" s="3">
+        <v>24300</v>
+      </c>
+      <c r="Q83" s="3">
         <v>23700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>23800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>23400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>23100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>22700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>23300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>27100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>26300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>26200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>23600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>16400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>15900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>15600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>15100</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>14900</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6785,8 +6987,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6874,8 +7079,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6963,8 +7171,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7052,8 +7263,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7141,97 +7355,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>161500</v>
+      </c>
+      <c r="E89" s="3">
         <v>98200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>53400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>106300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>148100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>113600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>51700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>132700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>114300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>76200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>50200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>93800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>63000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>56000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>45300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>84500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>80800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>49200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>30900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>79700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>111200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>71600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>69300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>87900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>87700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>70600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>22900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>80100</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7263,97 +7483,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-25700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-26600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-21600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-26300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-29800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-33000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17900</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-14700</v>
       </c>
       <c r="N91" s="3">
         <v>-14700</v>
       </c>
       <c r="O91" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="P91" s="3">
         <v>-12100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-23500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-13100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-14100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-18800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-15600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-22400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-17900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-17500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-20200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-15900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-12400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-11700</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7441,8 +7665,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7530,97 +7757,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-62400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-183200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-26400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-544600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-35600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-29800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-333500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-25700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-17900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-122000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-23500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-13100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-14200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-13700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-17800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-26400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-324400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-16900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-43100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-14000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-22100</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-12800</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-124300</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7652,13 +7885,14 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-14900</v>
+        <v>-16200</v>
       </c>
       <c r="E96" s="3">
         <v>-14900</v>
@@ -7670,7 +7904,7 @@
         <v>-14900</v>
       </c>
       <c r="H96" s="3">
-        <v>-13100</v>
+        <v>-14900</v>
       </c>
       <c r="I96" s="3">
         <v>-13100</v>
@@ -7682,13 +7916,13 @@
         <v>-13100</v>
       </c>
       <c r="L96" s="3">
-        <v>-11800</v>
+        <v>-13100</v>
       </c>
       <c r="M96" s="3">
         <v>-11800</v>
       </c>
       <c r="N96" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="O96" s="3">
         <v>-11700</v>
@@ -7706,31 +7940,31 @@
         <v>-11700</v>
       </c>
       <c r="T96" s="3">
-        <v>-10600</v>
+        <v>-11700</v>
       </c>
       <c r="U96" s="3">
         <v>-10600</v>
       </c>
       <c r="V96" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="W96" s="3">
         <v>-10700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-10800</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-9300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-9200</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-8400</v>
       </c>
       <c r="AA96" s="3">
         <v>-8400</v>
       </c>
       <c r="AB96" s="3">
-        <v>-7500</v>
+        <v>-8400</v>
       </c>
       <c r="AC96" s="3">
         <v>-7500</v>
@@ -7739,10 +7973,13 @@
         <v>-7500</v>
       </c>
       <c r="AE96" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="AF96" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7830,8 +8067,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7919,8 +8159,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8008,271 +8251,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-20500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-12200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>76900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>282100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-37100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-14900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-34300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-49400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-68900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>65800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-10800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-59800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-44300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-31300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-73400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-44100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>240300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-18200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>3600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-13000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>2900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>21800</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>73600</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>20500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-16500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-12800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>11300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>8000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-6500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>4100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>2700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-900</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-8500</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E102" s="3">
         <v>55600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-137400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>88700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-336000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>347300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-17900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-213000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>74000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>44600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-110200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>45600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-10000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>31300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>89400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>55100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-13100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-8500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>90100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-17200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>56800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>50900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>43900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>2900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>80600</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>15000</v>
       </c>
     </row>
